--- a/Process Results/Unified_IBNP_ULI.xlsx
+++ b/Process Results/Unified_IBNP_ULI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joranias\Documents\GitHub\DMI_IBNP\Process Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F175F5B-1C3A-4DF8-B270-FD864677798C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B32FEF16-B029-495D-A6A7-1DB522EDE758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2927,7 +2927,7 @@
   <dimension ref="A1:X60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Process Results/Unified_IBNP_ULI.xlsx
+++ b/Process Results/Unified_IBNP_ULI.xlsx
@@ -3727,20 +3727,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1142750588616924</v>
+        <v>0.1238855396826194</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1205201294976173</v>
+        <v>0.1235171041612829</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.1187034042890982</v>
+        <v>0.1235223777003392</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.1173145411419835</v>
+        <v>0.1237010475822527</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3765,20 +3765,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.73173407836875</v>
+        <v>0.8279819058877002</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.7610443638269679</v>
+        <v>0.8354735343656915</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.7571533702251498</v>
+        <v>0.8129704194799525</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.7461014714863431</v>
+        <v>0.8317108502737699</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3803,20 +3803,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.890714753616917</v>
+        <v>0.9365483756759824</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9070052509236243</v>
+        <v>0.9405635909789347</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9113610476473865</v>
+        <v>0.923102385936831</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8987861920267872</v>
+        <v>0.9385516889768244</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3841,20 +3841,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.9386126964673722</v>
+        <v>0.9550332299316892</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.939991238043443</v>
+        <v>0.9672949152312795</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.9361890592216205</v>
+        <v>0.9560344168905459</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.9393014614604283</v>
+        <v>0.9611249666341557</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3879,20 +3879,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9592426917029653</v>
+        <v>0.9633803069279212</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9621979593330903</v>
+        <v>0.9776512354804539</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.9623814830386282</v>
+        <v>0.9665865961404834</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.9607180528465401</v>
+        <v>0.9704633095627093</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3917,20 +3917,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9732227709672842</v>
+        <v>0.9782369426558786</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9716202704502908</v>
+        <v>0.9864436035071718</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9738390573469654</v>
+        <v>0.9755000114401975</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9724208604992354</v>
+        <v>0.9823231330730745</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3955,20 +3955,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9844172638149821</v>
+        <v>0.9881831207874049</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9846224965727798</v>
+        <v>0.9926722579828524</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.9849938975159731</v>
+        <v>0.9810091891326467</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.9845198694981891</v>
+        <v>0.9904226026046963</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -3993,20 +3993,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9912326755966965</v>
+        <v>0.9901700539291699</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9904890445271496</v>
+        <v>0.9937524295686732</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9897638880044799</v>
+        <v>0.9863461137478007</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9908607205400209</v>
+        <v>0.9919580073949259</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4031,20 +4031,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9972685675819709</v>
+        <v>0.9931940866760615</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9954539446109003</v>
+        <v>0.9956749695638362</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9937681693654528</v>
+        <v>0.9882730499428105</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9963604298758988</v>
+        <v>0.9944329808134824</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -4069,20 +4069,20 @@
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9989685095281418</v>
+        <v>0.9942464773716529</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.9980061698738929</v>
+        <v>0.9963145004542454</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.9962556974393664</v>
+        <v>0.989828814214588</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.9984871078258665</v>
+        <v>0.9952794146631477</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4107,20 +4107,20 @@
         <v/>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9991132631401398</v>
+        <v>0.9983889682850108</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9985214209617306</v>
+        <v>0.9988962890068834</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9970665053842077</v>
+        <v>0.9949112664857171</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9988172543779571</v>
+        <v>0.9986425642149117</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -4145,20 +4145,20 @@
         <v/>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.999516514451853</v>
+        <v>0.9990247933641668</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9988564522453199</v>
+        <v>0.9993769944761807</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9979913454294631</v>
+        <v>0.9982399459390322</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
         <v/>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9991863743393765</v>
+        <v>0.9992008628839667</v>
       </c>
       <c r="J18" s="5">
         <f>I18</f>
@@ -4183,20 +4183,20 @@
         <v/>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.9996441868278346</v>
+        <v>0.9997142506624206</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.9990802250966797</v>
+        <v>0.9997538329594955</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.9986393025159451</v>
+        <v>0.999203775798771</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
         <v/>
       </c>
       <c r="I19" s="5" t="n">
-        <v>0.9993621263983031</v>
+        <v>0.9997340414191642</v>
       </c>
       <c r="J19" s="5">
         <f>I19</f>
@@ -4221,20 +4221,20 @@
         <v/>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9997926252271788</v>
+        <v>0.9999199209654517</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9997951967819307</v>
+        <v>0.9999635233719153</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9997958543323753</v>
+        <v>0.9999142200621186</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
         <v/>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.9997939110029013</v>
+        <v>0.9999417216933634</v>
       </c>
       <c r="J20" s="5">
         <f>I20</f>
@@ -4259,20 +4259,20 @@
         <v/>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9998291593076184</v>
+        <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9998132298363647</v>
+        <v>1</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9998269316330926</v>
+        <v>0.9999490872895648</v>
       </c>
       <c r="H21" s="4">
         <f>+I21/I22</f>
         <v/>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9998211945085432</v>
+        <v>1</v>
       </c>
       <c r="J21" s="5">
         <f>I21</f>
@@ -4297,20 +4297,20 @@
         <v/>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.9998291593076184</v>
+        <v>1</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.9998132298363647</v>
+        <v>1</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.9998283864458043</v>
+        <v>1</v>
       </c>
       <c r="H22" s="4">
         <f>+I22/I23</f>
         <v/>
       </c>
       <c r="I22" s="5" t="n">
-        <v>0.9998211945085432</v>
+        <v>1</v>
       </c>
       <c r="J22" s="5">
         <f>I22</f>
@@ -4335,20 +4335,20 @@
         <v/>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.9998291593076184</v>
+        <v>1</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.9998688103947045</v>
+        <v>1</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9998688103947045</v>
+        <v>1</v>
       </c>
       <c r="H23" s="4">
         <f>+I23/I24</f>
         <v/>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.9998489844580499</v>
+        <v>1</v>
       </c>
       <c r="J23" s="5">
         <f>I23</f>
@@ -4373,20 +4373,20 @@
         <v/>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9998291593076184</v>
+        <v>1</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9998688103947045</v>
+        <v>1</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9998688103947045</v>
+        <v>1</v>
       </c>
       <c r="H24" s="4">
         <f>+I24/I25</f>
         <v/>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9998489844580499</v>
+        <v>1</v>
       </c>
       <c r="J24" s="5">
         <f>I24</f>
@@ -4411,20 +4411,20 @@
         <v/>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.9998291593076184</v>
+        <v>1</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.9998688103947045</v>
+        <v>1</v>
       </c>
       <c r="G25" s="5" t="n">
-        <v>0.9998688103947045</v>
+        <v>1</v>
       </c>
       <c r="H25" s="4">
         <f>+I25/I26</f>
         <v/>
       </c>
       <c r="I25" s="5" t="n">
-        <v>0.9998489844580499</v>
+        <v>1</v>
       </c>
       <c r="J25" s="5">
         <f>I25</f>
@@ -4449,20 +4449,20 @@
         <v/>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.9998291593076184</v>
+        <v>1</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.9998688103947045</v>
+        <v>1</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.9998688103947045</v>
+        <v>1</v>
       </c>
       <c r="H26" s="4">
         <f>+I26/I27</f>
         <v/>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.9998489844580499</v>
+        <v>1</v>
       </c>
       <c r="J26" s="5">
         <f>I26</f>
@@ -4833,49 +4833,49 @@
         <v>0</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>7.826985894414223</v>
+        <v>7.377293063249313</v>
       </c>
       <c r="C38" s="4" t="n">
-        <v>1.118215962831032</v>
+        <v>1.290547879714412</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>1.015278043001582</v>
+        <v>1.023439757178811</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>1.006597939080063</v>
+        <v>1.005623750570419</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>1.003971538476471</v>
+        <v>1.010253789090547</v>
       </c>
       <c r="G38" s="4" t="n">
-        <v>1.00056215116596</v>
+        <v>1.001235761157185</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>1.007120965147446</v>
+        <v>1.001604822927403</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>1.011300110631752</v>
+        <v>1.007136590186932</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>1.000729977042476</v>
+        <v>1.008396477689896</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>1</v>
+        <v>1.000091647102148</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>1.007086871667479</v>
+        <v>1.000756477221732</v>
       </c>
       <c r="M38" s="4" t="n">
-        <v>1.00249200309012</v>
+        <v>1.00034875142221</v>
       </c>
       <c r="N38" s="4" t="n">
-        <v>1</v>
+        <v>1.004226471450221</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>1.000013266529793</v>
+        <v>1.000379791870301</v>
       </c>
       <c r="Q38" s="4" t="n">
         <v>1</v>
@@ -4908,40 +4908,40 @@
         <v/>
       </c>
       <c r="B39" s="4" t="n">
-        <v>5.591122713057039</v>
+        <v>7.205064215434811</v>
       </c>
       <c r="C39" s="4" t="n">
-        <v>1.089530544634435</v>
+        <v>1.169693821459428</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>1.032547142359509</v>
+        <v>1.011035090121665</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>1.013752152682662</v>
+        <v>1.023764817950151</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>1.008199207173611</v>
+        <v>1.011213475939892</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>1.001233256084785</v>
+        <v>1.0008449265934</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>1.000844839199421</v>
+        <v>1.010092570317269</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>1.00092597646626</v>
+        <v>1.000253494939318</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>1.000521624949868</v>
+        <v>1.000198584858981</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>1.006158077872936</v>
+        <v>1.000158658741623</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>1.005013864076984</v>
+        <v>1.000370243656433</v>
       </c>
       <c r="M39" s="4" t="n">
-        <v>1.00056824726435</v>
+        <v>1.008500766395857</v>
       </c>
       <c r="N39" s="4" t="n">
         <v>1</v>
@@ -4983,67 +4983,67 @@
         <v/>
       </c>
       <c r="B40" s="4" t="n">
-        <v>7.660280252025122</v>
+        <v>3.973447783970164</v>
       </c>
       <c r="C40" s="4" t="n">
-        <v>1.135398996805729</v>
+        <v>1.304353678964997</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>1.009917646838174</v>
+        <v>1.023612733806841</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>1.016121231247406</v>
+        <v>1.059671526185737</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>1.017962245399225</v>
+        <v>1.005274587240928</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>1.001414416261389</v>
+        <v>1.018213058807663</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>1.020549874715165</v>
+        <v>1.00475822034695</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>1.003882485738095</v>
+        <v>1.009588252663471</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>1.009126158742403</v>
+        <v>1.003838341554457</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>1.003596980263682</v>
+        <v>1.000189284098736</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>1.00075485523224</v>
+        <v>1.00668879936453</v>
       </c>
       <c r="M40" s="4" t="n">
-        <v>1.000567741414639</v>
+        <v>1</v>
       </c>
       <c r="N40" s="4" t="n">
-        <v>1</v>
+        <v>1.001035687659851</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>1</v>
+        <v>1.000118404485891</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="T40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="U40" s="4" t="n">
-        <v>1.000543983271596</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="V40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="W40" t="n">
         <v/>
@@ -5058,46 +5058,46 @@
         <v/>
       </c>
       <c r="B41" s="4" t="n">
-        <v>7.466822552936939</v>
+        <v>13.15339283735029</v>
       </c>
       <c r="C41" s="4" t="n">
-        <v>1.0824302237579</v>
+        <v>1.158540694747568</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>1.034127342312343</v>
+        <v>1.023020256096079</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>1.011444189571259</v>
+        <v>1.028322610996418</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>1.005995400710036</v>
+        <v>1.004689690961112</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>1.005507985844064</v>
+        <v>1.026401820850426</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>1.000610290967293</v>
+        <v>1.002119507689628</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>1.006281626603232</v>
+        <v>1.007499674495905</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>1.000849504894816</v>
+        <v>1.000458730382337</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>1.000045945064218</v>
+        <v>1.030730090996987</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>1.000251427933327</v>
+        <v>1.024587645679617</v>
       </c>
       <c r="M41" s="4" t="n">
-        <v>1.002042338457347</v>
+        <v>1.000501828822135</v>
       </c>
       <c r="N41" s="4" t="n">
-        <v>1</v>
+        <v>1.000084207922843</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>1.000201511093796</v>
+        <v>1</v>
       </c>
       <c r="P41" s="4" t="n">
         <v>1</v>
@@ -5133,43 +5133,43 @@
         <v/>
       </c>
       <c r="B42" s="4" t="n">
-        <v>6.965220683602901</v>
+        <v>6.54275233753618</v>
       </c>
       <c r="C42" s="4" t="n">
-        <v>1.127248063659628</v>
+        <v>1.235250227065975</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>1.015363386493445</v>
+        <v>1.029201329432863</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>1.015180619240978</v>
+        <v>1.010703240487742</v>
       </c>
       <c r="F42" s="4" t="n">
-        <v>1.003744658135682</v>
+        <v>1.006602709138648</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>1.003259018844257</v>
+        <v>1.017834948117079</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>1.01258988485574</v>
+        <v>1.006188343241518</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>1.000472991568082</v>
+        <v>1.001304667979821</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>1.000950790968249</v>
+        <v>1.010193082282232</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>1</v>
+        <v>1.000422329109982</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>1.000663946463277</v>
+        <v>1</v>
       </c>
       <c r="M42" s="4" t="n">
-        <v>1</v>
+        <v>1.000221588746383</v>
       </c>
       <c r="N42" s="4" t="n">
-        <v>1.008910329387629</v>
+        <v>1</v>
       </c>
       <c r="O42" s="4" t="n">
         <v>1</v>
@@ -5178,16 +5178,16 @@
         <v>1</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>1.00033807825326</v>
+        <v>1</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="S42" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="T42" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="U42" s="4" t="n">
         <v/>
@@ -5208,58 +5208,58 @@
         <v/>
       </c>
       <c r="B43" s="4" t="n">
-        <v>10.68996992981496</v>
+        <v>5.860563917942952</v>
       </c>
       <c r="C43" s="4" t="n">
-        <v>1.101635897910107</v>
+        <v>1.138111678645722</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>1.047309598106313</v>
+        <v>1.009757620310997</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>1.008836505532495</v>
+        <v>1.039055622598291</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>1.002135802654374</v>
+        <v>1.002974843791148</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v>1.006115548737396</v>
+        <v>1.008848430921703</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>1.006620017386958</v>
+        <v>1.012259713424378</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>1.012896589360247</v>
+        <v>1.000789334027486</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>1.001442368265778</v>
+        <v>1</v>
       </c>
       <c r="K43" s="4" t="n">
-        <v>1.000983383870673</v>
+        <v>1.011642612344665</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>1.000346076868389</v>
+        <v>1.000204230861357</v>
       </c>
       <c r="M43" s="4" t="n">
-        <v>1.000663799821063</v>
+        <v>1.000281978775587</v>
       </c>
       <c r="N43" s="4" t="n">
-        <v>1.003748552941457</v>
+        <v>1</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q43" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="R43" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="S43" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="T43" t="n">
         <v/>
@@ -5283,43 +5283,43 @@
         <v/>
       </c>
       <c r="B44" s="4" t="n">
-        <v>6.129340061697951</v>
+        <v>8.21183670328783</v>
       </c>
       <c r="C44" s="4" t="n">
-        <v>1.283150346323841</v>
+        <v>1.158037571799859</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>1.009463190180012</v>
+        <v>1.02580464626071</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>1.003492484434753</v>
+        <v>1.033051988854723</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>1.012029251162421</v>
+        <v>1.01860510720992</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>1.005153275081282</v>
+        <v>1.006706677450866</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>1.000260659401877</v>
+        <v>1.024766226298252</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>1.000103610966675</v>
+        <v>1.002776550989152</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>1.010010859193815</v>
+        <v>1.000517471422133</v>
       </c>
       <c r="K44" s="4" t="n">
-        <v>1.000642742651783</v>
+        <v>1.000085543340393</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>1.000996274360847</v>
+        <v>1.004081495109462</v>
       </c>
       <c r="M44" s="4" t="n">
-        <v>1.000048647332832</v>
+        <v>1.00028327082619</v>
       </c>
       <c r="N44" s="4" t="n">
-        <v>1.000013186508397</v>
+        <v>1</v>
       </c>
       <c r="O44" s="4" t="n">
         <v>1</v>
@@ -5358,46 +5358,46 @@
         <v/>
       </c>
       <c r="B45" s="4" t="n">
-        <v>8.157686405116996</v>
+        <v>3.746544269499042</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>1.085327088206857</v>
+        <v>1.224152043993084</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>1.018700221632256</v>
+        <v>1.080316951318296</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>1.013565145745314</v>
+        <v>1.026430713331083</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>1.005664485232437</v>
+        <v>1.023038665508894</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>1.017864820943868</v>
+        <v>1.00223465189123</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>1.003052491849976</v>
+        <v>1.001279554421791</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>1.00106822384997</v>
+        <v>1.002150585862876</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>1.000841002014496</v>
+        <v>1.001051996518026</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v>1.001260696584156</v>
+        <v>1.004410531474481</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>1.000557908545169</v>
+        <v>1.000277831966629</v>
       </c>
       <c r="M45" s="4" t="n">
-        <v>1.000033730501017</v>
+        <v>1</v>
       </c>
       <c r="N45" s="4" t="n">
-        <v>1.000005948518107</v>
+        <v>1.000667806158212</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>1</v>
+        <v>1.000155946268527</v>
       </c>
       <c r="P45" s="4" t="n">
         <v>1</v>
@@ -5433,49 +5433,49 @@
         <v/>
       </c>
       <c r="B46" s="4" t="n">
-        <v>4.829823284383173</v>
+        <v>10.30881150711568</v>
       </c>
       <c r="C46" s="4" t="n">
-        <v>1.14975081470098</v>
+        <v>1.331619863729296</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>1.042319976159205</v>
+        <v>1.017930886735991</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>1.00603998522973</v>
+        <v>1.006436985641507</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>1.031135603736815</v>
+        <v>1.003059994764371</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>1.028885732210444</v>
+        <v>1.002265066449106</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>1.011207437595437</v>
+        <v>1.002842358609695</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>1.002615821287402</v>
+        <v>1.000135593304291</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>1.000745585456176</v>
+        <v>1.000459113018102</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>1.001205063735752</v>
+        <v>1.000468029327363</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>1.000166653151911</v>
+        <v>1.00064987837394</v>
       </c>
       <c r="M46" s="4" t="n">
-        <v>1.000906807895462</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N46" s="4" t="n">
-        <v>1.000355823688747</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>1.000111094621459</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P46" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q46" s="4" t="n">
         <v/>
@@ -5508,46 +5508,46 @@
         <v/>
       </c>
       <c r="B47" s="4" t="n">
-        <v>6.720648985308772</v>
+        <v>5.278197297182762</v>
       </c>
       <c r="C47" s="4" t="n">
-        <v>1.114358274984323</v>
+        <v>1.105300047565976</v>
       </c>
       <c r="D47" s="4" t="n">
-        <v>1.0195814304274</v>
+        <v>1.067378554317443</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>1.096271759134321</v>
+        <v>1.026801921647559</v>
       </c>
       <c r="F47" s="4" t="n">
-        <v>1.002800107892534</v>
+        <v>1.003186022343536</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>1.001584864692649</v>
+        <v>1.015781220830222</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>1.000426705131284</v>
+        <v>1.006105727607923</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>1.0012965025231</v>
+        <v>1.005294310199945</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>1.000596742098288</v>
+        <v>1</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>1.000797541391314</v>
+        <v>1.000130958981249</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>1.000073540929478</v>
+        <v>1</v>
       </c>
       <c r="M47" s="4" t="n">
-        <v>1</v>
+        <v>1.001139289527164</v>
       </c>
       <c r="N47" s="4" t="n">
-        <v>1</v>
+        <v>1.00041867589582</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>1</v>
+        <v>1.00008180890152</v>
       </c>
       <c r="P47" t="n">
         <v/>
@@ -5583,43 +5583,43 @@
         <v/>
       </c>
       <c r="B48" s="4" t="n">
-        <v>7.544889001565096</v>
+        <v>6.057869586511897</v>
       </c>
       <c r="C48" s="4" t="n">
-        <v>1.114374449714605</v>
+        <v>1.212187037913814</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>1.013386104730383</v>
+        <v>1.029652128022873</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>1.003411203789303</v>
+        <v>1.003190178624631</v>
       </c>
       <c r="F48" s="4" t="n">
-        <v>1.024048503072917</v>
+        <v>1.004520104607533</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>1.005577062206356</v>
+        <v>1.004990350425104</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>1.001060544426642</v>
+        <v>1.008741514564478</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>1.003457889575589</v>
+        <v>1.001543573689181</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>1.00028298926539</v>
+        <v>1.00033814609151</v>
       </c>
       <c r="K48" s="4" t="n">
-        <v>1.000720666501297</v>
+        <v>1.001852789785731</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>1.000022639657663</v>
+        <v>1.000671907841499</v>
       </c>
       <c r="M48" s="4" t="n">
-        <v>1</v>
+        <v>1.000581167349316</v>
       </c>
       <c r="N48" s="4" t="n">
-        <v>1.00009242705116</v>
+        <v>1.000225311410886</v>
       </c>
       <c r="O48" t="n">
         <v/>
@@ -5658,40 +5658,40 @@
         <v/>
       </c>
       <c r="B49" s="4" t="n">
-        <v>7.377293063249313</v>
+        <v>8.076428071811613</v>
       </c>
       <c r="C49" s="4" t="n">
-        <v>1.290547879714412</v>
+        <v>1.107835071048841</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>1.023439757178811</v>
+        <v>1.026415737559573</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>1.005623750570419</v>
+        <v>1.009321902023144</v>
       </c>
       <c r="F49" s="4" t="n">
-        <v>1.010253789090547</v>
+        <v>1.012196582616123</v>
       </c>
       <c r="G49" s="4" t="n">
-        <v>1.001235761157185</v>
+        <v>1.000073527654401</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>1.001604822927403</v>
+        <v>1.000631443565499</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>1.007136590186932</v>
+        <v>1.001122150099189</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>1.008396477689896</v>
+        <v>1.000266580345412</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>1.000091647102148</v>
+        <v>1.000627908745874</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>1.000756477221732</v>
+        <v>1.000943203685346</v>
       </c>
       <c r="M49" s="4" t="n">
-        <v>1.00034875142221</v>
+        <v>1.000398408405391</v>
       </c>
       <c r="N49" t="n">
         <v/>
@@ -5733,37 +5733,37 @@
         <v/>
       </c>
       <c r="B50" s="4" t="n">
-        <v>7.205064215434811</v>
+        <v>5.863456643172494</v>
       </c>
       <c r="C50" s="4" t="n">
-        <v>1.169693821459428</v>
+        <v>1.165654637250338</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>1.011035090121665</v>
+        <v>1.013012307293453</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>1.023764817950151</v>
+        <v>1.011274851096303</v>
       </c>
       <c r="F50" s="4" t="n">
-        <v>1.011213475939892</v>
+        <v>1.008534598040697</v>
       </c>
       <c r="G50" s="4" t="n">
-        <v>1.0008449265934</v>
+        <v>1.001053306228672</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>1.010092570317269</v>
+        <v>1.000216552734275</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>1.000253494939318</v>
+        <v>1.000501360426169</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>1.000198584858981</v>
+        <v>1.000609376046108</v>
       </c>
       <c r="K50" s="4" t="n">
-        <v>1.000158658741623</v>
+        <v>1.000671281785724</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>1.000370243656433</v>
+        <v>1.000325202100577</v>
       </c>
       <c r="M50" t="n">
         <v/>
@@ -5808,34 +5808,34 @@
         <v/>
       </c>
       <c r="B51" s="4" t="n">
-        <v>3.973447783970164</v>
+        <v>7.371622536457783</v>
       </c>
       <c r="C51" s="4" t="n">
-        <v>1.304353678964997</v>
+        <v>1.203264403855266</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>1.023612733806841</v>
+        <v>1.084069741737773</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>1.059671526185737</v>
+        <v>1.011613642600036</v>
       </c>
       <c r="F51" s="4" t="n">
-        <v>1.005274587240928</v>
+        <v>1.006881687393857</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v>1.018213058807663</v>
+        <v>1.009163896056758</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>1.00475822034695</v>
+        <v>1.000246654152706</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>1.009588252663471</v>
+        <v>1.000768673077369</v>
       </c>
       <c r="J51" s="4" t="n">
-        <v>1.003838341554457</v>
+        <v>1.002105990068578</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v>1.000189284098736</v>
+        <v>1.012477490972658</v>
       </c>
       <c r="L51" t="n">
         <v/>
@@ -5883,31 +5883,31 @@
         <v/>
       </c>
       <c r="B52" s="4" t="n">
-        <v>13.15481131946235</v>
+        <v>11.99846984024675</v>
       </c>
       <c r="C52" s="4" t="n">
-        <v>1.158523599318825</v>
+        <v>1.106585644145959</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>1.023018113479278</v>
+        <v>1.038411321400562</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>1.028320034175013</v>
+        <v>1.022492646916048</v>
       </c>
       <c r="F52" s="4" t="n">
-        <v>1.004689276038637</v>
+        <v>1.000990644720981</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>1.026399495840304</v>
+        <v>1.000343824506362</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>1.002119325841207</v>
+        <v>1.000633214201579</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>1.007499032403526</v>
+        <v>1.002651439140947</v>
       </c>
       <c r="J52" s="4" t="n">
-        <v>1.000458691399992</v>
+        <v>1.000527756724845</v>
       </c>
       <c r="K52" t="n">
         <v/>
@@ -5958,28 +5958,28 @@
         <v/>
       </c>
       <c r="B53" s="4" t="n">
-        <v>6.54275233753618</v>
+        <v>7.079822470103472</v>
       </c>
       <c r="C53" s="4" t="n">
-        <v>1.235250227065975</v>
+        <v>1.06424473995111</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>1.029201329432863</v>
+        <v>1.045604231436621</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>1.010703240487742</v>
+        <v>1.006290439999092</v>
       </c>
       <c r="F53" s="4" t="n">
-        <v>1.006602709138648</v>
+        <v>1.001883515944616</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>1.017834948117079</v>
+        <v>1.011991877161414</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>1.006188343241518</v>
+        <v>1.005897885061017</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>1.001304667979821</v>
+        <v>1.00647407374637</v>
       </c>
       <c r="J53" t="n">
         <v/>
@@ -6033,25 +6033,25 @@
         <v/>
       </c>
       <c r="B54" s="4" t="n">
-        <v>5.860563917942952</v>
+        <v>3.649903435306264</v>
       </c>
       <c r="C54" s="4" t="n">
-        <v>1.138111678645722</v>
+        <v>1.09205865112515</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>1.009757620310997</v>
+        <v>1.047505468312888</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>1.039055622598291</v>
+        <v>1.007053801624191</v>
       </c>
       <c r="F54" s="4" t="n">
-        <v>1.002974843791148</v>
+        <v>1.003437108900399</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>1.008848430921703</v>
+        <v>1.015751901004386</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>1.012259713424378</v>
+        <v>1.000158729461631</v>
       </c>
       <c r="I54" t="n">
         <v/>
@@ -6108,22 +6108,22 @@
         <v/>
       </c>
       <c r="B55" s="4" t="n">
-        <v>8.21183670328783</v>
+        <v>10.66220521028777</v>
       </c>
       <c r="C55" s="4" t="n">
-        <v>1.158037571799859</v>
+        <v>1.179673061313342</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>1.02580464626071</v>
+        <v>1.010852843486084</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>1.033051988854723</v>
+        <v>1.006333519539653</v>
       </c>
       <c r="F55" s="4" t="n">
-        <v>1.01860510720992</v>
+        <v>1.018077881407923</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>1.006706677450866</v>
+        <v>1.00078558751101</v>
       </c>
       <c r="H55" t="n">
         <v/>
@@ -6183,19 +6183,19 @@
         <v/>
       </c>
       <c r="B56" s="4" t="n">
-        <v>3.746544269499042</v>
+        <v>5.392774286267494</v>
       </c>
       <c r="C56" s="4" t="n">
-        <v>1.224152043993084</v>
+        <v>1.105496027011371</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>1.080316951318296</v>
+        <v>1.013898907147393</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>1.026430713331083</v>
+        <v>1.004588770700697</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>1.023038665508894</v>
+        <v>1.028024558267177</v>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -6258,16 +6258,16 @@
         <v/>
       </c>
       <c r="B57" s="4" t="n">
-        <v>10.30881150711568</v>
+        <v>6.507415323921843</v>
       </c>
       <c r="C57" s="4" t="n">
-        <v>1.331619863729296</v>
+        <v>1.099604517754984</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>1.017930886735991</v>
+        <v>1.009446007636514</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>1.006436985641507</v>
+        <v>1.015850725554155</v>
       </c>
       <c r="F57" t="n">
         <v/>
@@ -6333,13 +6333,13 @@
         <v/>
       </c>
       <c r="B58" s="4" t="n">
-        <v>5.278197297182762</v>
+        <v>5.593226222973699</v>
       </c>
       <c r="C58" s="4" t="n">
-        <v>1.105300047565976</v>
+        <v>1.113563779473882</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>1.067378554317443</v>
+        <v>1.03701643316895</v>
       </c>
       <c r="E58" t="n">
         <v/>
@@ -6408,10 +6408,10 @@
         <v/>
       </c>
       <c r="B59" s="4" t="n">
-        <v>6.057869586511897</v>
+        <v>6.23067707811022</v>
       </c>
       <c r="C59" s="4" t="n">
-        <v>1.212187037913814</v>
+        <v>1.180324864231483</v>
       </c>
       <c r="D59" t="n">
         <v/>
@@ -6483,7 +6483,7 @@
         <v/>
       </c>
       <c r="B60" s="4" t="n">
-        <v>8.076428071811613</v>
+        <v>8.952927182963192</v>
       </c>
       <c r="C60" t="n">
         <v/>
@@ -6704,61 +6704,61 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.1185208973785618</v>
+        <v>0.121970965661073</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.1187034042890982</v>
+        <v>0.1235223777003392</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.1205201294976173</v>
+        <v>0.1235171041612829</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.1142750588616924</v>
+        <v>0.1238855396826194</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.1092825595864399</v>
+        <v>0.1092720669064716</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.1057096838626228</v>
+        <v>0.1116180217600107</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.1090216457727943</v>
+        <v>0.1153453829137899</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.1130487682430836</v>
+        <v>0.1193194312017696</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.1173145411419835</v>
+        <v>0.1237010475822527</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="22" t="n">
-        <v>6.677677226463835</v>
+        <v>6.398232972371922</v>
       </c>
       <c r="O2" s="22" t="n">
-        <v>6.378531220394723</v>
+        <v>6.581563880288877</v>
       </c>
       <c r="P2" s="22" t="n">
-        <v>6.314665998114564</v>
+        <v>6.764031103536635</v>
       </c>
       <c r="Q2" s="22" t="n">
-        <v>6.403270194368229</v>
+        <v>6.683442700487042</v>
       </c>
       <c r="R2" s="22" t="n">
-        <v>7.190278688562078</v>
+        <v>7.17803051394363</v>
       </c>
       <c r="S2" s="22" t="n">
-        <v>7.149468339417049</v>
+        <v>7.281577358468549</v>
       </c>
       <c r="T2" s="22" t="n">
-        <v>6.946614572568137</v>
+        <v>7.223204217420704</v>
       </c>
       <c r="U2" s="22" t="n">
-        <v>6.470831651835423</v>
+        <v>6.925610161349037</v>
       </c>
       <c r="V2" s="22" t="n">
-        <v>6.358968096241396</v>
+        <v>6.723736902011838</v>
       </c>
     </row>
     <row r="3">
@@ -6767,62 +6767,62 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.7914442972848796</v>
+        <v>0.7803986541647207</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.7571533702251498</v>
+        <v>0.8129704194799525</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.7610443638269679</v>
+        <v>0.8354735343656915</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.73173407836875</v>
+        <v>0.8279819058877002</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.7857720592258945</v>
+        <v>0.7843582305763428</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.7557680379456069</v>
+        <v>0.8127552600447437</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.7573313532506541</v>
+        <v>0.8331632563228935</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.7315195477483523</v>
+        <v>0.8263598651773628</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.7461014714863431</v>
+        <v>0.8317108502737699</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="22" t="n">
-        <v>1.163534816707917</v>
+        <v>1.175755331118781</v>
       </c>
       <c r="O3" s="22" t="n">
-        <v>1.203667689382907</v>
+        <v>1.135468602322983</v>
       </c>
       <c r="P3" s="22" t="n">
-        <v>1.191790247762537</v>
+        <v>1.125785021656048</v>
       </c>
       <c r="Q3" s="22" t="n">
-        <v>1.217265643282026</v>
+        <v>1.131121790242367</v>
       </c>
       <c r="R3" s="22" t="n">
-        <v>1.169509005168219</v>
+        <v>1.170277270125539</v>
       </c>
       <c r="S3" s="22" t="n">
-        <v>1.203512658323833</v>
+        <v>1.135874369589629</v>
       </c>
       <c r="T3" s="22" t="n">
-        <v>1.194901373941292</v>
+        <v>1.128453483485035</v>
       </c>
       <c r="U3" s="22" t="n">
-        <v>1.216368983069695</v>
+        <v>1.13116438715345</v>
       </c>
       <c r="V3" s="22" t="n">
-        <v>1.204527945522281</v>
+        <v>1.128453405949207</v>
       </c>
     </row>
     <row r="4">
@@ -6831,62 +6831,62 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.9208729953758887</v>
+        <v>0.917557878032092</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.9113610476473865</v>
+        <v>0.923102385936831</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.9070052509236243</v>
+        <v>0.9405635909789347</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.890714753616917</v>
+        <v>0.9365483756759824</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.9189674992742589</v>
+        <v>0.9179166088793804</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.9095764004241047</v>
+        <v>0.9231878686339778</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.9049362745280248</v>
+        <v>0.9401859789093046</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.8897976883902666</v>
+        <v>0.934748850461559</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.8987861920267872</v>
+        <v>0.9385516889768244</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1.026165021381188</v>
+        <v>1.030996839919417</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>1.027242783349503</v>
+        <v>1.035675382769478</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>1.03636802222063</v>
+        <v>1.02842053903503</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>1.05377472715699</v>
+        <v>1.019737212444968</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>1.027118560247787</v>
+        <v>1.031780140608685</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>1.028705268176723</v>
+        <v>1.035271973460011</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>1.03839833139605</v>
+        <v>1.027387315198075</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>1.055208797457243</v>
+        <v>1.020120449317619</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>1.04507137468881</v>
+        <v>1.024078875739999</v>
       </c>
     </row>
     <row r="5">
@@ -6895,62 +6895,62 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.9449676569892578</v>
+        <v>0.9459992726942524</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.9361890592216205</v>
+        <v>0.9560344168905459</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.939991238043443</v>
+        <v>0.9672949152312795</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.9386126964673722</v>
+        <v>0.9550332299316892</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.9438885747690858</v>
+        <v>0.947088127776614</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.9356860349254973</v>
+        <v>0.9557505266350393</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.9396843174896586</v>
+        <v>0.9659351486585044</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>0.9389223487465279</v>
+        <v>0.9535564173319737</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.9393014614604283</v>
+        <v>0.9611249666341557</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="22" t="n">
-        <v>1.020722044573664</v>
+        <v>1.018896757144603</v>
       </c>
       <c r="O5" s="22" t="n">
-        <v>1.027977707663861</v>
+        <v>1.011037447045325</v>
       </c>
       <c r="P5" s="22" t="n">
-        <v>1.02362439179313</v>
+        <v>1.01070647646969</v>
       </c>
       <c r="Q5" s="22" t="n">
-        <v>1.021979241611836</v>
+        <v>1.008740090642531</v>
       </c>
       <c r="R5" s="22" t="n">
-        <v>1.021388594774148</v>
+        <v>1.017893682847079</v>
       </c>
       <c r="S5" s="22" t="n">
-        <v>1.028231802329002</v>
+        <v>1.010937448830585</v>
       </c>
       <c r="T5" s="22" t="n">
-        <v>1.023999764181393</v>
+        <v>1.010434984055639</v>
       </c>
       <c r="U5" s="22" t="n">
-        <v>1.021973229275771</v>
+        <v>1.008924338598169</v>
       </c>
       <c r="V5" s="22" t="n">
-        <v>1.022801816702483</v>
+        <v>1.00972328355611</v>
       </c>
     </row>
     <row r="6">
@@ -6959,62 +6959,62 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.9645493188980595</v>
+        <v>0.9638755912093268</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.9623814830386282</v>
+        <v>0.9665865961404834</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.9621979593330903</v>
+        <v>0.9776512354804539</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.9592426917029653</v>
+        <v>0.9633803069279212</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.9640770250067697</v>
+        <v>0.9640350223632828</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.9621021381055211</v>
+        <v>0.9662039991149146</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.9622365195143637</v>
+        <v>0.9760146665335376</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>0.9595535047876803</v>
+        <v>0.9620662776727007</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.9607180528465401</v>
+        <v>0.9704633095627093</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1.010263923159585</v>
+        <v>1.008863757755893</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>1.011905439277739</v>
+        <v>1.009221538282555</v>
       </c>
       <c r="P6" s="22" t="n">
-        <v>1.009792487113287</v>
+        <v>1.008993358477573</v>
       </c>
       <c r="Q6" s="22" t="n">
-        <v>1.014574079516311</v>
+        <v>1.015421361243446</v>
       </c>
       <c r="R6" s="22" t="n">
-        <v>1.010544171452902</v>
+        <v>1.009128714099384</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>1.012191762824443</v>
+        <v>1.009485947043009</v>
       </c>
       <c r="T6" s="22" t="n">
-        <v>1.010197531488029</v>
+        <v>1.009882566105825</v>
       </c>
       <c r="U6" s="22" t="n">
-        <v>1.014872872169987</v>
+        <v>1.016513182858499</v>
       </c>
       <c r="V6" s="22" t="n">
-        <v>1.012183283314799</v>
+        <v>1.012207359860509</v>
       </c>
     </row>
     <row r="7">
@@ -7023,62 +7023,62 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.9744493789908595</v>
+        <v>0.9724191509566243</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.9738390573469654</v>
+        <v>0.9755000114401975</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.9716202704502908</v>
+        <v>0.9864436035071718</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.9732227709672842</v>
+        <v>0.9782369426558786</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.9742424184522448</v>
+        <v>0.9728354224642305</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.9738318591861932</v>
+        <v>0.9753693590832621</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>0.972048956721043</v>
+        <v>0.9856601959958102</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>0.9738248214046508</v>
+        <v>0.9779530540379059</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.9724208604992354</v>
+        <v>0.9823231330730745</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="22" t="n">
-        <v>1.008413198049828</v>
+        <v>1.008142476548566</v>
       </c>
       <c r="O7" s="22" t="n">
-        <v>1.011454500705072</v>
+        <v>1.005647542417058</v>
       </c>
       <c r="P7" s="22" t="n">
-        <v>1.013382003770324</v>
+        <v>1.006314252992807</v>
       </c>
       <c r="Q7" s="22" t="n">
-        <v>1.011502497867546</v>
+        <v>1.01016745299408</v>
       </c>
       <c r="R7" s="22" t="n">
-        <v>1.008735635053369</v>
+        <v>1.008028935200943</v>
       </c>
       <c r="S7" s="22" t="n">
-        <v>1.0115957545019</v>
+        <v>1.005928490597461</v>
       </c>
       <c r="T7" s="22" t="n">
-        <v>1.013141256288503</v>
+        <v>1.006515065411434</v>
       </c>
       <c r="U7" s="22" t="n">
-        <v>1.011130018829883</v>
+        <v>1.009509788558937</v>
       </c>
       <c r="V7" s="22" t="n">
-        <v>1.012442250818935</v>
+        <v>1.008240852993444</v>
       </c>
     </row>
     <row r="8">
@@ -7087,62 +7087,62 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.9826476146058416</v>
+        <v>0.9803370510886654</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.9849938975159731</v>
+        <v>0.9810091891326467</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.9846224965727798</v>
+        <v>0.9926722579828524</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.9844172638149821</v>
+        <v>0.9881831207874049</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.9827530446733554</v>
+        <v>0.9806462550323782</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.9851241743514449</v>
+        <v>0.9811518271576388</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>0.9848229011862859</v>
+        <v>0.9920818366461696</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>0.9846635100038916</v>
+        <v>0.9872531808023726</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.9845198694981891</v>
+        <v>0.9904226026046963</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="22" t="n">
-        <v>1.005826046395075</v>
+        <v>1.005222114460244</v>
       </c>
       <c r="O8" s="22" t="n">
-        <v>1.00484265993986</v>
+        <v>1.005440239168272</v>
       </c>
       <c r="P8" s="22" t="n">
-        <v>1.00595816972981</v>
+        <v>1.001088145233368</v>
       </c>
       <c r="Q8" s="22" t="n">
-        <v>1.006923295671697</v>
+        <v>1.002010693261166</v>
       </c>
       <c r="R8" s="22" t="n">
-        <v>1.00596274745741</v>
+        <v>1.005208414036823</v>
       </c>
       <c r="S8" s="22" t="n">
-        <v>1.004970904324242</v>
+        <v>1.005314964508602</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>1.006170499349788</v>
+        <v>1.001297413196118</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>1.006855794169034</v>
+        <v>1.002229942908076</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1.006440732700754</v>
+        <v>1.001549419247267</v>
       </c>
     </row>
     <row r="9">
@@ -7151,62 +7151,62 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.9883725651985449</v>
+        <v>0.9854564833790689</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.9897638880044799</v>
+        <v>0.9863461137478007</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.9904890445271496</v>
+        <v>0.9937524295686732</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.9912326755966965</v>
+        <v>0.9901700539291699</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.9886129528917429</v>
+        <v>0.9857538667522467</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.9900211323696435</v>
+        <v>0.9863666142965316</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>0.9908997502577117</v>
+        <v>0.9933689767126628</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>0.991414160354237</v>
+        <v>0.9894546990313781</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.9908607205400209</v>
+        <v>0.9919580073949259</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="22" t="n">
-        <v>1.004393875159394</v>
+        <v>1.003224788864878</v>
       </c>
       <c r="O9" s="22" t="n">
-        <v>1.004045693533077</v>
+        <v>1.001953610571535</v>
       </c>
       <c r="P9" s="22" t="n">
-        <v>1.005012574456208</v>
+        <v>1.001934626711803</v>
       </c>
       <c r="Q9" s="22" t="n">
-        <v>1.006089278666728</v>
+        <v>1.003054053932344</v>
       </c>
       <c r="R9" s="22" t="n">
-        <v>1.004380241671467</v>
+        <v>1.003124395301777</v>
       </c>
       <c r="S9" s="22" t="n">
-        <v>1.003974472275345</v>
+        <v>1.002126026045233</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>1.004873321291443</v>
+        <v>1.002176878363204</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>1.006130651015606</v>
+        <v>1.003298061988229</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1.005550926561468</v>
+        <v>1.002494340322074</v>
       </c>
     </row>
     <row r="10">
@@ -7215,62 +7215,62 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.9927153508609977</v>
+        <v>0.9886343724734914</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.9937681693654528</v>
+        <v>0.9882730499428105</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>0.9954539446109003</v>
+        <v>0.9956749695638362</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.9972685675819709</v>
+        <v>0.9931940866760615</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.9929433165449516</v>
+        <v>0.9888337515022355</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.9939559439122518</v>
+        <v>0.9884636554086743</v>
       </c>
       <c r="H10" s="34" t="n">
-        <v>0.9957287231083283</v>
+        <v>0.9955314201447468</v>
       </c>
       <c r="I10" s="34" t="n">
-        <v>0.9974921745832993</v>
+        <v>0.9927179819633282</v>
       </c>
       <c r="J10" s="34" t="n">
-        <v>0.9963604298758988</v>
+        <v>0.9944329808134824</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
         <v/>
       </c>
       <c r="N10" s="22" t="n">
-        <v>1.002681526363292</v>
+        <v>1.002263441110317</v>
       </c>
       <c r="O10" s="22" t="n">
-        <v>1.002503127138296</v>
+        <v>1.001574225131271</v>
       </c>
       <c r="P10" s="22" t="n">
-        <v>1.002563880807153</v>
+        <v>1.000642308895934</v>
       </c>
       <c r="Q10" s="22" t="n">
-        <v>1.001704597940245</v>
+        <v>1.001059602256708</v>
       </c>
       <c r="R10" s="22" t="n">
-        <v>1.002599313226339</v>
+        <v>1.001930776466841</v>
       </c>
       <c r="S10" s="22" t="n">
-        <v>1.002384328138361</v>
+        <v>1.00137735357494</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>1.002295304477834</v>
+        <v>1.000641308212742</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>1.001498539271143</v>
+        <v>1.00108104094651</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>1.002134239373699</v>
+        <v>1.000850955576321</v>
       </c>
     </row>
     <row r="11">
@@ -7279,62 +7279,62 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.9953773432455756</v>
+        <v>0.9908720881552204</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.9962556974393664</v>
+        <v>0.989828814214588</v>
       </c>
       <c r="D11" s="34" t="n">
-        <v>0.9980061698738929</v>
+        <v>0.9963145004542454</v>
       </c>
       <c r="E11" s="34" t="n">
-        <v>0.9989685095281418</v>
+        <v>0.9942464773716529</v>
       </c>
       <c r="F11" s="34" t="n">
-        <v>0.9955242872406515</v>
+        <v>0.9907429684392544</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>0.9963258610376132</v>
+        <v>0.9898251193581501</v>
       </c>
       <c r="H11" s="34" t="n">
-        <v>0.9980142237051867</v>
+        <v>0.9961698626205285</v>
       </c>
       <c r="I11" s="34" t="n">
-        <v>0.9989869557795704</v>
+        <v>0.9937911507501676</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>0.9984871078258665</v>
+        <v>0.9952794146631477</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
         <v/>
       </c>
       <c r="N11" s="22" t="n">
-        <v>1.001223209887536</v>
+        <v>1.004328932335202</v>
       </c>
       <c r="O11" s="22" t="n">
-        <v>1.000813855265195</v>
+        <v>1.005134678035375</v>
       </c>
       <c r="P11" s="22" t="n">
-        <v>1.000516280463379</v>
+        <v>1.002591338931091</v>
       </c>
       <c r="Q11" s="22" t="n">
-        <v>1.000144903078143</v>
+        <v>1.004166462751076</v>
       </c>
       <c r="R11" s="22" t="n">
-        <v>1.001132191991309</v>
+        <v>1.004568511200544</v>
       </c>
       <c r="S11" s="22" t="n">
-        <v>1.000807717500449</v>
+        <v>1.005309070913654</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>1.000527143595145</v>
+        <v>1.002704743266433</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>1.000146529980835</v>
+        <v>1.004592227168085</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>1.000330591770761</v>
+        <v>1.003378900841084</v>
       </c>
     </row>
     <row r="12">
@@ -7343,62 +7343,62 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.9965948986536634</v>
+        <v>0.995161506377685</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.9970665053842077</v>
+        <v>0.9949112664857171</v>
       </c>
       <c r="D12" s="34" t="n">
-        <v>0.9985214209617306</v>
+        <v>0.9988962890068834</v>
       </c>
       <c r="E12" s="34" t="n">
-        <v>0.9991132631401398</v>
+        <v>0.9983889682850108</v>
       </c>
       <c r="F12" s="34" t="n">
-        <v>0.9966514118658185</v>
+        <v>0.9952691887874293</v>
       </c>
       <c r="G12" s="34" t="n">
-        <v>0.9971306108717229</v>
+        <v>0.9950801711089384</v>
       </c>
       <c r="H12" s="34" t="n">
-        <v>0.9985403205110763</v>
+        <v>0.998864246348675</v>
       </c>
       <c r="I12" s="34" t="n">
-        <v>0.9991333373190555</v>
+        <v>0.9983548654720453</v>
       </c>
       <c r="J12" s="34" t="n">
-        <v>0.9988172543779571</v>
+        <v>0.9986425642149117</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
         <v/>
       </c>
       <c r="N12" s="22" t="n">
-        <v>1.00140121806532</v>
+        <v>1.003093406991346</v>
       </c>
       <c r="O12" s="22" t="n">
-        <v>1.000927561040574</v>
+        <v>1.003345704853733</v>
       </c>
       <c r="P12" s="22" t="n">
-        <v>1.000335527387351</v>
+        <v>1.00048123661544</v>
       </c>
       <c r="Q12" s="22" t="n">
-        <v>1.000403609206874</v>
+        <v>1.000636851066422</v>
       </c>
       <c r="R12" s="22" t="n">
-        <v>1.001312367674225</v>
+        <v>1.003042839681625</v>
       </c>
       <c r="S12" s="22" t="n">
-        <v>1.000831159008121</v>
+        <v>1.003233369886616</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>1.000324577193731</v>
+        <v>1.000478003994665</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>1.000383120178609</v>
+        <v>1.000646771209141</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>1.000369568297113</v>
+        <v>1.000559043840931</v>
       </c>
     </row>
     <row r="13">
@@ -7407,62 +7407,62 @@
         <v/>
       </c>
       <c r="B13" s="34" t="n">
-        <v>0.9979913454294631</v>
+        <v>0.9982399459390322</v>
       </c>
       <c r="C13" s="34" t="n">
-        <v>0.9979913454294631</v>
+        <v>0.9982399459390322</v>
       </c>
       <c r="D13" s="34" t="n">
-        <v>0.9988564522453199</v>
+        <v>0.9993769944761807</v>
       </c>
       <c r="E13" s="34" t="n">
-        <v>0.999516514451853</v>
+        <v>0.9990247933641668</v>
       </c>
       <c r="F13" s="34" t="n">
-        <v>0.9979593849612222</v>
+        <v>0.9982976333689703</v>
       </c>
       <c r="G13" s="34" t="n">
-        <v>0.9979593849612222</v>
+        <v>0.9982976333689703</v>
       </c>
       <c r="H13" s="34" t="n">
-        <v>0.9988644239261352</v>
+        <v>0.9993417074485579</v>
       </c>
       <c r="I13" s="34" t="n">
-        <v>0.9995161254617037</v>
+        <v>0.9990005726555381</v>
       </c>
       <c r="J13" s="34" t="n">
-        <v>0.9991863743393765</v>
+        <v>0.9992008628839667</v>
       </c>
       <c r="M13">
         <f>+M12+1</f>
         <v/>
       </c>
       <c r="N13" s="22" t="n">
-        <v>1.000649261228015</v>
+        <v>1.000965529243405</v>
       </c>
       <c r="O13" s="22" t="n">
-        <v>1.000649261228015</v>
+        <v>1.000965529243405</v>
       </c>
       <c r="P13" s="22" t="n">
-        <v>1.000224029039265</v>
+        <v>1.000377073402127</v>
       </c>
       <c r="Q13" s="22" t="n">
-        <v>1.000127734133589</v>
+        <v>1.000690130317919</v>
       </c>
       <c r="R13" s="22" t="n">
-        <v>1.000639338933253</v>
+        <v>1.001021420855853</v>
       </c>
       <c r="S13" s="22" t="n">
-        <v>1.000639338933253</v>
+        <v>1.001021420855853</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>1.000222989525254</v>
+        <v>1.00040035601801</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>1.00011625047407</v>
+        <v>1.00070628842729</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>1.000175881586427</v>
+        <v>1.000533601860023</v>
       </c>
     </row>
     <row r="14">
@@ -7471,62 +7471,62 @@
         <v/>
       </c>
       <c r="B14" s="34" t="n">
-        <v>0.9986393025159451</v>
+        <v>0.999203775798771</v>
       </c>
       <c r="C14" s="34" t="n">
-        <v>0.9986393025159451</v>
+        <v>0.999203775798771</v>
       </c>
       <c r="D14" s="34" t="n">
-        <v>0.9990802250966797</v>
+        <v>0.9997538329594955</v>
       </c>
       <c r="E14" s="34" t="n">
-        <v>0.9996441868278346</v>
+        <v>0.9997142506624206</v>
       </c>
       <c r="F14" s="34" t="n">
-        <v>0.9985974192498334</v>
+        <v>0.9993173153920417</v>
       </c>
       <c r="G14" s="34" t="n">
-        <v>0.9985974192498334</v>
+        <v>0.9993173153920417</v>
       </c>
       <c r="H14" s="34" t="n">
-        <v>0.9990871602298192</v>
+        <v>0.9997417999151832</v>
       </c>
       <c r="I14" s="34" t="n">
-        <v>0.9996323196851294</v>
+        <v>0.9997061551988611</v>
       </c>
       <c r="J14" s="34" t="n">
-        <v>0.9993621263983031</v>
+        <v>0.9997340414191642</v>
       </c>
       <c r="M14">
         <f>+M13+1</f>
         <v/>
       </c>
       <c r="N14" s="22" t="n">
-        <v>1.001158127677848</v>
+        <v>1.000711010387025</v>
       </c>
       <c r="O14" s="22" t="n">
-        <v>1.001158127677848</v>
+        <v>1.000711010387025</v>
       </c>
       <c r="P14" s="22" t="n">
-        <v>1.000715629903677</v>
+        <v>1.000209742043998</v>
       </c>
       <c r="Q14" s="22" t="n">
-        <v>1.000148491234482</v>
+        <v>1.000205729089982</v>
       </c>
       <c r="R14" s="22" t="n">
-        <v>1.00119329709959</v>
+        <v>1.000605287317985</v>
       </c>
       <c r="S14" s="22" t="n">
-        <v>1.00119329709959</v>
+        <v>1.000605287317985</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>1.000702656451311</v>
+        <v>1.000218632244153</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>1.000149416913302</v>
+        <v>1.000214662435569</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>1.000432060569079</v>
+        <v>1.00020773556699</v>
       </c>
     </row>
     <row r="15">
@@ -7535,62 +7535,62 @@
         <v/>
       </c>
       <c r="B15" s="34" t="n">
-        <v>0.9997958543323753</v>
+        <v>0.9999142200621186</v>
       </c>
       <c r="C15" s="34" t="n">
-        <v>0.9997958543323753</v>
+        <v>0.9999142200621186</v>
       </c>
       <c r="D15" s="34" t="n">
-        <v>0.9997951967819307</v>
+        <v>0.9999635233719153</v>
       </c>
       <c r="E15" s="34" t="n">
-        <v>0.9997926252271788</v>
+        <v>0.9999199209654517</v>
       </c>
       <c r="F15" s="34" t="n">
-        <v>0.9997890426538828</v>
+        <v>0.9999221894896914</v>
       </c>
       <c r="G15" s="34" t="n">
-        <v>0.9997890426538828</v>
+        <v>0.9999221894896914</v>
       </c>
       <c r="H15" s="34" t="n">
-        <v>0.9997891752683771</v>
+        <v>0.9999603757084723</v>
       </c>
       <c r="I15" s="34" t="n">
-        <v>0.9997816816607737</v>
+        <v>0.9999207545569889</v>
       </c>
       <c r="J15" s="34" t="n">
-        <v>0.9997939110029013</v>
+        <v>0.9999417216933634</v>
       </c>
       <c r="M15">
         <f>+M14+1</f>
         <v/>
       </c>
       <c r="N15" s="22" t="n">
-        <v>1.000031083646309</v>
+        <v>1.000034870218611</v>
       </c>
       <c r="O15" s="22" t="n">
-        <v>1.000031083646309</v>
+        <v>1.000034870218611</v>
       </c>
       <c r="P15" s="22" t="n">
-        <v>1.000018036748418</v>
+        <v>1.000036477958678</v>
       </c>
       <c r="Q15" s="22" t="n">
-        <v>1.000036541658258</v>
+        <v>1.000080085447714</v>
       </c>
       <c r="R15" s="22" t="n">
-        <v>1.000031260571526</v>
+        <v>1.000035615965594</v>
       </c>
       <c r="S15" s="22" t="n">
-        <v>1.000031260571526</v>
+        <v>1.000035615965594</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>1.000018515770243</v>
+        <v>1.000039625861674</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>1.000037031540486</v>
+        <v>1.000079251723349</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>1.000027289203338</v>
+        <v>1.000058281703196</v>
       </c>
     </row>
     <row r="16">
@@ -7599,41 +7599,41 @@
         <v/>
       </c>
       <c r="B16" s="34" t="n">
-        <v>0.9998269316330926</v>
+        <v>0.9999490872895648</v>
       </c>
       <c r="C16" s="34" t="n">
-        <v>0.9998269316330926</v>
+        <v>0.9999490872895648</v>
       </c>
       <c r="D16" s="34" t="n">
-        <v>0.9998132298363647</v>
+        <v>1</v>
       </c>
       <c r="E16" s="34" t="n">
-        <v>0.9998291593076184</v>
+        <v>1</v>
       </c>
       <c r="F16" s="34" t="n">
-        <v>0.9998202966307612</v>
+        <v>0.9999578026839885</v>
       </c>
       <c r="G16" s="34" t="n">
-        <v>0.9998202966307612</v>
+        <v>0.9999578026839885</v>
       </c>
       <c r="H16" s="34" t="n">
-        <v>0.9998076871350381</v>
+        <v>1</v>
       </c>
       <c r="I16" s="34" t="n">
-        <v>0.9998187051165957</v>
+        <v>1</v>
       </c>
       <c r="J16" s="34" t="n">
-        <v>0.9998211945085432</v>
+        <v>1</v>
       </c>
       <c r="M16">
         <f>+M15+1</f>
         <v/>
       </c>
       <c r="N16" s="22" t="n">
-        <v>1.000001455064538</v>
+        <v>1.000050915302671</v>
       </c>
       <c r="O16" s="22" t="n">
-        <v>1.000001455064538</v>
+        <v>1.000050915302671</v>
       </c>
       <c r="P16" s="22" t="n">
         <v>1</v>
@@ -7642,10 +7642,10 @@
         <v>1</v>
       </c>
       <c r="R16" s="22" t="n">
-        <v>1.000001474058866</v>
+        <v>1.0000421990967</v>
       </c>
       <c r="S16" s="22" t="n">
-        <v>1.000001474058866</v>
+        <v>1.0000421990967</v>
       </c>
       <c r="T16" s="22" t="n">
         <v>1</v>
@@ -7663,62 +7663,62 @@
         <v/>
       </c>
       <c r="B17" s="34" t="n">
-        <v>0.9998283864458043</v>
+        <v>1</v>
       </c>
       <c r="C17" s="34" t="n">
-        <v>0.9998283864458043</v>
+        <v>1</v>
       </c>
       <c r="D17" s="34" t="n">
-        <v>0.9998132298363647</v>
+        <v>1</v>
       </c>
       <c r="E17" s="34" t="n">
-        <v>0.9998291593076184</v>
+        <v>1</v>
       </c>
       <c r="F17" s="34" t="n">
-        <v>0.9998217704247339</v>
+        <v>1</v>
       </c>
       <c r="G17" s="34" t="n">
-        <v>0.9998217704247339</v>
+        <v>1</v>
       </c>
       <c r="H17" s="34" t="n">
-        <v>0.9998076871350381</v>
+        <v>1</v>
       </c>
       <c r="I17" s="34" t="n">
-        <v>0.9998187051165957</v>
+        <v>1</v>
       </c>
       <c r="J17" s="34" t="n">
-        <v>0.9998211945085432</v>
+        <v>1</v>
       </c>
       <c r="M17">
         <f>+M16+1</f>
         <v/>
       </c>
       <c r="N17" s="22" t="n">
-        <v>1.000040430887388</v>
+        <v>1</v>
       </c>
       <c r="O17" s="22" t="n">
-        <v>1.000040430887388</v>
+        <v>1</v>
       </c>
       <c r="P17" s="22" t="n">
-        <v>1.000055590941069</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="22" t="n">
-        <v>1.000042259781658</v>
+        <v>1</v>
       </c>
       <c r="S17" s="22" t="n">
-        <v>1.000042259781658</v>
+        <v>1</v>
       </c>
       <c r="T17" s="22" t="n">
-        <v>1.000056346375543</v>
+        <v>1</v>
       </c>
       <c r="U17" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>1.000027795470535</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -7727,31 +7727,31 @@
         <v/>
       </c>
       <c r="B18" s="34" t="n">
-        <v>0.9998688103947045</v>
+        <v>1</v>
       </c>
       <c r="C18" s="34" t="n">
-        <v>0.9998688103947045</v>
+        <v>1</v>
       </c>
       <c r="D18" s="34" t="n">
-        <v>0.9998688103947045</v>
+        <v>1</v>
       </c>
       <c r="E18" s="34" t="n">
-        <v>0.9998291593076184</v>
+        <v>1</v>
       </c>
       <c r="F18" s="34" t="n">
-        <v>0.9998640226744486</v>
+        <v>1</v>
       </c>
       <c r="G18" s="34" t="n">
-        <v>0.9998640226744486</v>
+        <v>1</v>
       </c>
       <c r="H18" s="34" t="n">
-        <v>0.9998640226744486</v>
+        <v>1</v>
       </c>
       <c r="I18" s="34" t="n">
-        <v>0.9998187051165957</v>
+        <v>1</v>
       </c>
       <c r="J18" s="34" t="n">
-        <v>0.9998489844580499</v>
+        <v>1</v>
       </c>
       <c r="M18">
         <f>+M17+1</f>
@@ -7791,31 +7791,31 @@
         <v/>
       </c>
       <c r="B19" s="34" t="n">
-        <v>0.9998688103947045</v>
+        <v>1</v>
       </c>
       <c r="C19" s="34" t="n">
-        <v>0.9998688103947045</v>
+        <v>1</v>
       </c>
       <c r="D19" s="34" t="n">
-        <v>0.9998688103947045</v>
+        <v>1</v>
       </c>
       <c r="E19" s="34" t="n">
-        <v>0.9998291593076184</v>
+        <v>1</v>
       </c>
       <c r="F19" s="34" t="n">
-        <v>0.9998640226744486</v>
+        <v>1</v>
       </c>
       <c r="G19" s="34" t="n">
-        <v>0.9998640226744486</v>
+        <v>1</v>
       </c>
       <c r="H19" s="34" t="n">
-        <v>0.9998640226744486</v>
+        <v>1</v>
       </c>
       <c r="I19" s="34" t="n">
-        <v>0.9998187051165957</v>
+        <v>1</v>
       </c>
       <c r="J19" s="34" t="n">
-        <v>0.9998489844580499</v>
+        <v>1</v>
       </c>
       <c r="M19">
         <f>+M18+1</f>
@@ -7855,31 +7855,31 @@
         <v/>
       </c>
       <c r="B20" s="34" t="n">
-        <v>0.9998688103947045</v>
+        <v>1</v>
       </c>
       <c r="C20" s="34" t="n">
-        <v>0.9998688103947045</v>
+        <v>1</v>
       </c>
       <c r="D20" s="34" t="n">
-        <v>0.9998688103947045</v>
+        <v>1</v>
       </c>
       <c r="E20" s="34" t="n">
-        <v>0.9998291593076184</v>
+        <v>1</v>
       </c>
       <c r="F20" s="34" t="n">
-        <v>0.9998640226744486</v>
+        <v>1</v>
       </c>
       <c r="G20" s="34" t="n">
-        <v>0.9998640226744486</v>
+        <v>1</v>
       </c>
       <c r="H20" s="34" t="n">
-        <v>0.9998640226744486</v>
+        <v>1</v>
       </c>
       <c r="I20" s="34" t="n">
-        <v>0.9998187051165957</v>
+        <v>1</v>
       </c>
       <c r="J20" s="34" t="n">
-        <v>0.9998489844580499</v>
+        <v>1</v>
       </c>
       <c r="M20">
         <f>+M19+1</f>
@@ -7919,62 +7919,62 @@
         <v/>
       </c>
       <c r="B21" s="34" t="n">
-        <v>0.9998688103947045</v>
+        <v>1</v>
       </c>
       <c r="C21" s="34" t="n">
-        <v>0.9998688103947045</v>
+        <v>1</v>
       </c>
       <c r="D21" s="34" t="n">
-        <v>0.9998688103947045</v>
+        <v>1</v>
       </c>
       <c r="E21" s="34" t="n">
-        <v>0.9998291593076184</v>
+        <v>1</v>
       </c>
       <c r="F21" s="34" t="n">
-        <v>0.9998640226744486</v>
+        <v>1</v>
       </c>
       <c r="G21" s="34" t="n">
-        <v>0.9998640226744486</v>
+        <v>1</v>
       </c>
       <c r="H21" s="34" t="n">
-        <v>0.9998640226744486</v>
+        <v>1</v>
       </c>
       <c r="I21" s="34" t="n">
-        <v>0.9998187051165957</v>
+        <v>1</v>
       </c>
       <c r="J21" s="34" t="n">
-        <v>0.9998489844580499</v>
+        <v>1</v>
       </c>
       <c r="M21">
         <f>+M20+1</f>
         <v/>
       </c>
       <c r="N21" s="22" t="n">
-        <v>1.000131206818266</v>
+        <v>1</v>
       </c>
       <c r="O21" s="22" t="n">
-        <v>1.000131206818266</v>
+        <v>1</v>
       </c>
       <c r="P21" s="22" t="n">
-        <v>1.000131206818266</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="22" t="n">
-        <v>1.000170869883911</v>
+        <v>1</v>
       </c>
       <c r="R21" s="22" t="n">
-        <v>1.000135995817899</v>
+        <v>1</v>
       </c>
       <c r="S21" s="22" t="n">
-        <v>1.000135995817899</v>
+        <v>1</v>
       </c>
       <c r="T21" s="22" t="n">
-        <v>1.000135995817899</v>
+        <v>1</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>1.000181327757199</v>
+        <v>1</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>1.000151038351089</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -8234,7 +8234,7 @@
         </is>
       </c>
       <c r="H4" s="8" t="n">
-        <v>45322</v>
+        <v>45657</v>
       </c>
       <c r="J4" s="40" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v>165079.27</v>
+        <v>181194.31</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8582,7 +8582,7 @@
         <v/>
       </c>
       <c r="I8" s="14" t="n">
-        <v>192592.9641666666</v>
+        <v>161661.0216666667</v>
       </c>
       <c r="J8" s="14">
         <f>100*$G8/$I8</f>
@@ -8605,76 +8605,76 @@
         <v/>
       </c>
       <c r="S8" s="22" t="n">
-        <v>17853.92</v>
+        <v>17868.02</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>139742.38</v>
+        <v>131817.62</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>156262.16</v>
+        <v>170116.95</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>158649.54</v>
+        <v>174104.45</v>
       </c>
       <c r="W8" s="22" t="n">
-        <v>159696.3</v>
+        <v>175083.57</v>
       </c>
       <c r="X8" s="22" t="n">
-        <v>160330.54</v>
+        <v>176878.84</v>
       </c>
       <c r="Y8" s="22" t="n">
-        <v>160420.67</v>
+        <v>177097.42</v>
       </c>
       <c r="Z8" s="22" t="n">
-        <v>161563.02</v>
+        <v>177381.63</v>
       </c>
       <c r="AA8" s="22" t="n">
-        <v>163388.7</v>
+        <v>178647.53</v>
       </c>
       <c r="AB8" s="22" t="n">
-        <v>163507.97</v>
+        <v>180147.54</v>
       </c>
       <c r="AC8" s="22" t="n">
-        <v>163507.97</v>
+        <v>180164.05</v>
       </c>
       <c r="AD8" s="22" t="n">
-        <v>164666.73</v>
+        <v>180300.34</v>
       </c>
       <c r="AE8" s="22" t="n">
-        <v>165077.08</v>
+        <v>180363.22</v>
       </c>
       <c r="AF8" s="22" t="n">
-        <v>165077.08</v>
+        <v>181125.52</v>
       </c>
       <c r="AG8" s="22" t="n">
-        <v>165077.08</v>
+        <v>181125.52</v>
       </c>
       <c r="AH8" s="22" t="n">
-        <v>165079.27</v>
+        <v>181194.31</v>
       </c>
       <c r="AI8" s="22" t="n">
-        <v>165079.27</v>
+        <v>181194.31</v>
       </c>
       <c r="AJ8" s="22" t="n">
-        <v>165079.27</v>
+        <v>181194.31</v>
       </c>
       <c r="AK8" s="22" t="n">
-        <v>165079.27</v>
+        <v>181194.31</v>
       </c>
       <c r="AL8" s="22" t="n">
-        <v>165079.27</v>
+        <v>181194.31</v>
       </c>
       <c r="AM8" s="22" t="n">
-        <v>165079.27</v>
+        <v>181194.31</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v>165079.27</v>
+        <v>181194.31</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v>165079.27</v>
+        <v>181194.31</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v>165079.27</v>
+        <v>181194.31</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -8685,7 +8685,7 @@
         <v/>
       </c>
       <c r="B9" s="14" t="n">
-        <v>203266.44</v>
+        <v>136353.62</v>
       </c>
       <c r="C9" s="14">
         <f>+'Completion Factors'!J29</f>
@@ -8709,7 +8709,7 @@
         <v/>
       </c>
       <c r="I9" s="14" t="n">
-        <v>188038.3383333333</v>
+        <v>154975.5508333333</v>
       </c>
       <c r="J9" s="14">
         <f>100*$G9/$I9</f>
@@ -8732,73 +8732,73 @@
         <v/>
       </c>
       <c r="S9" s="22" t="n">
-        <v>31140.37</v>
+        <v>15146.67</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>174109.63</v>
+        <v>109132.73</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>189697.76</v>
+        <v>127651.88</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>195871.88</v>
+        <v>129060.53</v>
       </c>
       <c r="W9" s="22" t="n">
-        <v>198565.54</v>
+        <v>132127.63</v>
       </c>
       <c r="X9" s="22" t="n">
-        <v>200193.62</v>
+        <v>133609.24</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v>200440.51</v>
+        <v>133722.13</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>200609.85</v>
+        <v>135071.73</v>
       </c>
       <c r="AA9" s="22" t="n">
-        <v>200795.61</v>
+        <v>135105.97</v>
       </c>
       <c r="AB9" s="22" t="n">
-        <v>200900.35</v>
+        <v>135132.8</v>
       </c>
       <c r="AC9" s="22" t="n">
-        <v>202137.51</v>
+        <v>135154.24</v>
       </c>
       <c r="AD9" s="22" t="n">
-        <v>203151</v>
+        <v>135204.28</v>
       </c>
       <c r="AE9" s="22" t="n">
-        <v>203266.44</v>
+        <v>136353.62</v>
       </c>
       <c r="AF9" s="22" t="n">
-        <v>203266.44</v>
+        <v>136353.62</v>
       </c>
       <c r="AG9" s="22" t="n">
-        <v>203266.44</v>
+        <v>136353.62</v>
       </c>
       <c r="AH9" s="22" t="n">
-        <v>203266.44</v>
+        <v>136353.62</v>
       </c>
       <c r="AI9" s="22" t="n">
-        <v>203266.44</v>
+        <v>136353.62</v>
       </c>
       <c r="AJ9" s="22" t="n">
-        <v>203266.44</v>
+        <v>136353.62</v>
       </c>
       <c r="AK9" s="22" t="n">
-        <v>203266.44</v>
+        <v>136353.62</v>
       </c>
       <c r="AL9" s="22" t="n">
-        <v>203266.44</v>
+        <v>136353.62</v>
       </c>
       <c r="AM9" s="22" t="n">
-        <v>203266.44</v>
+        <v>136353.62</v>
       </c>
       <c r="AN9" s="22" t="n">
-        <v>203266.44</v>
+        <v>136353.62</v>
       </c>
       <c r="AO9" s="22" t="n">
-        <v>203266.44</v>
+        <v>136353.62</v>
       </c>
       <c r="AP9" s="22" t="n">
         <v/>
@@ -8812,7 +8812,7 @@
         <v/>
       </c>
       <c r="B10" s="14" t="n">
-        <v>171624.32</v>
+        <v>175689.82</v>
       </c>
       <c r="C10" s="14">
         <f>+'Completion Factors'!J28</f>
@@ -8836,7 +8836,7 @@
         <v/>
       </c>
       <c r="I10" s="14" t="n">
-        <v>186725.5166666667</v>
+        <v>148037.285</v>
       </c>
       <c r="J10" s="14">
         <f>100*$G10/$I10</f>
@@ -8859,70 +8859,70 @@
         <v/>
       </c>
       <c r="S10" s="22" t="n">
-        <v>18145.81</v>
+        <v>29744.41</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>139001.99</v>
+        <v>118187.86</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>157822.72</v>
+        <v>154158.77</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>159387.95</v>
+        <v>157798.88</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v>161957.48</v>
+        <v>167214.98</v>
       </c>
       <c r="X10" s="22" t="n">
-        <v>164866.6</v>
+        <v>168096.97</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>165099.79</v>
+        <v>171158.53</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>168492.57</v>
+        <v>171972.94</v>
       </c>
       <c r="AA10" s="22" t="n">
-        <v>169146.74</v>
+        <v>173621.86</v>
       </c>
       <c r="AB10" s="22" t="n">
-        <v>170690.4</v>
+        <v>174288.28</v>
       </c>
       <c r="AC10" s="22" t="n">
-        <v>171304.37</v>
+        <v>174321.27</v>
       </c>
       <c r="AD10" s="22" t="n">
-        <v>171433.68</v>
+        <v>175487.27</v>
       </c>
       <c r="AE10" s="22" t="n">
-        <v>171531.01</v>
+        <v>175487.27</v>
       </c>
       <c r="AF10" s="22" t="n">
-        <v>171531.01</v>
+        <v>175669.02</v>
       </c>
       <c r="AG10" s="22" t="n">
-        <v>171531.01</v>
+        <v>175689.82</v>
       </c>
       <c r="AH10" s="22" t="n">
-        <v>171531.01</v>
+        <v>175689.82</v>
       </c>
       <c r="AI10" s="22" t="n">
-        <v>171531.01</v>
+        <v>175689.82</v>
       </c>
       <c r="AJ10" s="22" t="n">
-        <v>171531.01</v>
+        <v>175689.82</v>
       </c>
       <c r="AK10" s="22" t="n">
-        <v>171531.01</v>
+        <v>175689.82</v>
       </c>
       <c r="AL10" s="22" t="n">
-        <v>171531.01</v>
+        <v>175689.82</v>
       </c>
       <c r="AM10" s="22" t="n">
-        <v>171624.32</v>
+        <v>175689.82</v>
       </c>
       <c r="AN10" s="22" t="n">
-        <v>171624.32</v>
+        <v>175689.82</v>
       </c>
       <c r="AO10" s="22" t="n">
         <v/>
@@ -8939,7 +8939,7 @@
         <v/>
       </c>
       <c r="B11" s="14" t="n">
-        <v>171290.59</v>
+        <v>141685.06</v>
       </c>
       <c r="C11" s="14">
         <f>+'Completion Factors'!J27</f>
@@ -8963,7 +8963,7 @@
         <v/>
       </c>
       <c r="I11" s="14" t="n">
-        <v>185604.0016666667</v>
+        <v>146051.985</v>
       </c>
       <c r="J11" s="14">
         <f>100*$G11/$I11</f>
@@ -8986,67 +8986,67 @@
         <v/>
       </c>
       <c r="S11" s="22" t="n">
-        <v>19826.42</v>
+        <v>8029.71</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>148040.36</v>
+        <v>105617.93</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>160243.36</v>
+        <v>122362.67</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>165712.04</v>
+        <v>125179.49</v>
       </c>
       <c r="W11" s="22" t="n">
-        <v>167608.48</v>
+        <v>128724.9</v>
       </c>
       <c r="X11" s="22" t="n">
-        <v>168613.36</v>
+        <v>129328.58</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>169542.08</v>
+        <v>132743.09</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>169645.55</v>
+        <v>133024.44</v>
       </c>
       <c r="AA11" s="22" t="n">
-        <v>170711.2</v>
+        <v>134022.08</v>
       </c>
       <c r="AB11" s="22" t="n">
-        <v>170856.22</v>
+        <v>134083.5600000001</v>
       </c>
       <c r="AC11" s="22" t="n">
-        <v>170864.07</v>
+        <v>138203.9600000001</v>
       </c>
       <c r="AD11" s="22" t="n">
-        <v>170907.03</v>
+        <v>141602.07</v>
       </c>
       <c r="AE11" s="22" t="n">
-        <v>171256.08</v>
+        <v>141673.13</v>
       </c>
       <c r="AF11" s="22" t="n">
-        <v>171256.08</v>
+        <v>141685.06</v>
       </c>
       <c r="AG11" s="22" t="n">
-        <v>171290.59</v>
+        <v>141685.06</v>
       </c>
       <c r="AH11" s="22" t="n">
-        <v>171290.59</v>
+        <v>141685.06</v>
       </c>
       <c r="AI11" s="22" t="n">
-        <v>171290.59</v>
+        <v>141685.06</v>
       </c>
       <c r="AJ11" s="22" t="n">
-        <v>171290.59</v>
+        <v>141685.06</v>
       </c>
       <c r="AK11" s="22" t="n">
-        <v>171290.59</v>
+        <v>141685.06</v>
       </c>
       <c r="AL11" s="22" t="n">
-        <v>171290.59</v>
+        <v>141685.06</v>
       </c>
       <c r="AM11" s="22" t="n">
-        <v>171290.59</v>
+        <v>141685.06</v>
       </c>
       <c r="AN11" s="22" t="n">
         <v/>
@@ -9066,7 +9066,7 @@
         <v/>
       </c>
       <c r="B12" s="14" t="n">
-        <v>161585.26</v>
+        <v>166967.85</v>
       </c>
       <c r="C12" s="14">
         <f>++'Completion Factors'!J26</f>
@@ -9090,7 +9090,7 @@
         <v/>
       </c>
       <c r="I12" s="14" t="n">
-        <v>187903.875</v>
+        <v>143947.9166666667</v>
       </c>
       <c r="J12" s="14">
         <f>100*$G12/$I12</f>
@@ -9113,64 +9113,64 @@
         <v/>
       </c>
       <c r="S12" s="22" t="n">
-        <v>19360.07</v>
+        <v>19033.93</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>134847.16</v>
+        <v>124534.29</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>152006.2</v>
+        <v>153831.01</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>154341.53</v>
+        <v>158323.08</v>
       </c>
       <c r="W12" s="22" t="n">
-        <v>156684.53</v>
+        <v>160017.65</v>
       </c>
       <c r="X12" s="22" t="n">
-        <v>157271.26</v>
+        <v>161074.2</v>
       </c>
       <c r="Y12" s="22" t="n">
-        <v>157783.81</v>
+        <v>163946.95</v>
       </c>
       <c r="Z12" s="22" t="n">
-        <v>159770.29</v>
+        <v>164961.51</v>
       </c>
       <c r="AA12" s="22" t="n">
-        <v>159845.86</v>
+        <v>165176.73</v>
       </c>
       <c r="AB12" s="22" t="n">
-        <v>159997.84</v>
+        <v>166860.39</v>
       </c>
       <c r="AC12" s="22" t="n">
-        <v>159997.84</v>
+        <v>166930.86</v>
       </c>
       <c r="AD12" s="22" t="n">
-        <v>160104.07</v>
+        <v>166930.86</v>
       </c>
       <c r="AE12" s="22" t="n">
-        <v>160104.07</v>
+        <v>166967.85</v>
       </c>
       <c r="AF12" s="22" t="n">
-        <v>161530.65</v>
+        <v>166967.85</v>
       </c>
       <c r="AG12" s="22" t="n">
-        <v>161530.65</v>
+        <v>166967.85</v>
       </c>
       <c r="AH12" s="22" t="n">
-        <v>161530.65</v>
+        <v>166967.85</v>
       </c>
       <c r="AI12" s="22" t="n">
-        <v>161585.26</v>
+        <v>166967.85</v>
       </c>
       <c r="AJ12" s="22" t="n">
-        <v>161585.26</v>
+        <v>166967.85</v>
       </c>
       <c r="AK12" s="22" t="n">
-        <v>161585.26</v>
+        <v>166967.85</v>
       </c>
       <c r="AL12" s="22" t="n">
-        <v>161585.26</v>
+        <v>166967.85</v>
       </c>
       <c r="AM12" s="22" t="n">
         <v/>
@@ -9193,7 +9193,7 @@
         <v/>
       </c>
       <c r="B13" s="14" t="n">
-        <v>161481.14</v>
+        <v>145690.33</v>
       </c>
       <c r="C13" s="14">
         <f>++'Completion Factors'!J25</f>
@@ -9217,7 +9217,7 @@
         <v/>
       </c>
       <c r="I13" s="14" t="n">
-        <v>195053.5616666666</v>
+        <v>143763.3941666667</v>
       </c>
       <c r="J13" s="14">
         <f>100*$G13/$I13</f>
@@ -9240,61 +9240,61 @@
         <v/>
       </c>
       <c r="S13" s="22" t="n">
-        <v>12534.01</v>
+        <v>20066.04</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>133988.19</v>
+        <v>117598.31</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>147606.2</v>
+        <v>133840.01</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>154589.39</v>
+        <v>135145.97</v>
       </c>
       <c r="W13" s="22" t="n">
-        <v>155955.42</v>
+        <v>140424.18</v>
       </c>
       <c r="X13" s="22" t="n">
-        <v>156288.51</v>
+        <v>140841.92</v>
       </c>
       <c r="Y13" s="22" t="n">
-        <v>157244.3</v>
+        <v>142088.15</v>
       </c>
       <c r="Z13" s="22" t="n">
-        <v>158285.26</v>
+        <v>143830.11</v>
       </c>
       <c r="AA13" s="22" t="n">
-        <v>160326.6</v>
+        <v>143943.64</v>
       </c>
       <c r="AB13" s="22" t="n">
-        <v>160557.85</v>
+        <v>143943.64</v>
       </c>
       <c r="AC13" s="22" t="n">
-        <v>160715.74</v>
+        <v>145619.52</v>
       </c>
       <c r="AD13" s="22" t="n">
-        <v>160771.36</v>
+        <v>145649.26</v>
       </c>
       <c r="AE13" s="22" t="n">
-        <v>160878.08</v>
+        <v>145690.33</v>
       </c>
       <c r="AF13" s="22" t="n">
-        <v>161481.14</v>
+        <v>145690.33</v>
       </c>
       <c r="AG13" s="22" t="n">
-        <v>161481.14</v>
+        <v>145690.33</v>
       </c>
       <c r="AH13" s="22" t="n">
-        <v>161481.14</v>
+        <v>145690.33</v>
       </c>
       <c r="AI13" s="22" t="n">
-        <v>161481.14</v>
+        <v>145690.33</v>
       </c>
       <c r="AJ13" s="22" t="n">
-        <v>161481.14</v>
+        <v>145690.33</v>
       </c>
       <c r="AK13" s="22" t="n">
-        <v>161481.14</v>
+        <v>145690.33</v>
       </c>
       <c r="AL13" s="22" t="n">
         <v/>
@@ -9320,7 +9320,7 @@
         <v/>
       </c>
       <c r="B14" s="14" t="n">
-        <v>158497.42</v>
+        <v>140082.3300000001</v>
       </c>
       <c r="C14" s="14">
         <f>++'Completion Factors'!J24</f>
@@ -9344,7 +9344,7 @@
         <v/>
       </c>
       <c r="I14" s="14" t="n">
-        <v>706.7566666666667</v>
+        <v>146003.0475</v>
       </c>
       <c r="J14" s="14">
         <f>100*$G14/$I14</f>
@@ -9367,58 +9367,58 @@
         <v/>
       </c>
       <c r="S14" s="22" t="n">
-        <v>19323.17</v>
+        <v>13126.29</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>118438.28</v>
+        <v>107790.95</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>151974.12</v>
+        <v>124825.97</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>153412.28</v>
+        <v>128047.06</v>
       </c>
       <c r="W14" s="22" t="n">
-        <v>153948.07</v>
+        <v>132279.27</v>
       </c>
       <c r="X14" s="22" t="n">
-        <v>155799.95</v>
+        <v>134740.34</v>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>156602.83</v>
+        <v>135644</v>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>156643.65</v>
+        <v>139003.39</v>
       </c>
       <c r="AA14" s="22" t="n">
-        <v>156659.88</v>
+        <v>139389.3400000001</v>
       </c>
       <c r="AB14" s="22" t="n">
-        <v>158228.18</v>
+        <v>139461.4700000001</v>
       </c>
       <c r="AC14" s="22" t="n">
-        <v>158329.88</v>
+        <v>139473.4000000001</v>
       </c>
       <c r="AD14" s="22" t="n">
-        <v>158487.62</v>
+        <v>140042.6600000001</v>
       </c>
       <c r="AE14" s="22" t="n">
-        <v>158495.33</v>
+        <v>140082.3300000001</v>
       </c>
       <c r="AF14" s="22" t="n">
-        <v>158497.42</v>
+        <v>140082.3300000001</v>
       </c>
       <c r="AG14" s="22" t="n">
-        <v>158497.42</v>
+        <v>140082.3300000001</v>
       </c>
       <c r="AH14" s="22" t="n">
-        <v>158497.42</v>
+        <v>140082.3300000001</v>
       </c>
       <c r="AI14" s="22" t="n">
-        <v>158497.42</v>
+        <v>140082.3300000001</v>
       </c>
       <c r="AJ14" s="22" t="n">
-        <v>158497.42</v>
+        <v>140082.3300000001</v>
       </c>
       <c r="AK14" s="22" t="n">
         <v/>
@@ -9447,7 +9447,7 @@
         <v/>
       </c>
       <c r="B15" s="14" t="n">
-        <v>158023.49</v>
+        <v>134041.42</v>
       </c>
       <c r="C15" s="14">
         <f>++'Completion Factors'!J23</f>
@@ -9471,7 +9471,7 @@
         <v/>
       </c>
       <c r="I15" s="14" t="n">
-        <v>192148.4108333334</v>
+        <v>146622.8866666667</v>
       </c>
       <c r="J15" s="14">
         <f>100*$G15/$I15</f>
@@ -9494,55 +9494,55 @@
         <v/>
       </c>
       <c r="S15" s="22" t="n">
-        <v>16772.34</v>
+        <v>25450.48</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>136823.49</v>
+        <v>95351.34999999999</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>148498.24</v>
+        <v>116724.55</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>151275.19</v>
+        <v>126099.51</v>
       </c>
       <c r="W15" s="22" t="n">
-        <v>153327.26</v>
+        <v>129432.41</v>
       </c>
       <c r="X15" s="22" t="n">
-        <v>154195.78</v>
+        <v>132414.36</v>
       </c>
       <c r="Y15" s="22" t="n">
-        <v>156950.46</v>
+        <v>132710.26</v>
       </c>
       <c r="Z15" s="22" t="n">
-        <v>157429.55</v>
+        <v>132880.07</v>
       </c>
       <c r="AA15" s="22" t="n">
-        <v>157597.72</v>
+        <v>133165.84</v>
       </c>
       <c r="AB15" s="22" t="n">
-        <v>157730.26</v>
+        <v>133305.93</v>
       </c>
       <c r="AC15" s="22" t="n">
-        <v>157929.11</v>
+        <v>133893.88</v>
       </c>
       <c r="AD15" s="22" t="n">
-        <v>158017.22</v>
+        <v>133931.08</v>
       </c>
       <c r="AE15" s="22" t="n">
-        <v>158022.55</v>
+        <v>133931.08</v>
       </c>
       <c r="AF15" s="22" t="n">
-        <v>158023.49</v>
+        <v>134020.52</v>
       </c>
       <c r="AG15" s="22" t="n">
-        <v>158023.49</v>
+        <v>134041.42</v>
       </c>
       <c r="AH15" s="22" t="n">
-        <v>158023.49</v>
+        <v>134041.42</v>
       </c>
       <c r="AI15" s="22" t="n">
-        <v>158023.49</v>
+        <v>134041.42</v>
       </c>
       <c r="AJ15" s="22" t="n">
         <v/>
@@ -9574,7 +9574,7 @@
         <v/>
       </c>
       <c r="B16" s="14" t="n">
-        <v>154390.06</v>
+        <v>129431.34</v>
       </c>
       <c r="C16" s="14">
         <f>++'Completion Factors'!J22</f>
@@ -9598,7 +9598,7 @@
         <v/>
       </c>
       <c r="I16" s="14" t="n">
-        <v>189244.9533333333</v>
+        <v>146738.5158333333</v>
       </c>
       <c r="J16" s="14">
         <f>100*$G16/$I16</f>
@@ -9621,52 +9621,52 @@
         <v/>
       </c>
       <c r="S16" s="22" t="n">
-        <v>24563.76</v>
+        <v>9112.969999999999</v>
       </c>
       <c r="T16" s="22" t="n">
-        <v>118638.62</v>
+        <v>93943.89</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>136404.85</v>
+        <v>125097.55</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>142177.5</v>
+        <v>127340.66</v>
       </c>
       <c r="W16" s="22" t="n">
-        <v>143036.25</v>
+        <v>128160.35</v>
       </c>
       <c r="X16" s="22" t="n">
-        <v>147489.77</v>
+        <v>128552.52</v>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>151750.12</v>
+        <v>128843.7</v>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>153450.85</v>
+        <v>129209.92</v>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>153852.25</v>
+        <v>129227.44</v>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>153966.96</v>
+        <v>129286.77</v>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>154152.5</v>
+        <v>129347.28</v>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>154178.19</v>
+        <v>129431.34</v>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>154318</v>
+        <v>129431.34</v>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>154372.91</v>
+        <v>129431.34</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>154390.06</v>
+        <v>129431.34</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>154390.06</v>
+        <v>129431.34</v>
       </c>
       <c r="AI16" s="22" t="n">
         <v/>
@@ -9701,7 +9701,7 @@
         <v/>
       </c>
       <c r="B17" s="14" t="n">
-        <v>156930.96</v>
+        <v>115278.06</v>
       </c>
       <c r="C17" s="14">
         <f>++'Completion Factors'!J21</f>
@@ -9725,7 +9725,7 @@
         <v/>
       </c>
       <c r="I17" s="14" t="n">
-        <v>181551.74</v>
+        <v>144800.61</v>
       </c>
       <c r="J17" s="14">
         <f>100*$G17/$I17</f>
@@ -9748,49 +9748,49 @@
         <v/>
       </c>
       <c r="S17" s="22" t="n">
-        <v>18605.66</v>
+        <v>17461.78</v>
       </c>
       <c r="T17" s="22" t="n">
-        <v>125042.11</v>
+        <v>92166.72</v>
       </c>
       <c r="U17" s="22" t="n">
-        <v>139341.71</v>
+        <v>101871.88</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>142070.22</v>
+        <v>108735.86</v>
       </c>
       <c r="W17" s="22" t="n">
-        <v>155747.57</v>
+        <v>111650.19</v>
       </c>
       <c r="X17" s="22" t="n">
-        <v>156183.68</v>
+        <v>112005.91</v>
       </c>
       <c r="Y17" s="22" t="n">
-        <v>156431.21</v>
+        <v>113773.5</v>
       </c>
       <c r="Z17" s="22" t="n">
-        <v>156497.96</v>
+        <v>114468.17</v>
       </c>
       <c r="AA17" s="22" t="n">
-        <v>156700.86</v>
+        <v>115074.2</v>
       </c>
       <c r="AB17" s="22" t="n">
-        <v>156794.37</v>
+        <v>115074.2</v>
       </c>
       <c r="AC17" s="22" t="n">
-        <v>156919.42</v>
+        <v>115089.27</v>
       </c>
       <c r="AD17" s="22" t="n">
-        <v>156930.96</v>
+        <v>115089.27</v>
       </c>
       <c r="AE17" s="22" t="n">
-        <v>156930.96</v>
+        <v>115220.39</v>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>156930.96</v>
+        <v>115268.63</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>156930.96</v>
+        <v>115278.06</v>
       </c>
       <c r="AH17" s="22" t="n">
         <v/>
@@ -9828,7 +9828,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v>155055.52</v>
+        <v>106853.99</v>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9852,7 +9852,7 @@
         <v/>
       </c>
       <c r="I18" s="14" t="n">
-        <v>715.0833333333334</v>
+        <v>141149.4075</v>
       </c>
       <c r="J18" s="14">
         <f>100*$G18/$I18</f>
@@ -9875,46 +9875,46 @@
         <v/>
       </c>
       <c r="S18" s="22" t="n">
-        <v>17513.31</v>
+        <v>13761.46</v>
       </c>
       <c r="T18" s="22" t="n">
-        <v>132135.98</v>
+        <v>83365.13</v>
       </c>
       <c r="U18" s="22" t="n">
-        <v>147248.96</v>
+        <v>101054.13</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>149220.05</v>
+        <v>104050.6</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>149729.07</v>
+        <v>104382.54</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>153329.83</v>
+        <v>104854.36</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>154184.96</v>
+        <v>105377.62</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>154348.48</v>
+        <v>106298.78</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>154882.2</v>
+        <v>106462.86</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>154926.03</v>
+        <v>106498.86</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>155037.68</v>
+        <v>106696.18</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>155041.19</v>
+        <v>106767.87</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>155041.19</v>
+        <v>106829.92</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>155055.52</v>
+        <v>106853.99</v>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -9955,7 +9955,7 @@
         <v/>
       </c>
       <c r="B19" s="14" t="n">
-        <v>180363.22</v>
+        <v>137376.11</v>
       </c>
       <c r="C19" s="14">
         <f>++'Completion Factors'!J19</f>
@@ -9979,7 +9979,7 @@
         <v/>
       </c>
       <c r="I19" s="14" t="n">
-        <v>161661.0216666667</v>
+        <v>134899.9383333333</v>
       </c>
       <c r="J19" s="14">
         <f>100*$G19/$I19</f>
@@ -10005,43 +10005,43 @@
         <v/>
       </c>
       <c r="S19" s="22" t="n">
-        <v>17868.02</v>
+        <v>14582.6</v>
       </c>
       <c r="T19" s="22" t="n">
-        <v>131817.62</v>
+        <v>117775.32</v>
       </c>
       <c r="U19" s="22" t="n">
-        <v>170116.95</v>
+        <v>130475.63</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>174104.45</v>
+        <v>133922.24</v>
       </c>
       <c r="W19" s="22" t="n">
-        <v>175083.57</v>
+        <v>135170.65</v>
       </c>
       <c r="X19" s="22" t="n">
-        <v>176878.84</v>
+        <v>136819.27</v>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>177097.42</v>
+        <v>136829.33</v>
       </c>
       <c r="Z19" s="22" t="n">
-        <v>177381.63</v>
+        <v>136915.73</v>
       </c>
       <c r="AA19" s="22" t="n">
-        <v>178647.53</v>
+        <v>137069.37</v>
       </c>
       <c r="AB19" s="22" t="n">
-        <v>180147.54</v>
+        <v>137105.91</v>
       </c>
       <c r="AC19" s="22" t="n">
-        <v>180164.05</v>
+        <v>137192</v>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>180300.34</v>
+        <v>137321.4</v>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>180363.22</v>
+        <v>137376.11</v>
       </c>
       <c r="AF19" s="22" t="n">
         <v/>
@@ -10085,7 +10085,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>135204.28</v>
+        <v>146910.28</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10109,7 +10109,7 @@
         <v/>
       </c>
       <c r="I20" s="14" t="n">
-        <v>154975.5508333333</v>
+        <v>132542.0908333334</v>
       </c>
       <c r="J20" s="14">
         <f>100*$G20/$I20</f>
@@ -10141,40 +10141,40 @@
         <v/>
       </c>
       <c r="S20" s="22" t="n">
-        <v>15146.67</v>
+        <v>20734.22</v>
       </c>
       <c r="T20" s="22" t="n">
-        <v>109132.73</v>
+        <v>121574.2</v>
       </c>
       <c r="U20" s="22" t="n">
-        <v>127651.88</v>
+        <v>141713.53</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>129060.53</v>
+        <v>143557.55</v>
       </c>
       <c r="W20" s="22" t="n">
-        <v>132127.63</v>
+        <v>145176.14</v>
       </c>
       <c r="X20" s="22" t="n">
-        <v>133609.24</v>
+        <v>146415.16</v>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>133722.13</v>
+        <v>146569.38</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>135071.73</v>
+        <v>146601.12</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>135105.97</v>
+        <v>146674.62</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>135132.8</v>
+        <v>146764</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>135154.24</v>
+        <v>146862.52</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>135204.28</v>
+        <v>146910.28</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10221,7 +10221,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v>174321.27</v>
+        <v>121594.76</v>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10245,7 +10245,7 @@
         <v/>
       </c>
       <c r="I21" s="14" t="n">
-        <v>148037.285</v>
+        <v>129006.9441666667</v>
       </c>
       <c r="J21" s="14">
         <f>100*$G21/$I21</f>
@@ -10277,37 +10277,37 @@
         <v/>
       </c>
       <c r="S21" s="22" t="n">
-        <v>29744.41</v>
+        <v>12112.64</v>
       </c>
       <c r="T21" s="22" t="n">
-        <v>118187.86</v>
+        <v>89289.81</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>154158.77</v>
+        <v>107439.25</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>157798.88</v>
+        <v>116471.64</v>
       </c>
       <c r="W21" s="22" t="n">
-        <v>167214.98</v>
+        <v>117824.3</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v>168096.97</v>
+        <v>118635.13</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>171158.53</v>
+        <v>119722.29</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>171972.94</v>
+        <v>119751.82</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>173621.86</v>
+        <v>119843.87</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>174288.28</v>
+        <v>120096.26</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>174321.27</v>
+        <v>121594.76</v>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10357,7 +10357,7 @@
         <v/>
       </c>
       <c r="B22" s="14" t="n">
-        <v>134094.95</v>
+        <v>111682.31</v>
       </c>
       <c r="C22" s="14">
         <f>++'Completion Factors'!J16</f>
@@ -10381,7 +10381,7 @@
         <v/>
       </c>
       <c r="I22" s="14" t="n">
-        <v>146051.985</v>
+        <v>126833.945</v>
       </c>
       <c r="J22" s="14">
         <f>100*$G22/$I22</f>
@@ -10413,34 +10413,34 @@
         <v/>
       </c>
       <c r="S22" s="22" t="n">
-        <v>8029.71</v>
+        <v>7881.53</v>
       </c>
       <c r="T22" s="22" t="n">
-        <v>105629.32</v>
+        <v>94566.3</v>
       </c>
       <c r="U22" s="22" t="n">
-        <v>122374.06</v>
+        <v>104645.71</v>
       </c>
       <c r="V22" s="22" t="n">
-        <v>125190.88</v>
+        <v>108665.29</v>
       </c>
       <c r="W22" s="22" t="n">
-        <v>128736.29</v>
+        <v>111109.46</v>
       </c>
       <c r="X22" s="22" t="n">
-        <v>129339.97</v>
+        <v>111219.53</v>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>132754.48</v>
+        <v>111257.77</v>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>133035.83</v>
+        <v>111328.22</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>134033.47</v>
+        <v>111623.4</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>134094.95</v>
+        <v>111682.31</v>
       </c>
       <c r="AC22" s="22" t="n">
         <v/>
@@ -10493,7 +10493,7 @@
         <v/>
       </c>
       <c r="B23" s="14" t="n">
-        <v>165176.73</v>
+        <v>93731.29999999999</v>
       </c>
       <c r="C23" s="14">
         <f>++'Completion Factors'!J15</f>
@@ -10517,7 +10517,7 @@
         <v/>
       </c>
       <c r="I23" s="14" t="n">
-        <v>143947.9166666667</v>
+        <v>124708.8225</v>
       </c>
       <c r="J23" s="14">
         <f>100*$G23/$I23</f>
@@ -10549,31 +10549,31 @@
         <v/>
       </c>
       <c r="S23" s="22" t="n">
-        <v>19033.93</v>
+        <v>11518.06</v>
       </c>
       <c r="T23" s="22" t="n">
-        <v>124534.29</v>
+        <v>81545.81999999999</v>
       </c>
       <c r="U23" s="22" t="n">
-        <v>153831.01</v>
+        <v>86784.70999999999</v>
       </c>
       <c r="V23" s="22" t="n">
-        <v>158323.08</v>
+        <v>90742.45999999999</v>
       </c>
       <c r="W23" s="22" t="n">
-        <v>160017.65</v>
+        <v>91313.26999999999</v>
       </c>
       <c r="X23" s="22" t="n">
-        <v>161074.2</v>
+        <v>91485.25999999999</v>
       </c>
       <c r="Y23" s="22" t="n">
-        <v>163946.95</v>
+        <v>92582.34</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v>164961.51</v>
+        <v>93128.37999999999</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v>165176.73</v>
+        <v>93731.29999999999</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v/>
@@ -10629,7 +10629,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>143830.11</v>
+        <v>111591.2</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10655,7 +10655,7 @@
         <v/>
       </c>
       <c r="I24" s="14" t="n">
-        <v>143763.3941666667</v>
+        <v>123862.115</v>
       </c>
       <c r="J24" s="14">
         <f>100*$G24/$I24</f>
@@ -10687,28 +10687,28 @@
         <v/>
       </c>
       <c r="S24" s="22" t="n">
-        <v>20066.04</v>
+        <v>26034.36</v>
       </c>
       <c r="T24" s="22" t="n">
-        <v>117598.31</v>
+        <v>95022.89999999999</v>
       </c>
       <c r="U24" s="22" t="n">
-        <v>133840.01</v>
+        <v>103770.58</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>135145.97</v>
+        <v>108700.25</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>140424.18</v>
+        <v>109467</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>140841.92</v>
+        <v>109843.25</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>142088.15</v>
+        <v>111573.49</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>143830.11</v>
+        <v>111591.2</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10767,7 +10767,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>135644</v>
+        <v>83238.75999999999</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10793,7 +10793,7 @@
         <v/>
       </c>
       <c r="I25" s="14" t="n">
-        <v>146003.0475</v>
+        <v>124027.4041666667</v>
       </c>
       <c r="J25" s="14">
         <f>100*$G25/$I25</f>
@@ -10825,25 +10825,25 @@
         <v/>
       </c>
       <c r="S25" s="22" t="n">
-        <v>13126.29</v>
+        <v>6385.06</v>
       </c>
       <c r="T25" s="22" t="n">
-        <v>107790.95</v>
+        <v>68078.82000000001</v>
       </c>
       <c r="U25" s="22" t="n">
-        <v>124825.97</v>
+        <v>80310.75</v>
       </c>
       <c r="V25" s="22" t="n">
-        <v>128047.06</v>
+        <v>81182.35000000001</v>
       </c>
       <c r="W25" s="22" t="n">
-        <v>132279.27</v>
+        <v>81696.52</v>
       </c>
       <c r="X25" s="22" t="n">
-        <v>134740.34</v>
+        <v>83173.42</v>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>135644</v>
+        <v>83238.75999999999</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10905,7 +10905,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v>132414.36</v>
+        <v>89305.47</v>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10931,7 +10931,7 @@
         <v/>
       </c>
       <c r="I26" s="14" t="n">
-        <v>146622.8866666667</v>
+        <v>125579.33</v>
       </c>
       <c r="J26" s="14">
         <f>100*$G26/$I26</f>
@@ -10963,22 +10963,22 @@
         <v/>
       </c>
       <c r="S26" s="22" t="n">
-        <v>25450.48</v>
+        <v>14306.13</v>
       </c>
       <c r="T26" s="22" t="n">
-        <v>95351.34999999999</v>
+        <v>77149.73</v>
       </c>
       <c r="U26" s="22" t="n">
-        <v>116724.55</v>
+        <v>85288.72</v>
       </c>
       <c r="V26" s="22" t="n">
-        <v>126099.51</v>
+        <v>86474.14</v>
       </c>
       <c r="W26" s="22" t="n">
-        <v>129432.41</v>
+        <v>86870.95</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v>132414.36</v>
+        <v>89305.47</v>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11043,7 +11043,7 @@
         <v/>
       </c>
       <c r="B27" s="14" t="n">
-        <v>128160.35</v>
+        <v>79196.84000000001</v>
       </c>
       <c r="C27" s="14">
         <f>++'Completion Factors'!J11</f>
@@ -11069,7 +11069,7 @@
         <v/>
       </c>
       <c r="I27" s="14" t="n">
-        <v>146738.5158333333</v>
+        <v>126105.3775</v>
       </c>
       <c r="J27" s="14">
         <f>100*$G27/$I27</f>
@@ -11101,19 +11101,19 @@
         <v/>
       </c>
       <c r="S27" s="22" t="n">
-        <v>9112.969999999999</v>
+        <v>10793.19</v>
       </c>
       <c r="T27" s="22" t="n">
-        <v>93943.89</v>
+        <v>70235.77</v>
       </c>
       <c r="U27" s="22" t="n">
-        <v>125097.55</v>
+        <v>77231.57000000001</v>
       </c>
       <c r="V27" s="22" t="n">
-        <v>127340.66</v>
+        <v>77961.10000000001</v>
       </c>
       <c r="W27" s="22" t="n">
-        <v>128160.35</v>
+        <v>79196.84000000001</v>
       </c>
       <c r="X27" s="22" t="n">
         <v/>
@@ -11181,7 +11181,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v>108735.86</v>
+        <v>77584.53999999999</v>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11207,7 +11207,7 @@
         <v/>
       </c>
       <c r="I28" s="14" t="n">
-        <v>144800.61</v>
+        <v>125926.0375</v>
       </c>
       <c r="J28" s="14">
         <f>100*$G28/$I28</f>
@@ -11239,16 +11239,16 @@
         <v/>
       </c>
       <c r="S28" s="22" t="n">
-        <v>17461.78</v>
+        <v>12011.91</v>
       </c>
       <c r="T28" s="22" t="n">
-        <v>92166.72</v>
+        <v>67185.33</v>
       </c>
       <c r="U28" s="22" t="n">
-        <v>101871.88</v>
+        <v>74815.14999999999</v>
       </c>
       <c r="V28" s="22" t="n">
-        <v>108735.86</v>
+        <v>77584.53999999999</v>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
@@ -11319,7 +11319,7 @@
         <v/>
       </c>
       <c r="B29" s="14" t="n">
-        <v>101054.13</v>
+        <v>81400.88</v>
       </c>
       <c r="C29" s="14">
         <f>++'Completion Factors'!J9</f>
@@ -11346,7 +11346,7 @@
         <v/>
       </c>
       <c r="I29" s="14" t="n">
-        <v>141149.4075</v>
+        <v>123026.6875</v>
       </c>
       <c r="J29" s="20" t="n">
         <v>75</v>
@@ -11377,13 +11377,13 @@
         <v/>
       </c>
       <c r="S29" s="22" t="n">
-        <v>13761.46</v>
+        <v>11068.59</v>
       </c>
       <c r="T29" s="22" t="n">
-        <v>83365.13</v>
+        <v>68964.81</v>
       </c>
       <c r="U29" s="22" t="n">
-        <v>101054.13</v>
+        <v>81400.88</v>
       </c>
       <c r="V29" s="22" t="n">
         <v/>
@@ -11457,7 +11457,7 @@
         <v/>
       </c>
       <c r="B30" s="14" t="n">
-        <v>117775.32</v>
+        <v>71430.84</v>
       </c>
       <c r="C30" s="14">
         <f>++'Completion Factors'!J8</f>
@@ -11484,7 +11484,7 @@
         <v/>
       </c>
       <c r="I30" s="14" t="n">
-        <v>134899.9383333333</v>
+        <v>122216.725</v>
       </c>
       <c r="J30" s="20" t="n">
         <v>70</v>
@@ -11515,10 +11515,10 @@
         <v/>
       </c>
       <c r="S30" s="22" t="n">
-        <v>14582.6</v>
+        <v>7978.49</v>
       </c>
       <c r="T30" s="22" t="n">
-        <v>117775.32</v>
+        <v>71430.84</v>
       </c>
       <c r="U30" s="22" t="n">
         <v/>
@@ -11595,7 +11595,7 @@
         <v/>
       </c>
       <c r="B31" s="14" t="n">
-        <v>20734.22</v>
+        <v>12202.43</v>
       </c>
       <c r="C31" s="14">
         <f>+'Completion Factors'!J7</f>
@@ -11622,7 +11622,7 @@
         <v/>
       </c>
       <c r="I31" s="14" t="n">
-        <v>132542.0908333334</v>
+        <v>119111.5425</v>
       </c>
       <c r="J31" s="20" t="n">
         <v>70</v>
@@ -11653,7 +11653,7 @@
         <v/>
       </c>
       <c r="S31" s="22" t="n">
-        <v>20734.22</v>
+        <v>12202.43</v>
       </c>
       <c r="T31" s="22" t="n">
         <v/>

--- a/Process Results/Unified_IBNP_ULI.xlsx
+++ b/Process Results/Unified_IBNP_ULI.xlsx
@@ -3727,20 +3727,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1238855396826194</v>
+        <v>0.1971792447276714</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1235171041612829</v>
+        <v>0.155737331003861</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.1235223777003392</v>
+        <v>0.1545033241349816</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.1237010475822527</v>
+        <v>0.1740250892981843</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3765,20 +3765,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8279819058877002</v>
+        <v>0.8589540299052726</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8354735343656915</v>
+        <v>0.844838204533871</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8129704194799525</v>
+        <v>0.847859069714383</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8317108502737699</v>
+        <v>0.8518376427994259</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3803,20 +3803,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9365483756759824</v>
+        <v>0.9607759341726673</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9405635909789347</v>
+        <v>0.9497109510054577</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.923102385936831</v>
+        <v>0.9452138293072726</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9385516889768244</v>
+        <v>0.9552114000104297</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3841,20 +3841,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.9550332299316892</v>
+        <v>0.9684655555870665</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.9672949152312795</v>
+        <v>0.9666366722304162</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.9560344168905459</v>
+        <v>0.9679072585251367</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.9611249666341557</v>
+        <v>0.9675502496612913</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3879,20 +3879,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9633803069279212</v>
+        <v>0.9818480360842481</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9776512354804539</v>
+        <v>0.9778995174813896</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.9665865961404834</v>
+        <v>0.9784256456546204</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.9704633095627093</v>
+        <v>0.9798697990258041</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3917,20 +3917,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9782369426558786</v>
+        <v>0.9854795572867876</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9864436035071718</v>
+        <v>0.9864674262867873</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9755000114401975</v>
+        <v>0.9856710211578075</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9823231330730745</v>
+        <v>0.9859732443447493</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3955,20 +3955,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9881831207874049</v>
+        <v>0.9855704113964968</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9926722579828524</v>
+        <v>0.9876295620706018</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.9810091891326467</v>
+        <v>0.9894928286612047</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.9904226026046963</v>
+        <v>0.986598912310897</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -3993,20 +3993,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9901700539291699</v>
+        <v>0.9861369470735333</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9937524295686732</v>
+        <v>0.9884664446795546</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9863461137478007</v>
+        <v>0.9911942593094376</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9919580073949259</v>
+        <v>0.9873003217881778</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4031,20 +4031,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9931940866760615</v>
+        <v>0.9862485711572261</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9956749695638362</v>
+        <v>0.99000923233029</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9882730499428105</v>
+        <v>0.9929270220596377</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9944329808134824</v>
+        <v>0.9881253236244374</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -4069,20 +4069,20 @@
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9942464773716529</v>
+        <v>0.9865441272507666</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.9963145004542454</v>
+        <v>0.9903583862002524</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.989828814214588</v>
+        <v>0.9934332485060607</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.9952794146631477</v>
+        <v>0.988447577087481</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4107,20 +4107,20 @@
         <v/>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9983889682850108</v>
+        <v>0.9901055782708217</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9988962890068834</v>
+        <v>0.9945758197115347</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9949112664857171</v>
+        <v>0.9960588422968272</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9986425642149117</v>
+        <v>0.9923356646671404</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -4145,20 +4145,20 @@
         <v/>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9990247933641668</v>
+        <v>0.9906129016032665</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9993769944761807</v>
+        <v>0.9948764621614975</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9982399459390322</v>
+        <v>0.9968204298831893</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
         <v/>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9992008628839667</v>
+        <v>0.9927401041825552</v>
       </c>
       <c r="J18" s="5">
         <f>I18</f>
@@ -4183,20 +4183,20 @@
         <v/>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.9997142506624206</v>
+        <v>0.9958939373068931</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.9997538329594955</v>
+        <v>0.9974266285049026</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.999203775798771</v>
+        <v>0.9982398613579153</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
         <v/>
       </c>
       <c r="I19" s="5" t="n">
-        <v>0.9997340414191642</v>
+        <v>0.9966596936523806</v>
       </c>
       <c r="J19" s="5">
         <f>I19</f>
@@ -4221,20 +4221,20 @@
         <v/>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9999199209654517</v>
+        <v>0.996017989298111</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9999635233719153</v>
+        <v>0.9975166930933234</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9999142200621186</v>
+        <v>0.9983860535142189</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
         <v/>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.9999417216933634</v>
+        <v>0.9967667778463344</v>
       </c>
       <c r="J20" s="5">
         <f>I20</f>
@@ -4259,20 +4259,20 @@
         <v/>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1</v>
+        <v>0.996017989298111</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1</v>
+        <v>0.9975294194727002</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9999490872895648</v>
+        <v>0.9984095576411136</v>
       </c>
       <c r="H21" s="4">
         <f>+I21/I22</f>
         <v/>
       </c>
       <c r="I21" s="5" t="n">
-        <v>1</v>
+        <v>0.996773131431594</v>
       </c>
       <c r="J21" s="5">
         <f>I21</f>
@@ -4833,49 +4833,49 @@
         <v>0</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>7.377293063249313</v>
+        <v>5.860563917942952</v>
       </c>
       <c r="C38" s="4" t="n">
-        <v>1.290547879714412</v>
+        <v>1.138111678645722</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>1.023439757178811</v>
+        <v>1.009757620310997</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>1.005623750570419</v>
+        <v>1.039055622598291</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>1.010253789090547</v>
+        <v>1.002974843791148</v>
       </c>
       <c r="G38" s="4" t="n">
-        <v>1.001235761157185</v>
+        <v>1.008848430921703</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>1.001604822927403</v>
+        <v>1.012259713424378</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>1.007136590186932</v>
+        <v>1.000789334027486</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>1.008396477689896</v>
+        <v>1</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>1.000091647102148</v>
+        <v>1.011642612344665</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>1.000756477221732</v>
+        <v>1.000204230861357</v>
       </c>
       <c r="M38" s="4" t="n">
-        <v>1.00034875142221</v>
+        <v>1.000281978775587</v>
       </c>
       <c r="N38" s="4" t="n">
-        <v>1.004226471450221</v>
+        <v>1</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>1.000379791870301</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="4" t="n">
         <v>1</v>
@@ -4908,40 +4908,40 @@
         <v/>
       </c>
       <c r="B39" s="4" t="n">
-        <v>7.205064215434811</v>
+        <v>8.21183670328783</v>
       </c>
       <c r="C39" s="4" t="n">
-        <v>1.169693821459428</v>
+        <v>1.158037571799859</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>1.011035090121665</v>
+        <v>1.02580464626071</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>1.023764817950151</v>
+        <v>1.033051988854723</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>1.011213475939892</v>
+        <v>1.01860510720992</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>1.0008449265934</v>
+        <v>1.006706677450866</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>1.010092570317269</v>
+        <v>1.024766226298252</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>1.000253494939318</v>
+        <v>1.002776550989152</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>1.000198584858981</v>
+        <v>1.000517471422133</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>1.000158658741623</v>
+        <v>1.000085543340393</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>1.000370243656433</v>
+        <v>1.004081495109462</v>
       </c>
       <c r="M39" s="4" t="n">
-        <v>1.008500766395857</v>
+        <v>1.00028327082619</v>
       </c>
       <c r="N39" s="4" t="n">
         <v>1</v>
@@ -4983,67 +4983,67 @@
         <v/>
       </c>
       <c r="B40" s="4" t="n">
-        <v>3.973447783970164</v>
+        <v>3.749469779809151</v>
       </c>
       <c r="C40" s="4" t="n">
-        <v>1.304353678964997</v>
+        <v>1.224215721767395</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>1.023612733806841</v>
+        <v>1.080335589109173</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>1.059671526185737</v>
+        <v>1.02643639057326</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>1.005274587240928</v>
+        <v>1.023043486694095</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>1.018213058807663</v>
+        <v>1.002235108992344</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>1.00475822034695</v>
+        <v>1.001279815572705</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>1.009588252663471</v>
+        <v>1.002151024226101</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>1.003838341554457</v>
+        <v>1.001052210490769</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>1.000189284098736</v>
+        <v>1.004411427619611</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>1.00668879936453</v>
+        <v>1.000277888169434</v>
       </c>
       <c r="M40" s="4" t="n">
         <v>1</v>
       </c>
       <c r="N40" s="4" t="n">
-        <v>1.001035687659851</v>
+        <v>1.000667941211614</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>1.000118404485891</v>
+        <v>1.000155977785181</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="S40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="T40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="U40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="V40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="W40" t="n">
         <v/>
@@ -5058,64 +5058,64 @@
         <v/>
       </c>
       <c r="B41" s="4" t="n">
-        <v>13.15339283735029</v>
+        <v>10.308171759591</v>
       </c>
       <c r="C41" s="4" t="n">
-        <v>1.158540694747568</v>
+        <v>1.331607657215829</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>1.023020256096079</v>
+        <v>1.017932163943904</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>1.028322610996418</v>
+        <v>1.006437436067595</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>1.004689690961112</v>
+        <v>1.003060207516981</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>1.026401820850426</v>
+        <v>1.002265223452181</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>1.002119507689628</v>
+        <v>1.002842555182494</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>1.007499674495905</v>
+        <v>1.000135602655119</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>1.000458730382337</v>
+        <v>1.000459144675303</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>1.030730090996987</v>
+        <v>1.000468061584559</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>1.024587645679617</v>
+        <v>1.000649923143457</v>
       </c>
       <c r="M41" s="4" t="n">
-        <v>1.000501828822135</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N41" s="4" t="n">
-        <v>1.000084207922843</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="T41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="U41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="V41" s="4" t="n">
         <v/>
@@ -5133,46 +5133,46 @@
         <v/>
       </c>
       <c r="B42" s="4" t="n">
-        <v>6.54275233753618</v>
+        <v>5.278197297182762</v>
       </c>
       <c r="C42" s="4" t="n">
-        <v>1.235250227065975</v>
+        <v>1.105300047565976</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>1.029201329432863</v>
+        <v>1.067378554317443</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>1.010703240487742</v>
+        <v>1.026801921647559</v>
       </c>
       <c r="F42" s="4" t="n">
-        <v>1.006602709138648</v>
+        <v>1.003186022343536</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>1.017834948117079</v>
+        <v>1.015781220830222</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>1.006188343241518</v>
+        <v>1.006105727607923</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>1.001304667979821</v>
+        <v>1.005294310199945</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>1.010193082282232</v>
+        <v>1</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>1.000422329109982</v>
+        <v>1.000130958981249</v>
       </c>
       <c r="L42" s="4" t="n">
         <v>1</v>
       </c>
       <c r="M42" s="4" t="n">
-        <v>1.000221588746383</v>
+        <v>1.001139289527164</v>
       </c>
       <c r="N42" s="4" t="n">
-        <v>1</v>
+        <v>1.00041867589582</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>1</v>
+        <v>1.00008180890152</v>
       </c>
       <c r="P42" s="4" t="n">
         <v>1</v>
@@ -5208,49 +5208,49 @@
         <v/>
       </c>
       <c r="B43" s="4" t="n">
-        <v>5.860563917942952</v>
+        <v>6.057869586511897</v>
       </c>
       <c r="C43" s="4" t="n">
-        <v>1.138111678645722</v>
+        <v>1.212187037913814</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>1.009757620310997</v>
+        <v>1.029652128022873</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>1.039055622598291</v>
+        <v>1.003190178624631</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>1.002974843791148</v>
+        <v>1.004520104607533</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v>1.008848430921703</v>
+        <v>1.004990350425104</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>1.012259713424378</v>
+        <v>1.008741514564478</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>1.000789334027486</v>
+        <v>1.001543573689181</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>1</v>
+        <v>1.00033814609151</v>
       </c>
       <c r="K43" s="4" t="n">
-        <v>1.011642612344665</v>
+        <v>1.001852789785731</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>1.000204230861357</v>
+        <v>1.000671907841499</v>
       </c>
       <c r="M43" s="4" t="n">
-        <v>1.000281978775587</v>
+        <v>1.000581167349316</v>
       </c>
       <c r="N43" s="4" t="n">
-        <v>1</v>
+        <v>1.000225311410886</v>
       </c>
       <c r="O43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>1</v>
+        <v>1.002380631738693</v>
       </c>
       <c r="Q43" s="4" t="n">
         <v>1</v>
@@ -5283,40 +5283,40 @@
         <v/>
       </c>
       <c r="B44" s="4" t="n">
-        <v>8.21183670328783</v>
+        <v>8.074746615829826</v>
       </c>
       <c r="C44" s="4" t="n">
-        <v>1.158037571799859</v>
+        <v>1.107857526233367</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>1.02580464626071</v>
+        <v>1.026420702744499</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>1.033051988854723</v>
+        <v>1.009323609095061</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>1.01860510720992</v>
+        <v>1.012198795481602</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>1.006706677450866</v>
+        <v>1.000073540833987</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>1.024766226298252</v>
+        <v>1.000631556741316</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>1.002776550989152</v>
+        <v>1.001122351099095</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>1.000517471422133</v>
+        <v>1.000266628041842</v>
       </c>
       <c r="K44" s="4" t="n">
-        <v>1.000085543340393</v>
+        <v>1.000628021061065</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>1.004081495109462</v>
+        <v>1.000943372292033</v>
       </c>
       <c r="M44" s="4" t="n">
-        <v>1.00028327082619</v>
+        <v>1.000398479557584</v>
       </c>
       <c r="N44" s="4" t="n">
         <v>1</v>
@@ -5358,49 +5358,49 @@
         <v/>
       </c>
       <c r="B45" s="4" t="n">
-        <v>3.746544269499042</v>
+        <v>5.863456643172494</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>1.224152043993084</v>
+        <v>1.165654637250338</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>1.080316951318296</v>
+        <v>1.013012307293453</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>1.026430713331083</v>
+        <v>1.011274851096303</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>1.023038665508894</v>
+        <v>1.008534598040697</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>1.00223465189123</v>
+        <v>1.001053306228672</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>1.001279554421791</v>
+        <v>1.000216552734275</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>1.002150585862876</v>
+        <v>1.000501360426169</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>1.001051996518026</v>
+        <v>1.000609376046108</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v>1.004410531474481</v>
+        <v>1.000671281785724</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>1.000277831966629</v>
+        <v>1.000325202100577</v>
       </c>
       <c r="M45" s="4" t="n">
-        <v>1</v>
+        <v>1.000104962021718</v>
       </c>
       <c r="N45" s="4" t="n">
-        <v>1.000667806158212</v>
+        <v>1</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>1.000155946268527</v>
+        <v>1</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>1</v>
+        <v>1.011024143495658</v>
       </c>
       <c r="Q45" s="4" t="n">
         <v>1</v>
@@ -5433,49 +5433,49 @@
         <v/>
       </c>
       <c r="B46" s="4" t="n">
-        <v>10.30881150711568</v>
+        <v>7.236887251664378</v>
       </c>
       <c r="C46" s="4" t="n">
-        <v>1.331619863729296</v>
+        <v>1.215806098737808</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>1.017930886735991</v>
+        <v>1.084751569084278</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>1.006436985641507</v>
+        <v>1.011700473214103</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>1.003059994764371</v>
+        <v>1.006932544003311</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>1.002265066449106</v>
+        <v>1.009231152243366</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>1.002842358609695</v>
+        <v>1.000248447852958</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>1.000135593304291</v>
+        <v>1.000774261576935</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>1.000459113018102</v>
+        <v>1.002121289445444</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>1.000468029327363</v>
+        <v>1.012567944269282</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>1.00064987837394</v>
+        <v>1.000050360137102</v>
       </c>
       <c r="M46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.000724304640627</v>
       </c>
       <c r="N46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.000338343543506</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="P46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q46" s="4" t="n">
         <v/>
@@ -5508,46 +5508,46 @@
         <v/>
       </c>
       <c r="B47" s="4" t="n">
-        <v>5.278197297182762</v>
+        <v>12.69604494611135</v>
       </c>
       <c r="C47" s="4" t="n">
-        <v>1.105300047565976</v>
+        <v>1.10650306922196</v>
       </c>
       <c r="D47" s="4" t="n">
-        <v>1.067378554317443</v>
+        <v>1.038384427357664</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>1.026801921647559</v>
+        <v>1.022477480629925</v>
       </c>
       <c r="F47" s="4" t="n">
-        <v>1.003186022343536</v>
+        <v>1.000989991435724</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>1.015781220830222</v>
+        <v>1.000343597993941</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>1.006105727607923</v>
+        <v>1.000632797181811</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>1.005294310199945</v>
+        <v>1.002649694070656</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>1</v>
+        <v>1.000672535415543</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>1.000130958981249</v>
+        <v>1.000153348106285</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M47" s="4" t="n">
-        <v>1.001139289527164</v>
+        <v>1.000776373485115</v>
       </c>
       <c r="N47" s="4" t="n">
-        <v>1.00041867589582</v>
+        <v>1</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>1.00008180890152</v>
+        <v>1</v>
       </c>
       <c r="P47" t="n">
         <v/>
@@ -5583,43 +5583,43 @@
         <v/>
       </c>
       <c r="B48" s="4" t="n">
-        <v>6.057869586511897</v>
+        <v>7.092135734655208</v>
       </c>
       <c r="C48" s="4" t="n">
-        <v>1.212187037913814</v>
+        <v>1.064263086012776</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>1.029652128022873</v>
+        <v>1.045616468054987</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>1.003190178624631</v>
+        <v>1.006292054227121</v>
       </c>
       <c r="F48" s="4" t="n">
-        <v>1.004520104607533</v>
+        <v>1.001883996262898</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>1.004990350425104</v>
+        <v>1.011994929477801</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>1.008741514564478</v>
+        <v>1.005899368468089</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>1.001543573689181</v>
+        <v>1.006877818723142</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>1.00033814609151</v>
+        <v>1.000186675706749</v>
       </c>
       <c r="K48" s="4" t="n">
-        <v>1.001852789785731</v>
+        <v>1.000552990221299</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>1.000671907841499</v>
+        <v>1.000667591822656</v>
       </c>
       <c r="M48" s="4" t="n">
-        <v>1.000581167349316</v>
+        <v>1.017139261573388</v>
       </c>
       <c r="N48" s="4" t="n">
-        <v>1.000225311410886</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O48" t="n">
         <v/>
@@ -5658,40 +5658,40 @@
         <v/>
       </c>
       <c r="B49" s="4" t="n">
-        <v>8.076428071811613</v>
+        <v>3.648797973140112</v>
       </c>
       <c r="C49" s="4" t="n">
-        <v>1.107835071048841</v>
+        <v>1.092086541777533</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>1.026415737559573</v>
+        <v>1.04751864725694</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>1.009321902023144</v>
+        <v>1.006989138915669</v>
       </c>
       <c r="F49" s="4" t="n">
-        <v>1.012196582616123</v>
+        <v>1.003438239935506</v>
       </c>
       <c r="G49" s="4" t="n">
-        <v>1.000073527654401</v>
+        <v>1.015757066656078</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>1.000631443565499</v>
+        <v>1.000158780707615</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>1.001122150099189</v>
+        <v>1.000835819471958</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>1.000266580345412</v>
+        <v>1.000291898417201</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>1.000627908745874</v>
+        <v>1.005909867227216</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>1.000943203685346</v>
+        <v>1.000763211734554</v>
       </c>
       <c r="M49" s="4" t="n">
-        <v>1.000398408405391</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N49" t="n">
         <v/>
@@ -5733,37 +5733,37 @@
         <v/>
       </c>
       <c r="B50" s="4" t="n">
-        <v>5.863456643172494</v>
+        <v>10.58246437778188</v>
       </c>
       <c r="C50" s="4" t="n">
-        <v>1.165654637250338</v>
+        <v>1.180958409298136</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>1.013012307293453</v>
+        <v>1.010922720499287</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>1.011274851096303</v>
+        <v>1.006373857873023</v>
       </c>
       <c r="F50" s="4" t="n">
-        <v>1.008534598040697</v>
+        <v>1.018192290627293</v>
       </c>
       <c r="G50" s="4" t="n">
-        <v>1.001053306228672</v>
+        <v>1.000790470415792</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>1.000216552734275</v>
+        <v>1.001993714595035</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>1.000501360426169</v>
+        <v>1.000898058641878</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>1.000609376046108</v>
+        <v>1.000911837433789</v>
       </c>
       <c r="K50" s="4" t="n">
-        <v>1.000671281785724</v>
+        <v>1.004418954720617</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>1.000325202100577</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M50" t="n">
         <v/>
@@ -5808,34 +5808,34 @@
         <v/>
       </c>
       <c r="B51" s="4" t="n">
-        <v>7.371622536457783</v>
+        <v>5.391926397984641</v>
       </c>
       <c r="C51" s="4" t="n">
-        <v>1.203264403855266</v>
+        <v>1.105512616415341</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>1.084069741737773</v>
+        <v>1.014361737494428</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>1.011613642600036</v>
+        <v>1.004587329371081</v>
       </c>
       <c r="F51" s="4" t="n">
-        <v>1.006881687393857</v>
+        <v>1.028381741745391</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v>1.009163896056758</v>
+        <v>1.00298485616874</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>1.000246654152706</v>
+        <v>1.001393376724484</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>1.000768673077369</v>
+        <v>1</v>
       </c>
       <c r="J51" s="4" t="n">
-        <v>1.002105990068578</v>
+        <v>1</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v>1.012477490972658</v>
+        <v>1</v>
       </c>
       <c r="L51" t="n">
         <v/>
@@ -5883,31 +5883,31 @@
         <v/>
       </c>
       <c r="B52" s="4" t="n">
-        <v>11.99846984024675</v>
+        <v>6.506636128892384</v>
       </c>
       <c r="C52" s="4" t="n">
-        <v>1.106585644145959</v>
+        <v>1.099616445784093</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>1.038411321400562</v>
+        <v>1.009447036355415</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>1.022492646916048</v>
+        <v>1.016010351919863</v>
       </c>
       <c r="F52" s="4" t="n">
-        <v>1.000990644720981</v>
+        <v>1.002578132477045</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>1.000343824506362</v>
+        <v>1.00295095027475</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>1.000633214201579</v>
+        <v>1.000635741798171</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>1.002651439140947</v>
+        <v>1.00035249143304</v>
       </c>
       <c r="J52" s="4" t="n">
-        <v>1.000527756724845</v>
+        <v>1</v>
       </c>
       <c r="K52" t="n">
         <v/>
@@ -5958,28 +5958,28 @@
         <v/>
       </c>
       <c r="B53" s="4" t="n">
-        <v>7.079822470103472</v>
+        <v>5.593226222973699</v>
       </c>
       <c r="C53" s="4" t="n">
-        <v>1.06424473995111</v>
+        <v>1.113563779473882</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>1.045604231436621</v>
+        <v>1.037244194524772</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>1.006290439999092</v>
+        <v>1.003611653267884</v>
       </c>
       <c r="F53" s="4" t="n">
-        <v>1.001883515944616</v>
+        <v>1.009261978240116</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>1.011991877161414</v>
+        <v>1.000252279837498</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>1.005897885061017</v>
+        <v>1.001152588643886</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>1.00647407374637</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
         <v/>
@@ -6033,25 +6033,25 @@
         <v/>
       </c>
       <c r="B54" s="4" t="n">
-        <v>3.649903435306264</v>
+        <v>6.242492494527306</v>
       </c>
       <c r="C54" s="4" t="n">
-        <v>1.09205865112515</v>
+        <v>1.203951511232482</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>1.047505468312888</v>
+        <v>1.033369340241723</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>1.007053801624191</v>
+        <v>1.00872775775252</v>
       </c>
       <c r="F54" s="4" t="n">
-        <v>1.003437108900399</v>
+        <v>1.00859619671257</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>1.015751901004386</v>
+        <v>1.000035559381079</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>1.000158729461631</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v/>
@@ -6108,22 +6108,22 @@
         <v/>
       </c>
       <c r="B55" s="4" t="n">
-        <v>10.66220521028777</v>
+        <v>8.778294675467306</v>
       </c>
       <c r="C55" s="4" t="n">
-        <v>1.179673061313342</v>
+        <v>1.127508511106419</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>1.010852843486084</v>
+        <v>1.010335051745915</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>1.006333519539653</v>
+        <v>1.004531720400879</v>
       </c>
       <c r="F55" s="4" t="n">
-        <v>1.018077881407923</v>
+        <v>1.002068455413247</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>1.00078558751101</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H55" t="n">
         <v/>
@@ -6183,19 +6183,19 @@
         <v/>
       </c>
       <c r="B56" s="4" t="n">
-        <v>5.392774286267494</v>
+        <v>5.664031432677869</v>
       </c>
       <c r="C56" s="4" t="n">
-        <v>1.105496027011371</v>
+        <v>1.056871952302769</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>1.013898907147393</v>
+        <v>1.014426369033392</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>1.004588770700697</v>
+        <v>1.040364601471699</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>1.028024558267177</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -6258,16 +6258,16 @@
         <v/>
       </c>
       <c r="B57" s="4" t="n">
-        <v>6.507415323921843</v>
+        <v>5.362565348969857</v>
       </c>
       <c r="C57" s="4" t="n">
-        <v>1.099604517754984</v>
+        <v>1.204264427339173</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>1.009446007636514</v>
+        <v>1.007540409678566</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>1.015850725554155</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
         <v/>
@@ -6333,13 +6333,13 @@
         <v/>
       </c>
       <c r="B58" s="4" t="n">
-        <v>5.593226222973699</v>
+        <v>5.903442338875758</v>
       </c>
       <c r="C58" s="4" t="n">
-        <v>1.113563779473882</v>
+        <v>1.141555832118134</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>1.03701643316895</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
         <v/>
@@ -6408,10 +6408,10 @@
         <v/>
       </c>
       <c r="B59" s="4" t="n">
-        <v>6.23067707811022</v>
+        <v>6.931435343902229</v>
       </c>
       <c r="C59" s="4" t="n">
-        <v>1.180324864231483</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
         <v/>
@@ -6483,7 +6483,7 @@
         <v/>
       </c>
       <c r="B60" s="4" t="n">
-        <v>8.952927182963192</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
         <v/>
@@ -6704,61 +6704,61 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.121970965661073</v>
+        <v>0.1331806330564825</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.1235223777003392</v>
+        <v>0.1545033241349816</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.1235171041612829</v>
+        <v>0.155737331003861</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.1238855396826194</v>
+        <v>0.1971792447276714</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.1092720669064716</v>
+        <v>0.1233527387836933</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.1116180217600107</v>
+        <v>0.1421149876036561</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.1153453829137899</v>
+        <v>0.1509791292980156</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.1193194312017696</v>
+        <v>0.1867208072411809</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.1237010475822527</v>
+        <v>0.1740250892981843</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="22" t="n">
-        <v>6.398232972371922</v>
+        <v>6.09149964838798</v>
       </c>
       <c r="O2" s="22" t="n">
-        <v>6.581563880288877</v>
+        <v>5.48764289999128</v>
       </c>
       <c r="P2" s="22" t="n">
-        <v>6.764031103536635</v>
+        <v>5.424763600918047</v>
       </c>
       <c r="Q2" s="22" t="n">
-        <v>6.683442700487042</v>
+        <v>4.356209149150525</v>
       </c>
       <c r="R2" s="22" t="n">
-        <v>7.17803051394363</v>
+        <v>6.610204042215299</v>
       </c>
       <c r="S2" s="22" t="n">
-        <v>7.281577358468549</v>
+        <v>5.967109394599421</v>
       </c>
       <c r="T2" s="22" t="n">
-        <v>7.223204217420704</v>
+        <v>5.60662818998217</v>
       </c>
       <c r="U2" s="22" t="n">
-        <v>6.925610161349037</v>
+        <v>4.611625894259329</v>
       </c>
       <c r="V2" s="22" t="n">
-        <v>6.723736902011838</v>
+        <v>4.890486375034286</v>
       </c>
     </row>
     <row r="3">
@@ -6767,62 +6767,62 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.7803986541647207</v>
+        <v>0.8112697794356519</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.8129704194799525</v>
+        <v>0.847859069714383</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.8354735343656915</v>
+        <v>0.844838204533871</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.8279819058877002</v>
+        <v>0.8589540299052726</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.7843582305763428</v>
+        <v>0.8153867725262972</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.8127552600447437</v>
+        <v>0.8480156776431568</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.8331632563228935</v>
+        <v>0.8464838424212174</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.8263598651773628</v>
+        <v>0.8610865096704345</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.8317108502737699</v>
+        <v>0.8518376427994259</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="22" t="n">
-        <v>1.175755331118781</v>
+        <v>1.14635962133866</v>
       </c>
       <c r="O3" s="22" t="n">
-        <v>1.135468602322983</v>
+        <v>1.11482422382494</v>
       </c>
       <c r="P3" s="22" t="n">
-        <v>1.125785021656048</v>
+        <v>1.124133527471628</v>
       </c>
       <c r="Q3" s="22" t="n">
-        <v>1.131121790242367</v>
+        <v>1.118541738815317</v>
       </c>
       <c r="R3" s="22" t="n">
-        <v>1.170277270125539</v>
+        <v>1.143428825418764</v>
       </c>
       <c r="S3" s="22" t="n">
-        <v>1.135874369589629</v>
+        <v>1.115846092738395</v>
       </c>
       <c r="T3" s="22" t="n">
-        <v>1.128453483485035</v>
+        <v>1.122358705683163</v>
       </c>
       <c r="U3" s="22" t="n">
-        <v>1.13116438715345</v>
+        <v>1.115273419819103</v>
       </c>
       <c r="V3" s="22" t="n">
-        <v>1.128453405949207</v>
+        <v>1.121337633143473</v>
       </c>
     </row>
     <row r="4">
@@ -6831,62 +6831,62 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.917557878032092</v>
+        <v>0.9300069171573517</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.923102385936831</v>
+        <v>0.9452138293072726</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.9405635909789347</v>
+        <v>0.9497109510054577</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.9365483756759824</v>
+        <v>0.9607759341726673</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.9179166088793804</v>
+        <v>0.932336739571741</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.9231878686339778</v>
+        <v>0.9462549804790187</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.9401859789093046</v>
+        <v>0.950058509761588</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.934748850461559</v>
+        <v>0.9603468964002402</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.9385516889768244</v>
+        <v>0.9552114000104297</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1.030996839919417</v>
+        <v>1.030917992198098</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>1.035675382769478</v>
+        <v>1.024008778240682</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>1.02842053903503</v>
+        <v>1.017821971208228</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>1.019737212444968</v>
+        <v>1.00800355331654</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>1.031780140608685</v>
+        <v>1.029724365872877</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>1.035271973460011</v>
+        <v>1.022430533520257</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>1.027387315198075</v>
+        <v>1.017152560870728</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>1.020120449317619</v>
+        <v>1.007322259570652</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>1.024078875739999</v>
+        <v>1.012912762262384</v>
       </c>
     </row>
     <row r="5">
@@ -6895,62 +6895,62 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.9459992726942524</v>
+        <v>0.9587608637662001</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.9560344168905459</v>
+        <v>0.9679072585251367</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.9672949152312795</v>
+        <v>0.9666366722304162</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.9550332299316892</v>
+        <v>0.9684655555870665</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.947088127776614</v>
+        <v>0.9600498579354967</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.9557505266350393</v>
+        <v>0.9674799845373637</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.9659351486585044</v>
+        <v>0.9663544461810266</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>0.9535564173319737</v>
+        <v>0.9673788056535532</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.9611249666341557</v>
+        <v>0.9675502496612913</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="22" t="n">
-        <v>1.018896757144603</v>
+        <v>1.015101606549769</v>
       </c>
       <c r="O5" s="22" t="n">
-        <v>1.011037447045325</v>
+        <v>1.010867143558269</v>
       </c>
       <c r="P5" s="22" t="n">
-        <v>1.01070647646969</v>
+        <v>1.011651580758865</v>
       </c>
       <c r="Q5" s="22" t="n">
-        <v>1.008740090642531</v>
+        <v>1.013818230725892</v>
       </c>
       <c r="R5" s="22" t="n">
-        <v>1.017893682847079</v>
+        <v>1.01436192088006</v>
       </c>
       <c r="S5" s="22" t="n">
-        <v>1.010937448830585</v>
+        <v>1.010972201586981</v>
       </c>
       <c r="T5" s="22" t="n">
-        <v>1.010434984055639</v>
+        <v>1.012207680802141</v>
       </c>
       <c r="U5" s="22" t="n">
-        <v>1.008924338598169</v>
+        <v>1.014965440624193</v>
       </c>
       <c r="V5" s="22" t="n">
-        <v>1.00972328355611</v>
+        <v>1.012734905742379</v>
       </c>
     </row>
     <row r="6">
@@ -6959,62 +6959,62 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.9638755912093268</v>
+        <v>0.9732396931061136</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.9665865961404834</v>
+        <v>0.9784256456546204</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.9776512354804539</v>
+        <v>0.9778995174813896</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.9633803069279212</v>
+        <v>0.9818480360842481</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.9640350223632828</v>
+        <v>0.9738380180360791</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.9662039991149146</v>
+        <v>0.9780953699590768</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.9760146665335376</v>
+        <v>0.9781513928017342</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>0.9620662776727007</v>
+        <v>0.9818560557306637</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.9704633095627093</v>
+        <v>0.9798697990258041</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1.008863757755893</v>
+        <v>1.008490695982383</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>1.009221538282555</v>
+        <v>1.00740513654294</v>
       </c>
       <c r="P6" s="22" t="n">
-        <v>1.008993358477573</v>
+        <v>1.008761543136318</v>
       </c>
       <c r="Q6" s="22" t="n">
-        <v>1.015421361243446</v>
+        <v>1.003698659129597</v>
       </c>
       <c r="R6" s="22" t="n">
-        <v>1.009128714099384</v>
+        <v>1.008339301712559</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>1.009485947043009</v>
+        <v>1.00757151374115</v>
       </c>
       <c r="T6" s="22" t="n">
-        <v>1.009882566105825</v>
+        <v>1.008481084098061</v>
       </c>
       <c r="U6" s="22" t="n">
-        <v>1.016513182858499</v>
+        <v>1.003554884041939</v>
       </c>
       <c r="V6" s="22" t="n">
-        <v>1.012207359860509</v>
+        <v>1.006230101132957</v>
       </c>
     </row>
     <row r="7">
@@ -7023,62 +7023,62 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.9724191509566243</v>
+        <v>0.9815031754582654</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.9755000114401975</v>
+        <v>0.9856710211578075</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.9864436035071718</v>
+        <v>0.9864674262867873</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.9782369426558786</v>
+        <v>0.9854795572867876</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.9728354224642305</v>
+        <v>0.981959147087642</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.9753693590832621</v>
+        <v>0.9855010324928772</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>0.9856601959958102</v>
+        <v>0.9864471770247216</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>0.9779530540379059</v>
+        <v>0.985346440154662</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.9823231330730745</v>
+        <v>0.9859732443447493</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="22" t="n">
-        <v>1.008142476548566</v>
+        <v>1.00494830245083</v>
       </c>
       <c r="O7" s="22" t="n">
-        <v>1.005647542417058</v>
+        <v>1.003877366201664</v>
       </c>
       <c r="P7" s="22" t="n">
-        <v>1.006314252992807</v>
+        <v>1.001178078214087</v>
       </c>
       <c r="Q7" s="22" t="n">
-        <v>1.01016745299408</v>
+        <v>1.000092192789833</v>
       </c>
       <c r="R7" s="22" t="n">
-        <v>1.008028935200943</v>
+        <v>1.004794151199118</v>
       </c>
       <c r="S7" s="22" t="n">
-        <v>1.005928490597461</v>
+        <v>1.003788975792642</v>
       </c>
       <c r="T7" s="22" t="n">
-        <v>1.006515065411434</v>
+        <v>1.00116901934631</v>
       </c>
       <c r="U7" s="22" t="n">
-        <v>1.009509788558937</v>
+        <v>1.000095946406192</v>
       </c>
       <c r="V7" s="22" t="n">
-        <v>1.008240852993444</v>
+        <v>1.00063513550196</v>
       </c>
     </row>
     <row r="8">
@@ -7087,62 +7087,62 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.9803370510886654</v>
+        <v>0.9863599500268828</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.9810091891326467</v>
+        <v>0.9894928286612047</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.9926722579828524</v>
+        <v>0.9876295620706018</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.9881831207874049</v>
+        <v>0.9855704113964968</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.9806462550323782</v>
+        <v>0.9866668077101372</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.9811518271576388</v>
+        <v>0.9892350720486166</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>0.9920818366461696</v>
+        <v>0.9876003528587761</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>0.9872531808023726</v>
+        <v>0.9854409806044492</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.9904226026046963</v>
+        <v>0.986598912310897</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="22" t="n">
-        <v>1.005222114460244</v>
+        <v>1.004469649337989</v>
       </c>
       <c r="O8" s="22" t="n">
-        <v>1.005440239168272</v>
+        <v>1.001719497705239</v>
       </c>
       <c r="P8" s="22" t="n">
-        <v>1.001088145233368</v>
+        <v>1.00084736488365</v>
       </c>
       <c r="Q8" s="22" t="n">
-        <v>1.002010693261166</v>
+        <v>1.00057483024093</v>
       </c>
       <c r="R8" s="22" t="n">
-        <v>1.005208414036823</v>
+        <v>1.00405638106458</v>
       </c>
       <c r="S8" s="22" t="n">
-        <v>1.005314964508602</v>
+        <v>1.001808703334343</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>1.001297413196118</v>
+        <v>1.000889033744865</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>1.002229942908076</v>
+        <v>1.000596110147352</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1.001549419247267</v>
+        <v>1.00071109756229</v>
       </c>
     </row>
     <row r="9">
@@ -7151,62 +7151,62 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.9854564833790689</v>
+        <v>0.9907686331245397</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.9863461137478007</v>
+        <v>0.9911942593094376</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.9937524295686732</v>
+        <v>0.9884664446795546</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.9901700539291699</v>
+        <v>0.9861369470735333</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.9857538667522467</v>
+        <v>0.9906691042659825</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.9863666142965316</v>
+        <v>0.99102430482188</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>0.9933689767126628</v>
+        <v>0.9884783628989086</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>0.9894546990313781</v>
+        <v>0.9860284119726043</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.9919580073949259</v>
+        <v>0.9873003217881778</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="22" t="n">
-        <v>1.003224788864878</v>
+        <v>1.001665640504714</v>
       </c>
       <c r="O9" s="22" t="n">
-        <v>1.001953610571535</v>
+        <v>1.001748156563586</v>
       </c>
       <c r="P9" s="22" t="n">
-        <v>1.001934626711803</v>
+        <v>1.001560789098142</v>
       </c>
       <c r="Q9" s="22" t="n">
-        <v>1.003054053932344</v>
+        <v>1.000113193288239</v>
       </c>
       <c r="R9" s="22" t="n">
-        <v>1.003124395301777</v>
+        <v>1.001668890701866</v>
       </c>
       <c r="S9" s="22" t="n">
-        <v>1.002126026045233</v>
+        <v>1.001737478277667</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>1.002176878363204</v>
+        <v>1.001494031378336</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>1.003298061988229</v>
+        <v>1.000117497144347</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1.002494340322074</v>
+        <v>1.00083699119319</v>
       </c>
     </row>
     <row r="10">
@@ -7215,62 +7215,62 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.9886343724734914</v>
+        <v>0.9924188974906718</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.9882730499428105</v>
+        <v>0.9929270220596377</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>0.9956749695638362</v>
+        <v>0.99000923233029</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.9931940866760615</v>
+        <v>0.9862485711572261</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.9888337515022355</v>
+        <v>0.992322422722718</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.9884636554086743</v>
+        <v>0.9927461880241477</v>
       </c>
       <c r="H10" s="34" t="n">
-        <v>0.9955314201447468</v>
+        <v>0.9899551805898862</v>
       </c>
       <c r="I10" s="34" t="n">
-        <v>0.9927179819633282</v>
+        <v>0.9861442674952557</v>
       </c>
       <c r="J10" s="34" t="n">
-        <v>0.9944329808134824</v>
+        <v>0.9881253236244374</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
         <v/>
       </c>
       <c r="N10" s="22" t="n">
-        <v>1.002263441110317</v>
+        <v>1.000509768770606</v>
       </c>
       <c r="O10" s="22" t="n">
-        <v>1.001574225131271</v>
+        <v>1.000509832480309</v>
       </c>
       <c r="P10" s="22" t="n">
-        <v>1.000642308895934</v>
+        <v>1.000352677387806</v>
       </c>
       <c r="Q10" s="22" t="n">
-        <v>1.001059602256708</v>
+        <v>1.000299677081604</v>
       </c>
       <c r="R10" s="22" t="n">
-        <v>1.001930776466841</v>
+        <v>1.000495147545759</v>
       </c>
       <c r="S10" s="22" t="n">
-        <v>1.00137735357494</v>
+        <v>1.000488127606124</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>1.000641308212742</v>
+        <v>1.000343824495547</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>1.00108104094651</v>
+        <v>1.000303945811263</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>1.000850955576321</v>
+        <v>1.000326177234705</v>
       </c>
     </row>
     <row r="11">
@@ -7279,62 +7279,62 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.9908720881552204</v>
+        <v>0.9929248016519717</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.989828814214588</v>
+        <v>0.9934332485060607</v>
       </c>
       <c r="D11" s="34" t="n">
-        <v>0.9963145004542454</v>
+        <v>0.9903583862002524</v>
       </c>
       <c r="E11" s="34" t="n">
-        <v>0.9942464773716529</v>
+        <v>0.9865441272507666</v>
       </c>
       <c r="F11" s="34" t="n">
-        <v>0.9907429684392544</v>
+        <v>0.992813768734931</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>0.9898251193581501</v>
+        <v>0.9932307748443967</v>
       </c>
       <c r="H11" s="34" t="n">
-        <v>0.9961698626205285</v>
+        <v>0.9902955514304668</v>
       </c>
       <c r="I11" s="34" t="n">
-        <v>0.9937911507501676</v>
+        <v>0.986444001914662</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>0.9952794146631477</v>
+        <v>0.988447577087481</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
         <v/>
       </c>
       <c r="N11" s="22" t="n">
-        <v>1.004328932335202</v>
+        <v>1.003208269768124</v>
       </c>
       <c r="O11" s="22" t="n">
-        <v>1.005134678035375</v>
+        <v>1.002642949382573</v>
       </c>
       <c r="P11" s="22" t="n">
-        <v>1.002591338931091</v>
+        <v>1.004258492248916</v>
       </c>
       <c r="Q11" s="22" t="n">
-        <v>1.004166462751076</v>
+        <v>1.003610027085134</v>
       </c>
       <c r="R11" s="22" t="n">
-        <v>1.004568511200544</v>
+        <v>1.003106700074835</v>
       </c>
       <c r="S11" s="22" t="n">
-        <v>1.005309070913654</v>
+        <v>1.002647137113553</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>1.002704743266433</v>
+        <v>1.00393385075745</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>1.004592227168085</v>
+        <v>1.003442940649277</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>1.003378900841084</v>
+        <v>1.003934259667025</v>
       </c>
     </row>
     <row r="12">
@@ -7343,62 +7343,62 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.995161506377685</v>
+        <v>0.9961103722751322</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.9949112664857171</v>
+        <v>0.9960588422968272</v>
       </c>
       <c r="D12" s="34" t="n">
-        <v>0.9988962890068834</v>
+        <v>0.9945758197115347</v>
       </c>
       <c r="E12" s="34" t="n">
-        <v>0.9983889682850108</v>
+        <v>0.9901055782708217</v>
       </c>
       <c r="F12" s="34" t="n">
-        <v>0.9952691887874293</v>
+        <v>0.9958981433445573</v>
       </c>
       <c r="G12" s="34" t="n">
-        <v>0.9950801711089384</v>
+        <v>0.9958599928908102</v>
       </c>
       <c r="H12" s="34" t="n">
-        <v>0.998864246348675</v>
+        <v>0.9941912263355605</v>
       </c>
       <c r="I12" s="34" t="n">
-        <v>0.9983548654720453</v>
+        <v>0.9898402700670899</v>
       </c>
       <c r="J12" s="34" t="n">
-        <v>0.9986425642149117</v>
+        <v>0.9923356646671404</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
         <v/>
       </c>
       <c r="N12" s="22" t="n">
-        <v>1.003093406991346</v>
+        <v>1.00071283025237</v>
       </c>
       <c r="O12" s="22" t="n">
-        <v>1.003345704853733</v>
+        <v>1.000764600999481</v>
       </c>
       <c r="P12" s="22" t="n">
-        <v>1.00048123661544</v>
+        <v>1.000302282082476</v>
       </c>
       <c r="Q12" s="22" t="n">
-        <v>1.000636851066422</v>
+        <v>1.000512393166526</v>
       </c>
       <c r="R12" s="22" t="n">
-        <v>1.003042839681625</v>
+        <v>1.000664244862472</v>
       </c>
       <c r="S12" s="22" t="n">
-        <v>1.003233369886616</v>
+        <v>1.000702579362565</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>1.000478003994665</v>
+        <v>1.000301060965815</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>1.000646771209141</v>
+        <v>1.00047693451907</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>1.000559043840931</v>
+        <v>1.000407337624501</v>
       </c>
     </row>
     <row r="13">
@@ -7407,62 +7407,62 @@
         <v/>
       </c>
       <c r="B13" s="34" t="n">
-        <v>0.9982399459390322</v>
+        <v>0.9968204298831893</v>
       </c>
       <c r="C13" s="34" t="n">
-        <v>0.9982399459390322</v>
+        <v>0.9968204298831893</v>
       </c>
       <c r="D13" s="34" t="n">
-        <v>0.9993769944761807</v>
+        <v>0.9948764621614975</v>
       </c>
       <c r="E13" s="34" t="n">
-        <v>0.9990247933641668</v>
+        <v>0.9906129016032665</v>
       </c>
       <c r="F13" s="34" t="n">
-        <v>0.9982976333689703</v>
+        <v>0.9965596635698188</v>
       </c>
       <c r="G13" s="34" t="n">
-        <v>0.9982976333689703</v>
+        <v>0.9965596635698188</v>
       </c>
       <c r="H13" s="34" t="n">
-        <v>0.9993417074485579</v>
+        <v>0.9944905385063658</v>
       </c>
       <c r="I13" s="34" t="n">
-        <v>0.9990005726555381</v>
+        <v>0.9903123590602505</v>
       </c>
       <c r="J13" s="34" t="n">
-        <v>0.9992008628839667</v>
+        <v>0.9927401041825552</v>
       </c>
       <c r="M13">
         <f>+M12+1</f>
         <v/>
       </c>
       <c r="N13" s="22" t="n">
-        <v>1.000965529243405</v>
+        <v>1.001423959052377</v>
       </c>
       <c r="O13" s="22" t="n">
-        <v>1.000965529243405</v>
+        <v>1.001423959052377</v>
       </c>
       <c r="P13" s="22" t="n">
-        <v>1.000377073402127</v>
+        <v>1.002563299505413</v>
       </c>
       <c r="Q13" s="22" t="n">
-        <v>1.000690130317919</v>
+        <v>1.005331079067393</v>
       </c>
       <c r="R13" s="22" t="n">
-        <v>1.001021420855853</v>
+        <v>1.001785757313057</v>
       </c>
       <c r="S13" s="22" t="n">
-        <v>1.001021420855853</v>
+        <v>1.001785757313057</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>1.00040035601801</v>
+        <v>1.003190563546405</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>1.00070628842729</v>
+        <v>1.005971878352834</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>1.000533601860023</v>
+        <v>1.003947189286403</v>
       </c>
     </row>
     <row r="14">
@@ -7471,62 +7471,62 @@
         <v/>
       </c>
       <c r="B14" s="34" t="n">
-        <v>0.999203775798771</v>
+        <v>0.9982398613579153</v>
       </c>
       <c r="C14" s="34" t="n">
-        <v>0.999203775798771</v>
+        <v>0.9982398613579153</v>
       </c>
       <c r="D14" s="34" t="n">
-        <v>0.9997538329594955</v>
+        <v>0.9974266285049026</v>
       </c>
       <c r="E14" s="34" t="n">
-        <v>0.9997142506624206</v>
+        <v>0.9958939373068931</v>
       </c>
       <c r="F14" s="34" t="n">
-        <v>0.9993173153920417</v>
+        <v>0.9983392772769366</v>
       </c>
       <c r="G14" s="34" t="n">
-        <v>0.9993173153920417</v>
+        <v>0.9983392772769366</v>
       </c>
       <c r="H14" s="34" t="n">
-        <v>0.9997417999151832</v>
+        <v>0.9976635237657691</v>
       </c>
       <c r="I14" s="34" t="n">
-        <v>0.9997061551988611</v>
+        <v>0.9962263839998664</v>
       </c>
       <c r="J14" s="34" t="n">
-        <v>0.9997340414191642</v>
+        <v>0.9966596936523806</v>
       </c>
       <c r="M14">
         <f>+M13+1</f>
         <v/>
       </c>
       <c r="N14" s="22" t="n">
-        <v>1.000711010387025</v>
+        <v>1.000146449928482</v>
       </c>
       <c r="O14" s="22" t="n">
-        <v>1.000711010387025</v>
+        <v>1.000146449928482</v>
       </c>
       <c r="P14" s="22" t="n">
-        <v>1.000209742043998</v>
+        <v>1.000090296956033</v>
       </c>
       <c r="Q14" s="22" t="n">
-        <v>1.000205729089982</v>
+        <v>1.00012456345658</v>
       </c>
       <c r="R14" s="22" t="n">
-        <v>1.000605287317985</v>
+        <v>1.000150024732893</v>
       </c>
       <c r="S14" s="22" t="n">
-        <v>1.000605287317985</v>
+        <v>1.000150024732893</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>1.000218632244153</v>
+        <v>1.000093942492399</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>1.000214662435569</v>
+        <v>1.000112781181169</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>1.00020773556699</v>
+        <v>1.000107430206307</v>
       </c>
     </row>
     <row r="15">
@@ -7535,62 +7535,62 @@
         <v/>
       </c>
       <c r="B15" s="34" t="n">
-        <v>0.9999142200621186</v>
+        <v>0.9983860535142189</v>
       </c>
       <c r="C15" s="34" t="n">
-        <v>0.9999142200621186</v>
+        <v>0.9983860535142189</v>
       </c>
       <c r="D15" s="34" t="n">
-        <v>0.9999635233719153</v>
+        <v>0.9975166930933234</v>
       </c>
       <c r="E15" s="34" t="n">
-        <v>0.9999199209654517</v>
+        <v>0.996017989298111</v>
       </c>
       <c r="F15" s="34" t="n">
-        <v>0.9999221894896914</v>
+        <v>0.9984890528603467</v>
       </c>
       <c r="G15" s="34" t="n">
-        <v>0.9999221894896914</v>
+        <v>0.9984890528603467</v>
       </c>
       <c r="H15" s="34" t="n">
-        <v>0.9999603757084723</v>
+        <v>0.9977572467637669</v>
       </c>
       <c r="I15" s="34" t="n">
-        <v>0.9999207545569889</v>
+        <v>0.9963387395881657</v>
       </c>
       <c r="J15" s="34" t="n">
-        <v>0.9999417216933634</v>
+        <v>0.9967667778463344</v>
       </c>
       <c r="M15">
         <f>+M14+1</f>
         <v/>
       </c>
       <c r="N15" s="22" t="n">
-        <v>1.000034870218611</v>
+        <v>1.000023542122621</v>
       </c>
       <c r="O15" s="22" t="n">
-        <v>1.000034870218611</v>
+        <v>1.000023542122621</v>
       </c>
       <c r="P15" s="22" t="n">
-        <v>1.000036477958678</v>
+        <v>1.000012758061559</v>
       </c>
       <c r="Q15" s="22" t="n">
-        <v>1.000080085447714</v>
+        <v>1</v>
       </c>
       <c r="R15" s="22" t="n">
-        <v>1.000035615965594</v>
+        <v>1.00002377866867</v>
       </c>
       <c r="S15" s="22" t="n">
-        <v>1.000035615965594</v>
+        <v>1.00002377866867</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>1.000039625861674</v>
+        <v>1.00001363481692</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>1.000079251723349</v>
+        <v>1</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>1.000058281703196</v>
+        <v>1.00000637903078</v>
       </c>
     </row>
     <row r="16">
@@ -7599,62 +7599,62 @@
         <v/>
       </c>
       <c r="B16" s="34" t="n">
-        <v>0.9999490872895648</v>
+        <v>0.9984095576411136</v>
       </c>
       <c r="C16" s="34" t="n">
-        <v>0.9999490872895648</v>
+        <v>0.9984095576411136</v>
       </c>
       <c r="D16" s="34" t="n">
-        <v>1</v>
+        <v>0.9975294194727002</v>
       </c>
       <c r="E16" s="34" t="n">
-        <v>1</v>
+        <v>0.996017989298111</v>
       </c>
       <c r="F16" s="34" t="n">
-        <v>0.9999578026839885</v>
+        <v>0.9985127956007054</v>
       </c>
       <c r="G16" s="34" t="n">
-        <v>0.9999578026839885</v>
+        <v>0.9985127956007054</v>
       </c>
       <c r="H16" s="34" t="n">
-        <v>1</v>
+        <v>0.9977708510011571</v>
       </c>
       <c r="I16" s="34" t="n">
-        <v>1</v>
+        <v>0.9963387395881657</v>
       </c>
       <c r="J16" s="34" t="n">
-        <v>1</v>
+        <v>0.996773131431594</v>
       </c>
       <c r="M16">
         <f>+M15+1</f>
         <v/>
       </c>
       <c r="N16" s="22" t="n">
-        <v>1.000050915302671</v>
+        <v>1.001592975895227</v>
       </c>
       <c r="O16" s="22" t="n">
-        <v>1.000050915302671</v>
+        <v>1.001592975895227</v>
       </c>
       <c r="P16" s="22" t="n">
-        <v>1</v>
+        <v>1.002476699412641</v>
       </c>
       <c r="Q16" s="22" t="n">
-        <v>1</v>
+        <v>1.003997930503941</v>
       </c>
       <c r="R16" s="22" t="n">
-        <v>1.0000421990967</v>
+        <v>1.001489419470484</v>
       </c>
       <c r="S16" s="22" t="n">
-        <v>1.0000421990967</v>
+        <v>1.001489419470484</v>
       </c>
       <c r="T16" s="22" t="n">
-        <v>1</v>
+        <v>1.002234129205725</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>1</v>
+        <v>1.003674714498553</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>1</v>
+        <v>1.003237314958291</v>
       </c>
     </row>
     <row r="17">
@@ -8234,7 +8234,7 @@
         </is>
       </c>
       <c r="H4" s="8" t="n">
-        <v>45657</v>
+        <v>45808</v>
       </c>
       <c r="J4" s="40" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v>181194.31</v>
+        <v>145690.33</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8582,7 +8582,7 @@
         <v/>
       </c>
       <c r="I8" s="14" t="n">
-        <v>161661.0216666667</v>
+        <v>143763.3941666667</v>
       </c>
       <c r="J8" s="14">
         <f>100*$G8/$I8</f>
@@ -8605,76 +8605,76 @@
         <v/>
       </c>
       <c r="S8" s="22" t="n">
-        <v>17868.02</v>
+        <v>20066.04</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>131817.62</v>
+        <v>117598.31</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>170116.95</v>
+        <v>133840.01</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>174104.45</v>
+        <v>135145.97</v>
       </c>
       <c r="W8" s="22" t="n">
-        <v>175083.57</v>
+        <v>140424.18</v>
       </c>
       <c r="X8" s="22" t="n">
-        <v>176878.84</v>
+        <v>140841.92</v>
       </c>
       <c r="Y8" s="22" t="n">
-        <v>177097.42</v>
+        <v>142088.15</v>
       </c>
       <c r="Z8" s="22" t="n">
-        <v>177381.63</v>
+        <v>143830.11</v>
       </c>
       <c r="AA8" s="22" t="n">
-        <v>178647.53</v>
+        <v>143943.64</v>
       </c>
       <c r="AB8" s="22" t="n">
-        <v>180147.54</v>
+        <v>143943.64</v>
       </c>
       <c r="AC8" s="22" t="n">
-        <v>180164.05</v>
+        <v>145619.52</v>
       </c>
       <c r="AD8" s="22" t="n">
-        <v>180300.34</v>
+        <v>145649.26</v>
       </c>
       <c r="AE8" s="22" t="n">
-        <v>180363.22</v>
+        <v>145690.33</v>
       </c>
       <c r="AF8" s="22" t="n">
-        <v>181125.52</v>
+        <v>145690.33</v>
       </c>
       <c r="AG8" s="22" t="n">
-        <v>181125.52</v>
+        <v>145690.33</v>
       </c>
       <c r="AH8" s="22" t="n">
-        <v>181194.31</v>
+        <v>145690.33</v>
       </c>
       <c r="AI8" s="22" t="n">
-        <v>181194.31</v>
+        <v>145690.33</v>
       </c>
       <c r="AJ8" s="22" t="n">
-        <v>181194.31</v>
+        <v>145690.33</v>
       </c>
       <c r="AK8" s="22" t="n">
-        <v>181194.31</v>
+        <v>145690.33</v>
       </c>
       <c r="AL8" s="22" t="n">
-        <v>181194.31</v>
+        <v>145690.33</v>
       </c>
       <c r="AM8" s="22" t="n">
-        <v>181194.31</v>
+        <v>145690.33</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v>181194.31</v>
+        <v>145690.33</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v>181194.31</v>
+        <v>145690.33</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v>181194.31</v>
+        <v>145690.33</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -8685,7 +8685,7 @@
         <v/>
       </c>
       <c r="B9" s="14" t="n">
-        <v>136353.62</v>
+        <v>140082.3300000001</v>
       </c>
       <c r="C9" s="14">
         <f>+'Completion Factors'!J29</f>
@@ -8709,7 +8709,7 @@
         <v/>
       </c>
       <c r="I9" s="14" t="n">
-        <v>154975.5508333333</v>
+        <v>146003.0475</v>
       </c>
       <c r="J9" s="14">
         <f>100*$G9/$I9</f>
@@ -8732,73 +8732,73 @@
         <v/>
       </c>
       <c r="S9" s="22" t="n">
-        <v>15146.67</v>
+        <v>13126.29</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>109132.73</v>
+        <v>107790.95</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>127651.88</v>
+        <v>124825.97</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>129060.53</v>
+        <v>128047.06</v>
       </c>
       <c r="W9" s="22" t="n">
-        <v>132127.63</v>
+        <v>132279.27</v>
       </c>
       <c r="X9" s="22" t="n">
-        <v>133609.24</v>
+        <v>134740.34</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v>133722.13</v>
+        <v>135644</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>135071.73</v>
+        <v>139003.39</v>
       </c>
       <c r="AA9" s="22" t="n">
-        <v>135105.97</v>
+        <v>139389.3400000001</v>
       </c>
       <c r="AB9" s="22" t="n">
-        <v>135132.8</v>
+        <v>139461.4700000001</v>
       </c>
       <c r="AC9" s="22" t="n">
-        <v>135154.24</v>
+        <v>139473.4000000001</v>
       </c>
       <c r="AD9" s="22" t="n">
-        <v>135204.28</v>
+        <v>140042.6600000001</v>
       </c>
       <c r="AE9" s="22" t="n">
-        <v>136353.62</v>
+        <v>140082.3300000001</v>
       </c>
       <c r="AF9" s="22" t="n">
-        <v>136353.62</v>
+        <v>140082.3300000001</v>
       </c>
       <c r="AG9" s="22" t="n">
-        <v>136353.62</v>
+        <v>140082.3300000001</v>
       </c>
       <c r="AH9" s="22" t="n">
-        <v>136353.62</v>
+        <v>140082.3300000001</v>
       </c>
       <c r="AI9" s="22" t="n">
-        <v>136353.62</v>
+        <v>140082.3300000001</v>
       </c>
       <c r="AJ9" s="22" t="n">
-        <v>136353.62</v>
+        <v>140082.3300000001</v>
       </c>
       <c r="AK9" s="22" t="n">
-        <v>136353.62</v>
+        <v>140082.3300000001</v>
       </c>
       <c r="AL9" s="22" t="n">
-        <v>136353.62</v>
+        <v>140082.3300000001</v>
       </c>
       <c r="AM9" s="22" t="n">
-        <v>136353.62</v>
+        <v>140082.3300000001</v>
       </c>
       <c r="AN9" s="22" t="n">
-        <v>136353.62</v>
+        <v>140082.3300000001</v>
       </c>
       <c r="AO9" s="22" t="n">
-        <v>136353.62</v>
+        <v>140082.3300000001</v>
       </c>
       <c r="AP9" s="22" t="n">
         <v/>
@@ -8812,7 +8812,7 @@
         <v/>
       </c>
       <c r="B10" s="14" t="n">
-        <v>175689.82</v>
+        <v>134014.34</v>
       </c>
       <c r="C10" s="14">
         <f>+'Completion Factors'!J28</f>
@@ -8836,7 +8836,7 @@
         <v/>
       </c>
       <c r="I10" s="14" t="n">
-        <v>148037.285</v>
+        <v>146622.8866666667</v>
       </c>
       <c r="J10" s="14">
         <f>100*$G10/$I10</f>
@@ -8859,70 +8859,70 @@
         <v/>
       </c>
       <c r="S10" s="22" t="n">
-        <v>29744.41</v>
+        <v>25423.4</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>118187.86</v>
+        <v>95324.26999999999</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>154158.77</v>
+        <v>116697.47</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>157798.88</v>
+        <v>126072.43</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v>167214.98</v>
+        <v>129405.33</v>
       </c>
       <c r="X10" s="22" t="n">
-        <v>168096.97</v>
+        <v>132387.28</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>171158.53</v>
+        <v>132683.18</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>171972.94</v>
+        <v>132852.99</v>
       </c>
       <c r="AA10" s="22" t="n">
-        <v>173621.86</v>
+        <v>133138.76</v>
       </c>
       <c r="AB10" s="22" t="n">
-        <v>174288.28</v>
+        <v>133278.85</v>
       </c>
       <c r="AC10" s="22" t="n">
-        <v>174321.27</v>
+        <v>133866.8</v>
       </c>
       <c r="AD10" s="22" t="n">
-        <v>175487.27</v>
+        <v>133904</v>
       </c>
       <c r="AE10" s="22" t="n">
-        <v>175487.27</v>
+        <v>133904</v>
       </c>
       <c r="AF10" s="22" t="n">
-        <v>175669.02</v>
+        <v>133993.44</v>
       </c>
       <c r="AG10" s="22" t="n">
-        <v>175689.82</v>
+        <v>134014.34</v>
       </c>
       <c r="AH10" s="22" t="n">
-        <v>175689.82</v>
+        <v>134014.34</v>
       </c>
       <c r="AI10" s="22" t="n">
-        <v>175689.82</v>
+        <v>134014.34</v>
       </c>
       <c r="AJ10" s="22" t="n">
-        <v>175689.82</v>
+        <v>134014.34</v>
       </c>
       <c r="AK10" s="22" t="n">
-        <v>175689.82</v>
+        <v>134014.34</v>
       </c>
       <c r="AL10" s="22" t="n">
-        <v>175689.82</v>
+        <v>134014.34</v>
       </c>
       <c r="AM10" s="22" t="n">
-        <v>175689.82</v>
+        <v>134014.34</v>
       </c>
       <c r="AN10" s="22" t="n">
-        <v>175689.82</v>
+        <v>134014.34</v>
       </c>
       <c r="AO10" s="22" t="n">
         <v/>
@@ -8939,7 +8939,7 @@
         <v/>
       </c>
       <c r="B11" s="14" t="n">
-        <v>141685.06</v>
+        <v>129422.43</v>
       </c>
       <c r="C11" s="14">
         <f>+'Completion Factors'!J27</f>
@@ -8963,7 +8963,7 @@
         <v/>
       </c>
       <c r="I11" s="14" t="n">
-        <v>146051.985</v>
+        <v>146738.5158333333</v>
       </c>
       <c r="J11" s="14">
         <f>100*$G11/$I11</f>
@@ -8986,67 +8986,67 @@
         <v/>
       </c>
       <c r="S11" s="22" t="n">
-        <v>8029.71</v>
+        <v>9112.969999999999</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>105617.93</v>
+        <v>93938.06</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>122362.67</v>
+        <v>125088.64</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>125179.49</v>
+        <v>127331.75</v>
       </c>
       <c r="W11" s="22" t="n">
-        <v>128724.9</v>
+        <v>128151.44</v>
       </c>
       <c r="X11" s="22" t="n">
-        <v>129328.58</v>
+        <v>128543.61</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>132743.09</v>
+        <v>128834.79</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>133024.44</v>
+        <v>129201.01</v>
       </c>
       <c r="AA11" s="22" t="n">
-        <v>134022.08</v>
+        <v>129218.53</v>
       </c>
       <c r="AB11" s="22" t="n">
-        <v>134083.5600000001</v>
+        <v>129277.86</v>
       </c>
       <c r="AC11" s="22" t="n">
-        <v>138203.9600000001</v>
+        <v>129338.37</v>
       </c>
       <c r="AD11" s="22" t="n">
-        <v>141602.07</v>
+        <v>129422.43</v>
       </c>
       <c r="AE11" s="22" t="n">
-        <v>141673.13</v>
+        <v>129422.43</v>
       </c>
       <c r="AF11" s="22" t="n">
-        <v>141685.06</v>
+        <v>129422.43</v>
       </c>
       <c r="AG11" s="22" t="n">
-        <v>141685.06</v>
+        <v>129422.43</v>
       </c>
       <c r="AH11" s="22" t="n">
-        <v>141685.06</v>
+        <v>129422.43</v>
       </c>
       <c r="AI11" s="22" t="n">
-        <v>141685.06</v>
+        <v>129422.43</v>
       </c>
       <c r="AJ11" s="22" t="n">
-        <v>141685.06</v>
+        <v>129422.43</v>
       </c>
       <c r="AK11" s="22" t="n">
-        <v>141685.06</v>
+        <v>129422.43</v>
       </c>
       <c r="AL11" s="22" t="n">
-        <v>141685.06</v>
+        <v>129422.43</v>
       </c>
       <c r="AM11" s="22" t="n">
-        <v>141685.06</v>
+        <v>129422.43</v>
       </c>
       <c r="AN11" s="22" t="n">
         <v/>
@@ -9066,7 +9066,7 @@
         <v/>
       </c>
       <c r="B12" s="14" t="n">
-        <v>166967.85</v>
+        <v>115278.06</v>
       </c>
       <c r="C12" s="14">
         <f>++'Completion Factors'!J26</f>
@@ -9090,7 +9090,7 @@
         <v/>
       </c>
       <c r="I12" s="14" t="n">
-        <v>143947.9166666667</v>
+        <v>144800.61</v>
       </c>
       <c r="J12" s="14">
         <f>100*$G12/$I12</f>
@@ -9113,64 +9113,64 @@
         <v/>
       </c>
       <c r="S12" s="22" t="n">
-        <v>19033.93</v>
+        <v>17461.78</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>124534.29</v>
+        <v>92166.72</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>153831.01</v>
+        <v>101871.88</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>158323.08</v>
+        <v>108735.86</v>
       </c>
       <c r="W12" s="22" t="n">
-        <v>160017.65</v>
+        <v>111650.19</v>
       </c>
       <c r="X12" s="22" t="n">
-        <v>161074.2</v>
+        <v>112005.91</v>
       </c>
       <c r="Y12" s="22" t="n">
-        <v>163946.95</v>
+        <v>113773.5</v>
       </c>
       <c r="Z12" s="22" t="n">
-        <v>164961.51</v>
+        <v>114468.17</v>
       </c>
       <c r="AA12" s="22" t="n">
-        <v>165176.73</v>
+        <v>115074.2</v>
       </c>
       <c r="AB12" s="22" t="n">
-        <v>166860.39</v>
+        <v>115074.2</v>
       </c>
       <c r="AC12" s="22" t="n">
-        <v>166930.86</v>
+        <v>115089.27</v>
       </c>
       <c r="AD12" s="22" t="n">
-        <v>166930.86</v>
+        <v>115089.27</v>
       </c>
       <c r="AE12" s="22" t="n">
-        <v>166967.85</v>
+        <v>115220.39</v>
       </c>
       <c r="AF12" s="22" t="n">
-        <v>166967.85</v>
+        <v>115268.63</v>
       </c>
       <c r="AG12" s="22" t="n">
-        <v>166967.85</v>
+        <v>115278.06</v>
       </c>
       <c r="AH12" s="22" t="n">
-        <v>166967.85</v>
+        <v>115278.06</v>
       </c>
       <c r="AI12" s="22" t="n">
-        <v>166967.85</v>
+        <v>115278.06</v>
       </c>
       <c r="AJ12" s="22" t="n">
-        <v>166967.85</v>
+        <v>115278.06</v>
       </c>
       <c r="AK12" s="22" t="n">
-        <v>166967.85</v>
+        <v>115278.06</v>
       </c>
       <c r="AL12" s="22" t="n">
-        <v>166967.85</v>
+        <v>115278.06</v>
       </c>
       <c r="AM12" s="22" t="n">
         <v/>
@@ -9193,7 +9193,7 @@
         <v/>
       </c>
       <c r="B13" s="14" t="n">
-        <v>145690.33</v>
+        <v>107108.37</v>
       </c>
       <c r="C13" s="14">
         <f>++'Completion Factors'!J25</f>
@@ -9217,7 +9217,7 @@
         <v/>
       </c>
       <c r="I13" s="14" t="n">
-        <v>143763.3941666667</v>
+        <v>141149.4075</v>
       </c>
       <c r="J13" s="14">
         <f>100*$G13/$I13</f>
@@ -9240,61 +9240,61 @@
         <v/>
       </c>
       <c r="S13" s="22" t="n">
-        <v>20066.04</v>
+        <v>13761.46</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>117598.31</v>
+        <v>83365.13</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>133840.01</v>
+        <v>101054.13</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>135145.97</v>
+        <v>104050.6</v>
       </c>
       <c r="W13" s="22" t="n">
-        <v>140424.18</v>
+        <v>104382.54</v>
       </c>
       <c r="X13" s="22" t="n">
-        <v>140841.92</v>
+        <v>104854.36</v>
       </c>
       <c r="Y13" s="22" t="n">
-        <v>142088.15</v>
+        <v>105377.62</v>
       </c>
       <c r="Z13" s="22" t="n">
-        <v>143830.11</v>
+        <v>106298.78</v>
       </c>
       <c r="AA13" s="22" t="n">
-        <v>143943.64</v>
+        <v>106462.86</v>
       </c>
       <c r="AB13" s="22" t="n">
-        <v>143943.64</v>
+        <v>106498.86</v>
       </c>
       <c r="AC13" s="22" t="n">
-        <v>145619.52</v>
+        <v>106696.18</v>
       </c>
       <c r="AD13" s="22" t="n">
-        <v>145649.26</v>
+        <v>106767.87</v>
       </c>
       <c r="AE13" s="22" t="n">
-        <v>145690.33</v>
+        <v>106829.92</v>
       </c>
       <c r="AF13" s="22" t="n">
-        <v>145690.33</v>
+        <v>106853.99</v>
       </c>
       <c r="AG13" s="22" t="n">
-        <v>145690.33</v>
+        <v>106853.99</v>
       </c>
       <c r="AH13" s="22" t="n">
-        <v>145690.33</v>
+        <v>107108.37</v>
       </c>
       <c r="AI13" s="22" t="n">
-        <v>145690.33</v>
+        <v>107108.37</v>
       </c>
       <c r="AJ13" s="22" t="n">
-        <v>145690.33</v>
+        <v>107108.37</v>
       </c>
       <c r="AK13" s="22" t="n">
-        <v>145690.33</v>
+        <v>107108.37</v>
       </c>
       <c r="AL13" s="22" t="n">
         <v/>
@@ -9320,7 +9320,7 @@
         <v/>
       </c>
       <c r="B14" s="14" t="n">
-        <v>140082.3300000001</v>
+        <v>137351.59</v>
       </c>
       <c r="C14" s="14">
         <f>++'Completion Factors'!J24</f>
@@ -9344,7 +9344,7 @@
         <v/>
       </c>
       <c r="I14" s="14" t="n">
-        <v>146003.0475</v>
+        <v>134899.9383333333</v>
       </c>
       <c r="J14" s="14">
         <f>100*$G14/$I14</f>
@@ -9367,58 +9367,58 @@
         <v/>
       </c>
       <c r="S14" s="22" t="n">
-        <v>13126.29</v>
+        <v>14582.6</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>107790.95</v>
+        <v>117750.8</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>124825.97</v>
+        <v>130451.11</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>128047.06</v>
+        <v>133897.72</v>
       </c>
       <c r="W14" s="22" t="n">
-        <v>132279.27</v>
+        <v>135146.13</v>
       </c>
       <c r="X14" s="22" t="n">
-        <v>134740.34</v>
+        <v>136794.75</v>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>135644</v>
+        <v>136804.81</v>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>139003.39</v>
+        <v>136891.21</v>
       </c>
       <c r="AA14" s="22" t="n">
-        <v>139389.3400000001</v>
+        <v>137044.85</v>
       </c>
       <c r="AB14" s="22" t="n">
-        <v>139461.4700000001</v>
+        <v>137081.39</v>
       </c>
       <c r="AC14" s="22" t="n">
-        <v>139473.4000000001</v>
+        <v>137167.48</v>
       </c>
       <c r="AD14" s="22" t="n">
-        <v>140042.6600000001</v>
+        <v>137296.88</v>
       </c>
       <c r="AE14" s="22" t="n">
-        <v>140082.3300000001</v>
+        <v>137351.59</v>
       </c>
       <c r="AF14" s="22" t="n">
-        <v>140082.3300000001</v>
+        <v>137351.59</v>
       </c>
       <c r="AG14" s="22" t="n">
-        <v>140082.3300000001</v>
+        <v>137351.59</v>
       </c>
       <c r="AH14" s="22" t="n">
-        <v>140082.3300000001</v>
+        <v>137351.59</v>
       </c>
       <c r="AI14" s="22" t="n">
-        <v>140082.3300000001</v>
+        <v>137351.59</v>
       </c>
       <c r="AJ14" s="22" t="n">
-        <v>140082.3300000001</v>
+        <v>137351.59</v>
       </c>
       <c r="AK14" s="22" t="n">
         <v/>
@@ -9447,7 +9447,7 @@
         <v/>
       </c>
       <c r="B15" s="14" t="n">
-        <v>134041.42</v>
+        <v>148545.43</v>
       </c>
       <c r="C15" s="14">
         <f>++'Completion Factors'!J23</f>
@@ -9471,7 +9471,7 @@
         <v/>
       </c>
       <c r="I15" s="14" t="n">
-        <v>146622.8866666667</v>
+        <v>132542.0908333334</v>
       </c>
       <c r="J15" s="14">
         <f>100*$G15/$I15</f>
@@ -9494,55 +9494,55 @@
         <v/>
       </c>
       <c r="S15" s="22" t="n">
-        <v>25450.48</v>
+        <v>20734.22</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>95351.34999999999</v>
+        <v>121574.2</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>116724.55</v>
+        <v>141713.53</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>126099.51</v>
+        <v>143557.55</v>
       </c>
       <c r="W15" s="22" t="n">
-        <v>129432.41</v>
+        <v>145176.14</v>
       </c>
       <c r="X15" s="22" t="n">
-        <v>132414.36</v>
+        <v>146415.16</v>
       </c>
       <c r="Y15" s="22" t="n">
-        <v>132710.26</v>
+        <v>146569.38</v>
       </c>
       <c r="Z15" s="22" t="n">
-        <v>132880.07</v>
+        <v>146601.12</v>
       </c>
       <c r="AA15" s="22" t="n">
-        <v>133165.84</v>
+        <v>146674.62</v>
       </c>
       <c r="AB15" s="22" t="n">
-        <v>133305.93</v>
+        <v>146764</v>
       </c>
       <c r="AC15" s="22" t="n">
-        <v>133893.88</v>
+        <v>146862.52</v>
       </c>
       <c r="AD15" s="22" t="n">
-        <v>133931.08</v>
+        <v>146910.28</v>
       </c>
       <c r="AE15" s="22" t="n">
-        <v>133931.08</v>
+        <v>146925.7</v>
       </c>
       <c r="AF15" s="22" t="n">
-        <v>134020.52</v>
+        <v>146925.7</v>
       </c>
       <c r="AG15" s="22" t="n">
-        <v>134041.42</v>
+        <v>146925.7</v>
       </c>
       <c r="AH15" s="22" t="n">
-        <v>134041.42</v>
+        <v>148545.43</v>
       </c>
       <c r="AI15" s="22" t="n">
-        <v>134041.42</v>
+        <v>148545.43</v>
       </c>
       <c r="AJ15" s="22" t="n">
         <v/>
@@ -9574,7 +9574,7 @@
         <v/>
       </c>
       <c r="B16" s="14" t="n">
-        <v>129431.34</v>
+        <v>120864.82</v>
       </c>
       <c r="C16" s="14">
         <f>++'Completion Factors'!J22</f>
@@ -9598,7 +9598,7 @@
         <v/>
       </c>
       <c r="I16" s="14" t="n">
-        <v>146738.5158333333</v>
+        <v>129006.9441666667</v>
       </c>
       <c r="J16" s="14">
         <f>100*$G16/$I16</f>
@@ -9621,52 +9621,52 @@
         <v/>
       </c>
       <c r="S16" s="22" t="n">
-        <v>9112.969999999999</v>
+        <v>12112.64</v>
       </c>
       <c r="T16" s="22" t="n">
-        <v>93943.89</v>
+        <v>87657.81</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>125097.55</v>
+        <v>106574.9</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>127340.66</v>
+        <v>115607.29</v>
       </c>
       <c r="W16" s="22" t="n">
-        <v>128160.35</v>
+        <v>116959.95</v>
       </c>
       <c r="X16" s="22" t="n">
-        <v>128552.52</v>
+        <v>117770.78</v>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>128843.7</v>
+        <v>118857.94</v>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>129209.92</v>
+        <v>118887.47</v>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>129227.44</v>
+        <v>118979.52</v>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>129286.77</v>
+        <v>119231.91</v>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>129347.28</v>
+        <v>120730.41</v>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>129431.34</v>
+        <v>120736.49</v>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>129431.34</v>
+        <v>120823.94</v>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>129431.34</v>
+        <v>120864.82</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>129431.34</v>
+        <v>120864.82</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>129431.34</v>
+        <v>120864.82</v>
       </c>
       <c r="AI16" s="22" t="n">
         <v/>
@@ -9701,7 +9701,7 @@
         <v/>
       </c>
       <c r="B17" s="14" t="n">
-        <v>115278.06</v>
+        <v>111875.77</v>
       </c>
       <c r="C17" s="14">
         <f>++'Completion Factors'!J21</f>
@@ -9725,7 +9725,7 @@
         <v/>
       </c>
       <c r="I17" s="14" t="n">
-        <v>144800.61</v>
+        <v>126833.945</v>
       </c>
       <c r="J17" s="14">
         <f>100*$G17/$I17</f>
@@ -9748,49 +9748,49 @@
         <v/>
       </c>
       <c r="S17" s="22" t="n">
-        <v>17461.78</v>
+        <v>7454.26</v>
       </c>
       <c r="T17" s="22" t="n">
-        <v>92166.72</v>
+        <v>94639.62</v>
       </c>
       <c r="U17" s="22" t="n">
-        <v>101871.88</v>
+        <v>104719.03</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>108735.86</v>
+        <v>108738.61</v>
       </c>
       <c r="W17" s="22" t="n">
-        <v>111650.19</v>
+        <v>111182.78</v>
       </c>
       <c r="X17" s="22" t="n">
-        <v>112005.91</v>
+        <v>111292.85</v>
       </c>
       <c r="Y17" s="22" t="n">
-        <v>113773.5</v>
+        <v>111331.09</v>
       </c>
       <c r="Z17" s="22" t="n">
-        <v>114468.17</v>
+        <v>111401.54</v>
       </c>
       <c r="AA17" s="22" t="n">
-        <v>115074.2</v>
+        <v>111696.72</v>
       </c>
       <c r="AB17" s="22" t="n">
-        <v>115074.2</v>
+        <v>111771.84</v>
       </c>
       <c r="AC17" s="22" t="n">
-        <v>115089.27</v>
+        <v>111788.98</v>
       </c>
       <c r="AD17" s="22" t="n">
-        <v>115089.27</v>
+        <v>111788.98</v>
       </c>
       <c r="AE17" s="22" t="n">
-        <v>115220.39</v>
+        <v>111875.77</v>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>115268.63</v>
+        <v>111875.77</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>115278.06</v>
+        <v>111875.77</v>
       </c>
       <c r="AH17" s="22" t="n">
         <v/>
@@ -9828,7 +9828,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v>106853.99</v>
+        <v>95486.43000000001</v>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9852,7 +9852,7 @@
         <v/>
       </c>
       <c r="I18" s="14" t="n">
-        <v>141149.4075</v>
+        <v>124708.8225</v>
       </c>
       <c r="J18" s="14">
         <f>100*$G18/$I18</f>
@@ -9875,46 +9875,46 @@
         <v/>
       </c>
       <c r="S18" s="22" t="n">
-        <v>13761.46</v>
+        <v>11494.78</v>
       </c>
       <c r="T18" s="22" t="n">
-        <v>83365.13</v>
+        <v>81522.53999999999</v>
       </c>
       <c r="U18" s="22" t="n">
-        <v>101054.13</v>
+        <v>86761.42999999999</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>104050.6</v>
+        <v>90719.17999999999</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>104382.54</v>
+        <v>91289.98999999999</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>104854.36</v>
+        <v>91461.98</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>105377.62</v>
+        <v>92559.06</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>106298.78</v>
+        <v>93105.09999999999</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>106462.86</v>
+        <v>93745.45999999999</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>106498.86</v>
+        <v>93762.95999999999</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>106696.18</v>
+        <v>93814.81</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>106767.87</v>
+        <v>93877.44</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>106829.92</v>
+        <v>95486.43000000001</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>106853.99</v>
+        <v>95486.43000000001</v>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -9955,7 +9955,7 @@
         <v/>
       </c>
       <c r="B19" s="14" t="n">
-        <v>137376.11</v>
+        <v>112426.78</v>
       </c>
       <c r="C19" s="14">
         <f>++'Completion Factors'!J19</f>
@@ -9979,7 +9979,7 @@
         <v/>
       </c>
       <c r="I19" s="14" t="n">
-        <v>134899.9383333333</v>
+        <v>123862.115</v>
       </c>
       <c r="J19" s="14">
         <f>100*$G19/$I19</f>
@@ -10005,43 +10005,43 @@
         <v/>
       </c>
       <c r="S19" s="22" t="n">
-        <v>14582.6</v>
+        <v>26034.36</v>
       </c>
       <c r="T19" s="22" t="n">
-        <v>117775.32</v>
+        <v>94994.12</v>
       </c>
       <c r="U19" s="22" t="n">
-        <v>130475.63</v>
+        <v>103741.8</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>133922.24</v>
+        <v>108671.47</v>
       </c>
       <c r="W19" s="22" t="n">
-        <v>135170.65</v>
+        <v>109430.99</v>
       </c>
       <c r="X19" s="22" t="n">
-        <v>136819.27</v>
+        <v>109807.24</v>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>136829.33</v>
+        <v>111537.48</v>
       </c>
       <c r="Z19" s="22" t="n">
-        <v>136915.73</v>
+        <v>111555.19</v>
       </c>
       <c r="AA19" s="22" t="n">
-        <v>137069.37</v>
+        <v>111648.43</v>
       </c>
       <c r="AB19" s="22" t="n">
-        <v>137105.91</v>
+        <v>111681.02</v>
       </c>
       <c r="AC19" s="22" t="n">
-        <v>137192</v>
+        <v>112341.04</v>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>137321.4</v>
+        <v>112426.78</v>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>137376.11</v>
+        <v>112426.78</v>
       </c>
       <c r="AF19" s="22" t="n">
         <v/>
@@ -10085,7 +10085,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>146910.28</v>
+        <v>83406.94999999998</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10109,7 +10109,7 @@
         <v/>
       </c>
       <c r="I20" s="14" t="n">
-        <v>132542.0908333334</v>
+        <v>124027.4041666667</v>
       </c>
       <c r="J20" s="14">
         <f>100*$G20/$I20</f>
@@ -10141,40 +10141,40 @@
         <v/>
       </c>
       <c r="S20" s="22" t="n">
-        <v>20734.22</v>
+        <v>6385.06</v>
       </c>
       <c r="T20" s="22" t="n">
-        <v>121574.2</v>
+        <v>67569.67</v>
       </c>
       <c r="U20" s="22" t="n">
-        <v>141713.53</v>
+        <v>79796.97</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>143557.55</v>
+        <v>80668.57000000001</v>
       </c>
       <c r="W20" s="22" t="n">
-        <v>145176.14</v>
+        <v>81182.74000000001</v>
       </c>
       <c r="X20" s="22" t="n">
-        <v>146415.16</v>
+        <v>82659.64</v>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>146569.38</v>
+        <v>82724.98</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>146601.12</v>
+        <v>82889.90999999999</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>146674.62</v>
+        <v>82964.34999999999</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>146764</v>
+        <v>83039.99999999999</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>146862.52</v>
+        <v>83406.94999999998</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>146910.28</v>
+        <v>83406.94999999998</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10221,7 +10221,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v>121594.76</v>
+        <v>89756.07000000001</v>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10245,7 +10245,7 @@
         <v/>
       </c>
       <c r="I21" s="14" t="n">
-        <v>129006.9441666667</v>
+        <v>125579.33</v>
       </c>
       <c r="J21" s="14">
         <f>100*$G21/$I21</f>
@@ -10277,37 +10277,37 @@
         <v/>
       </c>
       <c r="S21" s="22" t="n">
-        <v>12112.64</v>
+        <v>14306.13</v>
       </c>
       <c r="T21" s="22" t="n">
-        <v>89289.81</v>
+        <v>77137.60000000001</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>107439.25</v>
+        <v>85276.59000000001</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>116471.64</v>
+        <v>86501.31000000001</v>
       </c>
       <c r="W21" s="22" t="n">
-        <v>117824.3</v>
+        <v>86898.12000000001</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v>118635.13</v>
+        <v>89364.44</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>119722.29</v>
+        <v>89631.18000000001</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>119751.82</v>
+        <v>89756.07000000001</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>119843.87</v>
+        <v>89756.07000000001</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>120096.26</v>
+        <v>89756.07000000001</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>121594.76</v>
+        <v>89756.07000000001</v>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10357,7 +10357,7 @@
         <v/>
       </c>
       <c r="B22" s="14" t="n">
-        <v>111682.31</v>
+        <v>79717.97000000002</v>
       </c>
       <c r="C22" s="14">
         <f>++'Completion Factors'!J16</f>
@@ -10381,7 +10381,7 @@
         <v/>
       </c>
       <c r="I22" s="14" t="n">
-        <v>126833.945</v>
+        <v>126105.3775</v>
       </c>
       <c r="J22" s="14">
         <f>100*$G22/$I22</f>
@@ -10413,34 +10413,34 @@
         <v/>
       </c>
       <c r="S22" s="22" t="n">
-        <v>7881.53</v>
+        <v>10793.19</v>
       </c>
       <c r="T22" s="22" t="n">
-        <v>94566.3</v>
+        <v>70227.36</v>
       </c>
       <c r="U22" s="22" t="n">
-        <v>104645.71</v>
+        <v>77223.16</v>
       </c>
       <c r="V22" s="22" t="n">
-        <v>108665.29</v>
+        <v>77952.69</v>
       </c>
       <c r="W22" s="22" t="n">
-        <v>111109.46</v>
+        <v>79200.74000000001</v>
       </c>
       <c r="X22" s="22" t="n">
-        <v>111219.53</v>
+        <v>79404.93000000001</v>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>111257.77</v>
+        <v>79639.25000000001</v>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>111328.22</v>
+        <v>79689.88000000002</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>111623.4</v>
+        <v>79717.97000000002</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>111682.31</v>
+        <v>79717.97000000002</v>
       </c>
       <c r="AC22" s="22" t="n">
         <v/>
@@ -10493,7 +10493,7 @@
         <v/>
       </c>
       <c r="B23" s="14" t="n">
-        <v>93731.29999999999</v>
+        <v>78713.63999999998</v>
       </c>
       <c r="C23" s="14">
         <f>++'Completion Factors'!J15</f>
@@ -10517,7 +10517,7 @@
         <v/>
       </c>
       <c r="I23" s="14" t="n">
-        <v>124708.8225</v>
+        <v>125926.0375</v>
       </c>
       <c r="J23" s="14">
         <f>100*$G23/$I23</f>
@@ -10549,31 +10549,31 @@
         <v/>
       </c>
       <c r="S23" s="22" t="n">
-        <v>11518.06</v>
+        <v>12011.91</v>
       </c>
       <c r="T23" s="22" t="n">
-        <v>81545.81999999999</v>
+        <v>67185.33</v>
       </c>
       <c r="U23" s="22" t="n">
-        <v>86784.70999999999</v>
+        <v>74815.14999999999</v>
       </c>
       <c r="V23" s="22" t="n">
-        <v>90742.45999999999</v>
+        <v>77601.57999999999</v>
       </c>
       <c r="W23" s="22" t="n">
-        <v>91313.26999999999</v>
+        <v>77881.84999999999</v>
       </c>
       <c r="X23" s="22" t="n">
-        <v>91485.25999999999</v>
+        <v>78603.18999999999</v>
       </c>
       <c r="Y23" s="22" t="n">
-        <v>92582.34</v>
+        <v>78623.01999999999</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v>93128.37999999999</v>
+        <v>78713.63999999998</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v>93731.29999999999</v>
+        <v>78713.63999999998</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v/>
@@ -10629,7 +10629,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>111591.2</v>
+        <v>87462.45</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10655,7 +10655,7 @@
         <v/>
       </c>
       <c r="I24" s="14" t="n">
-        <v>123862.115</v>
+        <v>123026.6875</v>
       </c>
       <c r="J24" s="14">
         <f>100*$G24/$I24</f>
@@ -10687,28 +10687,28 @@
         <v/>
       </c>
       <c r="S24" s="22" t="n">
-        <v>26034.36</v>
+        <v>11068.59</v>
       </c>
       <c r="T24" s="22" t="n">
-        <v>95022.89999999999</v>
+        <v>69095.59</v>
       </c>
       <c r="U24" s="22" t="n">
-        <v>103770.58</v>
+        <v>83187.73999999999</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>108700.25</v>
+        <v>85963.65999999999</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>109467</v>
+        <v>86713.92999999999</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>109843.25</v>
+        <v>87459.34</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>111573.49</v>
+        <v>87462.45</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>111591.2</v>
+        <v>87462.45</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10767,7 +10767,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>83238.75999999999</v>
+        <v>82763.87</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10793,7 +10793,7 @@
         <v/>
       </c>
       <c r="I25" s="14" t="n">
-        <v>124027.4041666667</v>
+        <v>122216.725</v>
       </c>
       <c r="J25" s="14">
         <f>100*$G25/$I25</f>
@@ -10825,25 +10825,25 @@
         <v/>
       </c>
       <c r="S25" s="22" t="n">
-        <v>6385.06</v>
+        <v>8222.129999999999</v>
       </c>
       <c r="T25" s="22" t="n">
-        <v>68078.82000000001</v>
+        <v>72176.28</v>
       </c>
       <c r="U25" s="22" t="n">
-        <v>80310.75</v>
+        <v>81379.37</v>
       </c>
       <c r="V25" s="22" t="n">
-        <v>81182.35000000001</v>
+        <v>82220.42999999999</v>
       </c>
       <c r="W25" s="22" t="n">
-        <v>81696.52</v>
+        <v>82593.03</v>
       </c>
       <c r="X25" s="22" t="n">
-        <v>83173.42</v>
+        <v>82763.87</v>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>83238.75999999999</v>
+        <v>82763.87</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10905,7 +10905,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v>89305.47</v>
+        <v>78417.95</v>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10931,7 +10931,7 @@
         <v/>
       </c>
       <c r="I26" s="14" t="n">
-        <v>125579.33</v>
+        <v>119111.5425</v>
       </c>
       <c r="J26" s="14">
         <f>100*$G26/$I26</f>
@@ -10963,22 +10963,22 @@
         <v/>
       </c>
       <c r="S26" s="22" t="n">
-        <v>14306.13</v>
+        <v>12412.56</v>
       </c>
       <c r="T26" s="22" t="n">
-        <v>77149.73</v>
+        <v>70305.13</v>
       </c>
       <c r="U26" s="22" t="n">
-        <v>85288.72</v>
+        <v>74303.52</v>
       </c>
       <c r="V26" s="22" t="n">
-        <v>86474.14</v>
+        <v>75375.45</v>
       </c>
       <c r="W26" s="22" t="n">
-        <v>86870.95</v>
+        <v>78417.95</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v>89305.47</v>
+        <v>78417.95</v>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11043,7 +11043,7 @@
         <v/>
       </c>
       <c r="B27" s="14" t="n">
-        <v>79196.84000000001</v>
+        <v>89548.64</v>
       </c>
       <c r="C27" s="14">
         <f>++'Completion Factors'!J11</f>
@@ -11069,7 +11069,7 @@
         <v/>
       </c>
       <c r="I27" s="14" t="n">
-        <v>126105.3775</v>
+        <v>117143.3375</v>
       </c>
       <c r="J27" s="14">
         <f>100*$G27/$I27</f>
@@ -11101,19 +11101,19 @@
         <v/>
       </c>
       <c r="S27" s="22" t="n">
-        <v>10793.19</v>
+        <v>13762.65</v>
       </c>
       <c r="T27" s="22" t="n">
-        <v>70235.77</v>
+        <v>73803.11</v>
       </c>
       <c r="U27" s="22" t="n">
-        <v>77231.57000000001</v>
+        <v>88878.46000000001</v>
       </c>
       <c r="V27" s="22" t="n">
-        <v>77961.10000000001</v>
+        <v>89548.64</v>
       </c>
       <c r="W27" s="22" t="n">
-        <v>79196.84000000001</v>
+        <v>89548.64</v>
       </c>
       <c r="X27" s="22" t="n">
         <v/>
@@ -11181,7 +11181,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v>77584.53999999999</v>
+        <v>54485.09</v>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11207,7 +11207,7 @@
         <v/>
       </c>
       <c r="I28" s="14" t="n">
-        <v>125926.0375</v>
+        <v>117481.2183333333</v>
       </c>
       <c r="J28" s="14">
         <f>100*$G28/$I28</f>
@@ -11239,16 +11239,16 @@
         <v/>
       </c>
       <c r="S28" s="22" t="n">
-        <v>12011.91</v>
+        <v>8084.91</v>
       </c>
       <c r="T28" s="22" t="n">
-        <v>67185.33</v>
+        <v>47728.8</v>
       </c>
       <c r="U28" s="22" t="n">
-        <v>74815.14999999999</v>
+        <v>54485.09</v>
       </c>
       <c r="V28" s="22" t="n">
-        <v>77584.53999999999</v>
+        <v>54485.09</v>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
@@ -11319,7 +11319,7 @@
         <v/>
       </c>
       <c r="B29" s="14" t="n">
-        <v>81400.88</v>
+        <v>62636.47</v>
       </c>
       <c r="C29" s="14">
         <f>++'Completion Factors'!J9</f>
@@ -11346,7 +11346,7 @@
         <v/>
       </c>
       <c r="I29" s="14" t="n">
-        <v>123026.6875</v>
+        <v>115153.365</v>
       </c>
       <c r="J29" s="20" t="n">
         <v>75</v>
@@ -11377,13 +11377,13 @@
         <v/>
       </c>
       <c r="S29" s="22" t="n">
-        <v>11068.59</v>
+        <v>9036.58</v>
       </c>
       <c r="T29" s="22" t="n">
-        <v>68964.81</v>
+        <v>62636.47</v>
       </c>
       <c r="U29" s="22" t="n">
-        <v>81400.88</v>
+        <v>62636.47</v>
       </c>
       <c r="V29" s="22" t="n">
         <v/>
@@ -11457,7 +11457,7 @@
         <v/>
       </c>
       <c r="B30" s="14" t="n">
-        <v>71430.84</v>
+        <v>10660.98</v>
       </c>
       <c r="C30" s="14">
         <f>++'Completion Factors'!J8</f>
@@ -11484,7 +11484,7 @@
         <v/>
       </c>
       <c r="I30" s="14" t="n">
-        <v>122216.725</v>
+        <v>113770.3091666667</v>
       </c>
       <c r="J30" s="20" t="n">
         <v>70</v>
@@ -11515,10 +11515,10 @@
         <v/>
       </c>
       <c r="S30" s="22" t="n">
-        <v>7978.49</v>
+        <v>10660.98</v>
       </c>
       <c r="T30" s="22" t="n">
-        <v>71430.84</v>
+        <v>10660.98</v>
       </c>
       <c r="U30" s="22" t="n">
         <v/>
@@ -11595,7 +11595,7 @@
         <v/>
       </c>
       <c r="B31" s="14" t="n">
-        <v>12202.43</v>
+        <v/>
       </c>
       <c r="C31" s="14">
         <f>+'Completion Factors'!J7</f>
@@ -11622,7 +11622,7 @@
         <v/>
       </c>
       <c r="I31" s="14" t="n">
-        <v>119111.5425</v>
+        <v>558.9266666666667</v>
       </c>
       <c r="J31" s="20" t="n">
         <v>70</v>
@@ -11653,7 +11653,7 @@
         <v/>
       </c>
       <c r="S31" s="22" t="n">
-        <v>12202.43</v>
+        <v/>
       </c>
       <c r="T31" s="22" t="n">
         <v/>

--- a/Process Results/Unified_IBNP_ULI.xlsx
+++ b/Process Results/Unified_IBNP_ULI.xlsx
@@ -3727,20 +3727,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1971792447276714</v>
+        <v>0.1769705003747989</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.155737331003861</v>
+        <v>0.1626503076074951</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.1545033241349816</v>
+        <v>0.1406157940581375</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.1740250892981843</v>
+        <v>0.1695084968110318</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3765,20 +3765,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8589540299052726</v>
+        <v>0.8869590105148384</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.844838204533871</v>
+        <v>0.8664553594854499</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.847859069714383</v>
+        <v>0.8475021015645239</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8518376427994259</v>
+        <v>0.8765873046932618</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3803,20 +3803,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9607759341726673</v>
+        <v>0.95415155131983</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9497109510054577</v>
+        <v>0.9577207394572539</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9452138293072726</v>
+        <v>0.9476345976526908</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9552114000104297</v>
+        <v>0.955932813810376</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3841,20 +3841,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.9684655555870665</v>
+        <v>0.9671536188280823</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.9666366722304162</v>
+        <v>0.9738144342130267</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.9679072585251367</v>
+        <v>0.9694573448699277</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.9675502496612913</v>
+        <v>0.970472597568511</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3879,20 +3879,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9818480360842481</v>
+        <v>0.9812075029968451</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9778995174813896</v>
+        <v>0.9834545514340374</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.9784256456546204</v>
+        <v>0.9794882796418938</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.9798697990258041</v>
+        <v>0.9823297422039382</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3917,20 +3917,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9854795572867876</v>
+        <v>0.9837831054885879</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9864674262867873</v>
+        <v>0.988089630403274</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9856710211578075</v>
+        <v>0.9864376726717075</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9859732443447493</v>
+        <v>0.9859316652700172</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3955,20 +3955,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9855704113964968</v>
+        <v>0.9841147750691875</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9876295620706018</v>
+        <v>0.9892940816854541</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.9894928286612047</v>
+        <v>0.9905155250147771</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.986598912310897</v>
+        <v>0.9866976317074535</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -3993,20 +3993,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9861369470735333</v>
+        <v>0.9845463887808317</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9884664446795546</v>
+        <v>0.9901823850769105</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9911942593094376</v>
+        <v>0.9915167002008071</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9873003217881778</v>
+        <v>0.9873563441903769</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4031,20 +4031,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9862485711572261</v>
+        <v>0.9865303681604258</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.99000923233029</v>
+        <v>0.9914206505995166</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9929270220596377</v>
+        <v>0.9931769937702086</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9881253236244374</v>
+        <v>0.9889694640173441</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -4069,20 +4069,20 @@
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9865441272507666</v>
+        <v>0.9867530960544443</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.9903583862002524</v>
+        <v>0.991756465973088</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.9934332485060607</v>
+        <v>0.9937008018522033</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.988447577087481</v>
+        <v>0.9892484546075099</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4107,20 +4107,20 @@
         <v/>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9901055782708217</v>
+        <v>0.988446245754437</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9945758197115347</v>
+        <v>0.9937796955354351</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9960588422968272</v>
+        <v>0.9960417577982186</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9923356646671404</v>
+        <v>0.9911057954571902</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -4145,20 +4145,20 @@
         <v/>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9906129016032665</v>
+        <v>0.9902605574105084</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9948764621614975</v>
+        <v>0.9947425776893355</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9968204298831893</v>
+        <v>0.9967363487695015</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
         <v/>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9927401041825552</v>
+        <v>0.9924965074808914</v>
       </c>
       <c r="J18" s="5">
         <f>I18</f>
@@ -4183,20 +4183,20 @@
         <v/>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.9958939373068931</v>
+        <v>0.9957519292210085</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.9974266285049026</v>
+        <v>0.9974146698092735</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.9982398613579153</v>
+        <v>0.998188327742381</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
         <v/>
       </c>
       <c r="I19" s="5" t="n">
-        <v>0.9966596936523806</v>
+        <v>0.9965826059689356</v>
       </c>
       <c r="J19" s="5">
         <f>I19</f>
@@ -4221,20 +4221,20 @@
         <v/>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.996017989298111</v>
+        <v>0.9957519292210085</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9975166930933234</v>
+        <v>0.9974709187572375</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9983860535142189</v>
+        <v>0.9983381133599588</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
         <v/>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.9967667778463344</v>
+        <v>0.9966106827461084</v>
       </c>
       <c r="J20" s="5">
         <f>I20</f>
@@ -4259,20 +4259,20 @@
         <v/>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.996017989298111</v>
+        <v>0.9957519292210085</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9975294194727002</v>
+        <v>0.9974709187572375</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9984095576411136</v>
+        <v>0.9983625693654501</v>
       </c>
       <c r="H21" s="4">
         <f>+I21/I22</f>
         <v/>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.996773131431594</v>
+        <v>0.9966106827461084</v>
       </c>
       <c r="J21" s="5">
         <f>I21</f>
@@ -4833,40 +4833,40 @@
         <v>0</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>5.860563917942952</v>
+        <v>8.21183670328783</v>
       </c>
       <c r="C38" s="4" t="n">
-        <v>1.138111678645722</v>
+        <v>1.158037571799859</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>1.009757620310997</v>
+        <v>1.02580464626071</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>1.039055622598291</v>
+        <v>1.033051988854723</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>1.002974843791148</v>
+        <v>1.01860510720992</v>
       </c>
       <c r="G38" s="4" t="n">
-        <v>1.008848430921703</v>
+        <v>1.006706677450866</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>1.012259713424378</v>
+        <v>1.024766226298252</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>1.000789334027486</v>
+        <v>1.002776550989152</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>1</v>
+        <v>1.000517471422133</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>1.011642612344665</v>
+        <v>1.000085543340393</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>1.000204230861357</v>
+        <v>1.004081495109462</v>
       </c>
       <c r="M38" s="4" t="n">
-        <v>1.000281978775587</v>
+        <v>1.00028327082619</v>
       </c>
       <c r="N38" s="4" t="n">
         <v>1</v>
@@ -4908,46 +4908,46 @@
         <v/>
       </c>
       <c r="B39" s="4" t="n">
-        <v>8.21183670328783</v>
+        <v>3.749469779809151</v>
       </c>
       <c r="C39" s="4" t="n">
-        <v>1.158037571799859</v>
+        <v>1.224215721767395</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>1.02580464626071</v>
+        <v>1.080335589109173</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>1.033051988854723</v>
+        <v>1.02643639057326</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>1.01860510720992</v>
+        <v>1.023043486694095</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>1.006706677450866</v>
+        <v>1.002235108992344</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>1.024766226298252</v>
+        <v>1.001279815572705</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>1.002776550989152</v>
+        <v>1.002151024226101</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>1.000517471422133</v>
+        <v>1.001052210490769</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>1.000085543340393</v>
+        <v>1.004411427619611</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>1.004081495109462</v>
+        <v>1.000277888169434</v>
       </c>
       <c r="M39" s="4" t="n">
-        <v>1.00028327082619</v>
+        <v>1</v>
       </c>
       <c r="N39" s="4" t="n">
-        <v>1</v>
+        <v>1.000667941211614</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>1</v>
+        <v>1.000155977785181</v>
       </c>
       <c r="P39" s="4" t="n">
         <v>1</v>
@@ -4983,67 +4983,67 @@
         <v/>
       </c>
       <c r="B40" s="4" t="n">
-        <v>3.749469779809151</v>
+        <v>10.308171759591</v>
       </c>
       <c r="C40" s="4" t="n">
-        <v>1.224215721767395</v>
+        <v>1.331607657215829</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>1.080335589109173</v>
+        <v>1.017932163943904</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>1.02643639057326</v>
+        <v>1.006437436067595</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>1.023043486694095</v>
+        <v>1.003060207516981</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>1.002235108992344</v>
+        <v>1.002265223452181</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>1.001279815572705</v>
+        <v>1.002842555182494</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>1.002151024226101</v>
+        <v>1.000135602655119</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>1.001052210490769</v>
+        <v>1.000459144675303</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>1.004411427619611</v>
+        <v>1.000468061584559</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>1.000277888169434</v>
+        <v>1.000649923143457</v>
       </c>
       <c r="M40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N40" s="4" t="n">
-        <v>1.000667941211614</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>1.000155977785181</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="T40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="U40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="V40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="W40" t="n">
         <v/>
@@ -5058,64 +5058,64 @@
         <v/>
       </c>
       <c r="B41" s="4" t="n">
-        <v>10.308171759591</v>
+        <v>5.278197297182762</v>
       </c>
       <c r="C41" s="4" t="n">
-        <v>1.331607657215829</v>
+        <v>1.105300047565976</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>1.017932163943904</v>
+        <v>1.067378554317443</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>1.006437436067595</v>
+        <v>1.026801921647559</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>1.003060207516981</v>
+        <v>1.003186022343536</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>1.002265223452181</v>
+        <v>1.015781220830222</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>1.002842555182494</v>
+        <v>1.006105727607923</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>1.000135602655119</v>
+        <v>1.005294310199945</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>1.000459144675303</v>
+        <v>1</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>1.000468061584559</v>
+        <v>1.000130958981249</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>1.000649923143457</v>
+        <v>1</v>
       </c>
       <c r="M41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.001139289527164</v>
       </c>
       <c r="N41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.00041867589582</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.00008180890152</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="S41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="T41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="U41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="V41" s="4" t="n">
         <v/>
@@ -5133,49 +5133,49 @@
         <v/>
       </c>
       <c r="B42" s="4" t="n">
-        <v>5.278197297182762</v>
+        <v>6.057869586511897</v>
       </c>
       <c r="C42" s="4" t="n">
-        <v>1.105300047565976</v>
+        <v>1.212187037913814</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>1.067378554317443</v>
+        <v>1.029652128022873</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>1.026801921647559</v>
+        <v>1.003190178624631</v>
       </c>
       <c r="F42" s="4" t="n">
-        <v>1.003186022343536</v>
+        <v>1.004520104607533</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>1.015781220830222</v>
+        <v>1.004990350425104</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>1.006105727607923</v>
+        <v>1.008741514564478</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>1.005294310199945</v>
+        <v>1.001543573689181</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>1</v>
+        <v>1.00033814609151</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>1.000130958981249</v>
+        <v>1.001852789785731</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>1</v>
+        <v>1.000671907841499</v>
       </c>
       <c r="M42" s="4" t="n">
-        <v>1.001139289527164</v>
+        <v>1.000581167349316</v>
       </c>
       <c r="N42" s="4" t="n">
-        <v>1.00041867589582</v>
+        <v>1.000225311410886</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>1.00008180890152</v>
+        <v>1</v>
       </c>
       <c r="P42" s="4" t="n">
-        <v>1</v>
+        <v>1.002380631738693</v>
       </c>
       <c r="Q42" s="4" t="n">
         <v>1</v>
@@ -5208,49 +5208,49 @@
         <v/>
       </c>
       <c r="B43" s="4" t="n">
-        <v>6.057869586511897</v>
+        <v>8.074746615829826</v>
       </c>
       <c r="C43" s="4" t="n">
-        <v>1.212187037913814</v>
+        <v>1.107857526233367</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>1.029652128022873</v>
+        <v>1.026420702744499</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>1.003190178624631</v>
+        <v>1.009323609095061</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>1.004520104607533</v>
+        <v>1.012198795481602</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v>1.004990350425104</v>
+        <v>1.000073540833987</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>1.008741514564478</v>
+        <v>1.000631556741316</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>1.001543573689181</v>
+        <v>1.001122351099095</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>1.00033814609151</v>
+        <v>1.000266628041842</v>
       </c>
       <c r="K43" s="4" t="n">
-        <v>1.001852789785731</v>
+        <v>1.000628021061065</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>1.000671907841499</v>
+        <v>1.000943372292033</v>
       </c>
       <c r="M43" s="4" t="n">
-        <v>1.000581167349316</v>
+        <v>1.000398479557584</v>
       </c>
       <c r="N43" s="4" t="n">
-        <v>1.000225311410886</v>
+        <v>1</v>
       </c>
       <c r="O43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>1.002380631738693</v>
+        <v>1</v>
       </c>
       <c r="Q43" s="4" t="n">
         <v>1</v>
@@ -5283,40 +5283,40 @@
         <v/>
       </c>
       <c r="B44" s="4" t="n">
-        <v>8.074746615829826</v>
+        <v>5.863456643172494</v>
       </c>
       <c r="C44" s="4" t="n">
-        <v>1.107857526233367</v>
+        <v>1.165654637250338</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>1.026420702744499</v>
+        <v>1.013012307293453</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>1.009323609095061</v>
+        <v>1.011274851096303</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>1.012198795481602</v>
+        <v>1.008534598040697</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>1.000073540833987</v>
+        <v>1.001053306228672</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>1.000631556741316</v>
+        <v>1.000216552734275</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>1.001122351099095</v>
+        <v>1.000501360426169</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>1.000266628041842</v>
+        <v>1.000609376046108</v>
       </c>
       <c r="K44" s="4" t="n">
-        <v>1.000628021061065</v>
+        <v>1.000671281785724</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>1.000943372292033</v>
+        <v>1.000325202100577</v>
       </c>
       <c r="M44" s="4" t="n">
-        <v>1.000398479557584</v>
+        <v>1.000104962021718</v>
       </c>
       <c r="N44" s="4" t="n">
         <v>1</v>
@@ -5325,7 +5325,7 @@
         <v>1</v>
       </c>
       <c r="P44" s="4" t="n">
-        <v>1</v>
+        <v>1.011024143495658</v>
       </c>
       <c r="Q44" s="4" t="n">
         <v>1</v>
@@ -5358,49 +5358,49 @@
         <v/>
       </c>
       <c r="B45" s="4" t="n">
-        <v>5.863456643172494</v>
+        <v>7.236887251664378</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>1.165654637250338</v>
+        <v>1.215806098737808</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>1.013012307293453</v>
+        <v>1.084751569084278</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>1.011274851096303</v>
+        <v>1.011700473214103</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>1.008534598040697</v>
+        <v>1.006932544003311</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>1.001053306228672</v>
+        <v>1.009231152243366</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>1.000216552734275</v>
+        <v>1.000248447852958</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>1.000501360426169</v>
+        <v>1.000774261576935</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>1.000609376046108</v>
+        <v>1.002121289445444</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v>1.000671281785724</v>
+        <v>1.012567944269282</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>1.000325202100577</v>
+        <v>1.000050360137102</v>
       </c>
       <c r="M45" s="4" t="n">
-        <v>1.000104962021718</v>
+        <v>1.000724304640627</v>
       </c>
       <c r="N45" s="4" t="n">
-        <v>1</v>
+        <v>1.000338343543506</v>
       </c>
       <c r="O45" s="4" t="n">
         <v>1</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>1.011024143495658</v>
+        <v>1</v>
       </c>
       <c r="Q45" s="4" t="n">
         <v>1</v>
@@ -5433,43 +5433,43 @@
         <v/>
       </c>
       <c r="B46" s="4" t="n">
-        <v>7.236887251664378</v>
+        <v>12.69604494611135</v>
       </c>
       <c r="C46" s="4" t="n">
-        <v>1.215806098737808</v>
+        <v>1.10650306922196</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>1.084751569084278</v>
+        <v>1.038384427357664</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>1.011700473214103</v>
+        <v>1.022477480629925</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>1.006932544003311</v>
+        <v>1.000989991435724</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>1.009231152243366</v>
+        <v>1.000343597993941</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>1.000248447852958</v>
+        <v>1.000632797181811</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>1.000774261576935</v>
+        <v>1.002649694070656</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>1.002121289445444</v>
+        <v>1.000672535415543</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>1.012567944269282</v>
+        <v>1.000153348106285</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>1.000050360137102</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M46" s="4" t="n">
-        <v>1.000724304640627</v>
+        <v>1.000776373485115</v>
       </c>
       <c r="N46" s="4" t="n">
-        <v>1.000338343543506</v>
+        <v>1</v>
       </c>
       <c r="O46" s="4" t="n">
         <v>1</v>
@@ -5508,46 +5508,46 @@
         <v/>
       </c>
       <c r="B47" s="4" t="n">
-        <v>12.69604494611135</v>
+        <v>7.092135734655208</v>
       </c>
       <c r="C47" s="4" t="n">
-        <v>1.10650306922196</v>
+        <v>1.064263086012776</v>
       </c>
       <c r="D47" s="4" t="n">
-        <v>1.038384427357664</v>
+        <v>1.045616468054987</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>1.022477480629925</v>
+        <v>1.006292054227121</v>
       </c>
       <c r="F47" s="4" t="n">
-        <v>1.000989991435724</v>
+        <v>1.001883996262898</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>1.000343597993941</v>
+        <v>1.011994929477801</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>1.000632797181811</v>
+        <v>1.005899368468089</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>1.002649694070656</v>
+        <v>1.006877818723142</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>1.000672535415543</v>
+        <v>1.000186675706749</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>1.000153348106285</v>
+        <v>1.000552990221299</v>
       </c>
       <c r="L47" s="4" t="n">
+        <v>1.000667591822656</v>
+      </c>
+      <c r="M47" s="4" t="n">
+        <v>1.017139261573388</v>
+      </c>
+      <c r="N47" s="4" t="n">
         <v>0.9999999999999999</v>
       </c>
-      <c r="M47" s="4" t="n">
-        <v>1.000776373485115</v>
-      </c>
-      <c r="N47" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="O47" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P47" t="n">
         <v/>
@@ -5583,40 +5583,40 @@
         <v/>
       </c>
       <c r="B48" s="4" t="n">
-        <v>7.092135734655208</v>
+        <v>3.648797973140112</v>
       </c>
       <c r="C48" s="4" t="n">
-        <v>1.064263086012776</v>
+        <v>1.092086541777533</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>1.045616468054987</v>
+        <v>1.04751864725694</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>1.006292054227121</v>
+        <v>1.006989138915669</v>
       </c>
       <c r="F48" s="4" t="n">
-        <v>1.001883996262898</v>
+        <v>1.003438239935506</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>1.011994929477801</v>
+        <v>1.015757066656078</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>1.005899368468089</v>
+        <v>1.000158780707615</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>1.006877818723142</v>
+        <v>1.000835819471958</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>1.000186675706749</v>
+        <v>1.000291898417201</v>
       </c>
       <c r="K48" s="4" t="n">
-        <v>1.000552990221299</v>
+        <v>1.005909867227216</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>1.000667591822656</v>
+        <v>1.000763211734554</v>
       </c>
       <c r="M48" s="4" t="n">
-        <v>1.017139261573388</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N48" s="4" t="n">
         <v>0.9999999999999999</v>
@@ -5658,40 +5658,40 @@
         <v/>
       </c>
       <c r="B49" s="4" t="n">
-        <v>3.648797973140112</v>
+        <v>10.58246437778188</v>
       </c>
       <c r="C49" s="4" t="n">
-        <v>1.092086541777533</v>
+        <v>1.180958409298136</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>1.04751864725694</v>
+        <v>1.010922720499287</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>1.006989138915669</v>
+        <v>1.006373857873023</v>
       </c>
       <c r="F49" s="4" t="n">
-        <v>1.003438239935506</v>
+        <v>1.018192290627293</v>
       </c>
       <c r="G49" s="4" t="n">
-        <v>1.015757066656078</v>
+        <v>1.000790470415792</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>1.000158780707615</v>
+        <v>1.001993714595035</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>1.000835819471958</v>
+        <v>1.000898058641878</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>1.000291898417201</v>
+        <v>1.000911837433789</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>1.005909867227216</v>
+        <v>1.004418954720617</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>1.000763211734554</v>
+        <v>1.005256516393418</v>
       </c>
       <c r="M49" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="N49" t="n">
         <v/>
@@ -5733,37 +5733,37 @@
         <v/>
       </c>
       <c r="B50" s="4" t="n">
-        <v>10.58246437778188</v>
+        <v>5.391926397984641</v>
       </c>
       <c r="C50" s="4" t="n">
-        <v>1.180958409298136</v>
+        <v>1.105512616415341</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>1.010922720499287</v>
+        <v>1.014361737494428</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>1.006373857873023</v>
+        <v>1.004587329371081</v>
       </c>
       <c r="F50" s="4" t="n">
-        <v>1.018192290627293</v>
+        <v>1.028381741745391</v>
       </c>
       <c r="G50" s="4" t="n">
-        <v>1.000790470415792</v>
+        <v>1.00298485616874</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>1.001993714595035</v>
+        <v>1.001393376724484</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>1.000898058641878</v>
+        <v>1</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>1.000911837433789</v>
+        <v>1</v>
       </c>
       <c r="K50" s="4" t="n">
-        <v>1.004418954720617</v>
+        <v>1.00074011707509</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="M50" t="n">
         <v/>
@@ -5808,31 +5808,31 @@
         <v/>
       </c>
       <c r="B51" s="4" t="n">
-        <v>5.391926397984641</v>
+        <v>6.506636128892384</v>
       </c>
       <c r="C51" s="4" t="n">
-        <v>1.105512616415341</v>
+        <v>1.099616445784093</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>1.014361737494428</v>
+        <v>1.009447036355415</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>1.004587329371081</v>
+        <v>1.016010351919863</v>
       </c>
       <c r="F51" s="4" t="n">
-        <v>1.028381741745391</v>
+        <v>1.002578132477045</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v>1.00298485616874</v>
+        <v>1.00295095027475</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>1.001393376724484</v>
+        <v>1.000635741798171</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>1</v>
+        <v>1.00035249143304</v>
       </c>
       <c r="J51" s="4" t="n">
-        <v>1</v>
+        <v>1.000703730915376</v>
       </c>
       <c r="K51" s="4" t="n">
         <v>1</v>
@@ -5883,28 +5883,28 @@
         <v/>
       </c>
       <c r="B52" s="4" t="n">
-        <v>6.506636128892384</v>
+        <v>5.579056952641171</v>
       </c>
       <c r="C52" s="4" t="n">
-        <v>1.099616445784093</v>
+        <v>1.113852200241946</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>1.009447036355415</v>
+        <v>1.037329116035311</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>1.016010351919863</v>
+        <v>1.003619591953547</v>
       </c>
       <c r="F52" s="4" t="n">
-        <v>1.002578132477045</v>
+        <v>1.009282263341468</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>1.00295095027475</v>
+        <v>1.000252827286069</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>1.000635741798171</v>
+        <v>1.0011550891351</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>1.00035249143304</v>
+        <v>1.005941680170871</v>
       </c>
       <c r="J52" s="4" t="n">
         <v>1</v>
@@ -5958,25 +5958,25 @@
         <v/>
       </c>
       <c r="B53" s="4" t="n">
-        <v>5.593226222973699</v>
+        <v>6.225742393565938</v>
       </c>
       <c r="C53" s="4" t="n">
-        <v>1.113563779473882</v>
+        <v>1.204500234290458</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>1.037244194524772</v>
+        <v>1.033443876401557</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>1.003611653267884</v>
+        <v>1.008746621813033</v>
       </c>
       <c r="F53" s="4" t="n">
-        <v>1.009261978240116</v>
+        <v>1.008614615318208</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>1.000252279837498</v>
+        <v>1.00003563492149</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>1.001152588643886</v>
+        <v>1.000210822891012</v>
       </c>
       <c r="I53" s="4" t="n">
         <v>1</v>
@@ -6033,22 +6033,22 @@
         <v/>
       </c>
       <c r="B54" s="4" t="n">
-        <v>6.242492494527306</v>
+        <v>8.778294675467306</v>
       </c>
       <c r="C54" s="4" t="n">
-        <v>1.203951511232482</v>
+        <v>1.127508511106419</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>1.033369340241723</v>
+        <v>1.010335051745915</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>1.00872775775252</v>
+        <v>1.004531720400879</v>
       </c>
       <c r="F54" s="4" t="n">
-        <v>1.00859619671257</v>
+        <v>1.002068455413247</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>1.000035559381079</v>
+        <v>1.00097663388626</v>
       </c>
       <c r="H54" s="4" t="n">
         <v>1</v>
@@ -6108,22 +6108,22 @@
         <v/>
       </c>
       <c r="B55" s="4" t="n">
-        <v>8.778294675467306</v>
+        <v>5.664031432677869</v>
       </c>
       <c r="C55" s="4" t="n">
-        <v>1.127508511106419</v>
+        <v>1.056871952302769</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>1.010335051745915</v>
+        <v>1.014426369033392</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>1.004531720400879</v>
+        <v>1.040840485861112</v>
       </c>
       <c r="F55" s="4" t="n">
-        <v>1.002068455413247</v>
+        <v>1.006211934613254</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v/>
@@ -6183,16 +6183,16 @@
         <v/>
       </c>
       <c r="B56" s="4" t="n">
-        <v>5.664031432677869</v>
+        <v>5.362565348969857</v>
       </c>
       <c r="C56" s="4" t="n">
-        <v>1.056871952302769</v>
+        <v>1.204264427339173</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>1.014426369033392</v>
+        <v>1.007633120555869</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>1.040364601471699</v>
+        <v>1.001584021238793</v>
       </c>
       <c r="F56" s="4" t="n">
         <v>1</v>
@@ -6258,13 +6258,13 @@
         <v/>
       </c>
       <c r="B57" s="4" t="n">
-        <v>5.362565348969857</v>
+        <v>5.898676670488602</v>
       </c>
       <c r="C57" s="4" t="n">
-        <v>1.204264427339173</v>
+        <v>1.141670198134756</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>1.007540409678566</v>
+        <v>1.040946388532168</v>
       </c>
       <c r="E57" s="4" t="n">
         <v>1</v>
@@ -6333,10 +6333,10 @@
         <v/>
       </c>
       <c r="B58" s="4" t="n">
-        <v>5.903442338875758</v>
+        <v>6.943367955576115</v>
       </c>
       <c r="C58" s="4" t="n">
-        <v>1.141555832118134</v>
+        <v>1.11665059614977</v>
       </c>
       <c r="D58" s="4" t="n">
         <v>1</v>
@@ -6408,7 +6408,7 @@
         <v/>
       </c>
       <c r="B59" s="4" t="n">
-        <v>6.931435343902229</v>
+        <v>6.969389812201537</v>
       </c>
       <c r="C59" s="4" t="n">
         <v>1</v>
@@ -6704,61 +6704,61 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.1331806330564825</v>
+        <v>0.1321866617521104</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.1545033241349816</v>
+        <v>0.1406157940581375</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.155737331003861</v>
+        <v>0.1626503076074951</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.1971792447276714</v>
+        <v>0.1769705003747989</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.1233527387836933</v>
+        <v>0.1227484135912654</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.1421149876036561</v>
+        <v>0.1355297471939653</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.1509791292980156</v>
+        <v>0.1627016526819542</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.1867208072411809</v>
+        <v>0.1763512987127655</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.1740250892981843</v>
+        <v>0.1695084968110318</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="22" t="n">
-        <v>6.09149964838798</v>
+        <v>6.155654401761478</v>
       </c>
       <c r="O2" s="22" t="n">
-        <v>5.48764289999128</v>
+        <v>6.027076170505604</v>
       </c>
       <c r="P2" s="22" t="n">
-        <v>5.424763600918047</v>
+        <v>5.327105569184444</v>
       </c>
       <c r="Q2" s="22" t="n">
-        <v>4.356209149150525</v>
+        <v>5.011903162597059</v>
       </c>
       <c r="R2" s="22" t="n">
-        <v>6.610204042215299</v>
+        <v>6.657381149443622</v>
       </c>
       <c r="S2" s="22" t="n">
-        <v>5.967109394599421</v>
+        <v>6.241846012187277</v>
       </c>
       <c r="T2" s="22" t="n">
-        <v>5.60662818998217</v>
+        <v>5.30633853665233</v>
       </c>
       <c r="U2" s="22" t="n">
-        <v>4.611625894259329</v>
+        <v>4.970919255925884</v>
       </c>
       <c r="V2" s="22" t="n">
-        <v>4.890486375034286</v>
+        <v>5.169504365890751</v>
       </c>
     </row>
     <row r="3">
@@ -6767,62 +6767,62 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.8112697794356519</v>
+        <v>0.8136954062685342</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.847859069714383</v>
+        <v>0.8475021015645239</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.844838204533871</v>
+        <v>0.8664553594854499</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.8589540299052726</v>
+        <v>0.8869590105148384</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.8153867725262972</v>
+        <v>0.8171829747665994</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.8480156776431568</v>
+        <v>0.8459558120554024</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.8464838424212174</v>
+        <v>0.8633500496032763</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.8610865096704345</v>
+        <v>0.8766280665788234</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.8518376427994259</v>
+        <v>0.8765873046932618</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="22" t="n">
-        <v>1.14635962133866</v>
+        <v>1.144879423220108</v>
       </c>
       <c r="O3" s="22" t="n">
-        <v>1.11482422382494</v>
+        <v>1.118150144882612</v>
       </c>
       <c r="P3" s="22" t="n">
-        <v>1.124133527471628</v>
+        <v>1.105331889257402</v>
       </c>
       <c r="Q3" s="22" t="n">
-        <v>1.118541738815317</v>
+        <v>1.075756083436132</v>
       </c>
       <c r="R3" s="22" t="n">
-        <v>1.143428825418764</v>
+        <v>1.142496572116342</v>
       </c>
       <c r="S3" s="22" t="n">
-        <v>1.115846092738395</v>
+        <v>1.120291011070033</v>
       </c>
       <c r="T3" s="22" t="n">
-        <v>1.122358705683163</v>
+        <v>1.107827614172148</v>
       </c>
       <c r="U3" s="22" t="n">
-        <v>1.115273419819103</v>
+        <v>1.086106931428175</v>
       </c>
       <c r="V3" s="22" t="n">
-        <v>1.121337633143473</v>
+        <v>1.090543986346767</v>
       </c>
     </row>
     <row r="4">
@@ -6831,62 +6831,62 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.9300069171573517</v>
+        <v>0.9315831274055705</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.9452138293072726</v>
+        <v>0.9476345976526908</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.9497109510054577</v>
+        <v>0.9577207394572539</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.9607759341726673</v>
+        <v>0.95415155131983</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.932336739571741</v>
+        <v>0.9336287474626748</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.9462549804790187</v>
+        <v>0.9477166920081174</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.950058509761588</v>
+        <v>0.9564430256474031</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.9603468964002402</v>
+        <v>0.9521118193957401</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.9552114000104297</v>
+        <v>0.955932813810376</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1.030917992198098</v>
+        <v>1.03236677553259</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>1.024008778240682</v>
+        <v>1.023028651836153</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>1.017821971208228</v>
+        <v>1.01680416231238</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>1.00800355331654</v>
+        <v>1.013626836837678</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>1.029724365872877</v>
+        <v>1.03122155333806</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>1.022430533520257</v>
+        <v>1.022665044330439</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>1.017152560870728</v>
+        <v>1.017797467711484</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>1.007322259570652</v>
+        <v>1.016193169696012</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>1.012912762262384</v>
+        <v>1.015215499575029</v>
       </c>
     </row>
     <row r="5">
@@ -6895,62 +6895,62 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.9587608637662001</v>
+        <v>0.961735469380255</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.9679072585251367</v>
+        <v>0.9694573448699277</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.9666366722304162</v>
+        <v>0.9738144342130267</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.9684655555870665</v>
+        <v>0.9671536188280823</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.9600498579354967</v>
+        <v>0.9627780871995271</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.9674799845373637</v>
+        <v>0.9691967328451787</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.9663544461810266</v>
+        <v>0.9734652895142365</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>0.9673788056535532</v>
+        <v>0.9675295276567942</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.9675502496612913</v>
+        <v>0.970472597568511</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="22" t="n">
-        <v>1.015101606549769</v>
+        <v>1.013153893081898</v>
       </c>
       <c r="O5" s="22" t="n">
-        <v>1.010867143558269</v>
+        <v>1.010346958352574</v>
       </c>
       <c r="P5" s="22" t="n">
-        <v>1.011651580758865</v>
+        <v>1.00989933696023</v>
       </c>
       <c r="Q5" s="22" t="n">
-        <v>1.013818230725892</v>
+        <v>1.01453118087465</v>
       </c>
       <c r="R5" s="22" t="n">
-        <v>1.01436192088006</v>
+        <v>1.012513475168864</v>
       </c>
       <c r="S5" s="22" t="n">
-        <v>1.010972201586981</v>
+        <v>1.010171054517004</v>
       </c>
       <c r="T5" s="22" t="n">
-        <v>1.012207680802141</v>
+        <v>1.00988707354456</v>
       </c>
       <c r="U5" s="22" t="n">
-        <v>1.014965440624193</v>
+        <v>1.014141502366635</v>
       </c>
       <c r="V5" s="22" t="n">
-        <v>1.012734905742379</v>
+        <v>1.01221525891744</v>
       </c>
     </row>
     <row r="6">
@@ -6959,62 +6959,62 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.9732396931061136</v>
+        <v>0.9743860349175516</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.9784256456546204</v>
+        <v>0.9794882796418938</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.9778995174813896</v>
+        <v>0.9834545514340374</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.9818480360842481</v>
+        <v>0.9812075029968451</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.9738380180360791</v>
+        <v>0.9748257868868245</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.9780953699590768</v>
+        <v>0.9790544856526492</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.9781513928017342</v>
+        <v>0.9830900124247407</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>0.9818560557306637</v>
+        <v>0.981211848761942</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.9798697990258041</v>
+        <v>0.9823297422039382</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1.008490695982383</v>
+        <v>1.008745090051387</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>1.00740513654294</v>
+        <v>1.007094922087638</v>
       </c>
       <c r="P6" s="22" t="n">
-        <v>1.008761543136318</v>
+        <v>1.004713058638529</v>
       </c>
       <c r="Q6" s="22" t="n">
-        <v>1.003698659129597</v>
+        <v>1.002624931509264</v>
       </c>
       <c r="R6" s="22" t="n">
-        <v>1.008339301712559</v>
+        <v>1.008511711950932</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>1.00757151374115</v>
+        <v>1.007381183764446</v>
       </c>
       <c r="T6" s="22" t="n">
-        <v>1.008481084098061</v>
+        <v>1.004792566860537</v>
       </c>
       <c r="U6" s="22" t="n">
-        <v>1.003554884041939</v>
+        <v>1.002760130008834</v>
       </c>
       <c r="V6" s="22" t="n">
-        <v>1.006230101132957</v>
+        <v>1.003668995073896</v>
       </c>
     </row>
     <row r="7">
@@ -7023,62 +7023,62 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.9815031754582654</v>
+        <v>0.9829071285377194</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.9856710211578075</v>
+        <v>0.9864376726717075</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.9864674262867873</v>
+        <v>0.988089630403274</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.9854795572867876</v>
+        <v>0.9837831054885879</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.981959147087642</v>
+        <v>0.983123223187146</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.9855010324928772</v>
+        <v>0.9862810667266563</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>0.9864471770247216</v>
+        <v>0.9878015370392125</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>0.985346440154662</v>
+        <v>0.9839201210307331</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.9859732443447493</v>
+        <v>0.9859316652700172</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="22" t="n">
-        <v>1.00494830245083</v>
+        <v>1.004498236887433</v>
       </c>
       <c r="O7" s="22" t="n">
-        <v>1.003877366201664</v>
+        <v>1.004133917890651</v>
       </c>
       <c r="P7" s="22" t="n">
-        <v>1.001178078214087</v>
+        <v>1.001218969661374</v>
       </c>
       <c r="Q7" s="22" t="n">
-        <v>1.000092192789833</v>
+        <v>1.000337136894046</v>
       </c>
       <c r="R7" s="22" t="n">
-        <v>1.004794151199118</v>
+        <v>1.004356863752093</v>
       </c>
       <c r="S7" s="22" t="n">
-        <v>1.003788975792642</v>
+        <v>1.003864285462747</v>
       </c>
       <c r="T7" s="22" t="n">
-        <v>1.00116901934631</v>
+        <v>1.001200150422885</v>
       </c>
       <c r="U7" s="22" t="n">
-        <v>1.000095946406192</v>
+        <v>1.000337422935917</v>
       </c>
       <c r="V7" s="22" t="n">
-        <v>1.00063513550196</v>
+        <v>1.00077805327771</v>
       </c>
     </row>
     <row r="8">
@@ -7087,62 +7087,62 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.9863599500268828</v>
+        <v>0.9873284776402285</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.9894928286612047</v>
+        <v>0.9905155250147771</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.9876295620706018</v>
+        <v>0.9892940816854541</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.9855704113964968</v>
+        <v>0.9841147750691875</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.9866668077101372</v>
+        <v>0.9874065571220905</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.9892350720486166</v>
+        <v>0.9900923383149903</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>0.9876003528587761</v>
+        <v>0.9889870474716164</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>0.9854409806044492</v>
+        <v>0.9842521182466787</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.986598912310897</v>
+        <v>0.9866976317074535</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="22" t="n">
-        <v>1.004469649337989</v>
+        <v>1.003675351640605</v>
       </c>
       <c r="O8" s="22" t="n">
-        <v>1.001719497705239</v>
+        <v>1.001010761730378</v>
       </c>
       <c r="P8" s="22" t="n">
-        <v>1.00084736488365</v>
+        <v>1.000897916411208</v>
       </c>
       <c r="Q8" s="22" t="n">
-        <v>1.00057483024093</v>
+        <v>1.000438580664144</v>
       </c>
       <c r="R8" s="22" t="n">
-        <v>1.00405638106458</v>
+        <v>1.00334776988563</v>
       </c>
       <c r="S8" s="22" t="n">
-        <v>1.001808703334343</v>
+        <v>1.001098020735822</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>1.000889033744865</v>
+        <v>1.000898124190634</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>1.000596110147352</v>
+        <v>1.000455304008704</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1.00071109756229</v>
+        <v>1.000668248537676</v>
       </c>
     </row>
     <row r="9">
@@ -7151,62 +7151,62 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.9907686331245397</v>
+        <v>0.990957256980339</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.9911942593094376</v>
+        <v>0.9915167002008071</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.9884664446795546</v>
+        <v>0.9901823850769105</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.9861369470735333</v>
+        <v>0.9845463887808317</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.9906691042659825</v>
+        <v>0.9907121670588976</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.99102430482188</v>
+        <v>0.9911794802328386</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>0.9884783628989086</v>
+        <v>0.989875280663174</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>0.9860284119726043</v>
+        <v>0.984700252181692</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.9873003217881778</v>
+        <v>0.9873563441903769</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="22" t="n">
-        <v>1.001665640504714</v>
+        <v>1.001920184150422</v>
       </c>
       <c r="O9" s="22" t="n">
-        <v>1.001748156563586</v>
+        <v>1.001674498845118</v>
       </c>
       <c r="P9" s="22" t="n">
-        <v>1.001560789098142</v>
+        <v>1.001250542870958</v>
       </c>
       <c r="Q9" s="22" t="n">
-        <v>1.000113193288239</v>
+        <v>1.002015120264725</v>
       </c>
       <c r="R9" s="22" t="n">
-        <v>1.001668890701866</v>
+        <v>1.001990912335828</v>
       </c>
       <c r="S9" s="22" t="n">
-        <v>1.001737478277667</v>
+        <v>1.001791425775244</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>1.001494031378336</v>
+        <v>1.001338008286291</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>1.000117497144347</v>
+        <v>1.002098057201304</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1.00083699119319</v>
+        <v>1.001632831567842</v>
       </c>
     </row>
     <row r="10">
@@ -7215,62 +7215,62 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.9924188974906718</v>
+        <v>0.9928600773989379</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.9929270220596377</v>
+        <v>0.9931769937702086</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>0.99000923233029</v>
+        <v>0.9914206505995166</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.9862485711572261</v>
+        <v>0.9865303681604258</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.992322422722718</v>
+        <v>0.9926845881335498</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.9927461880241477</v>
+        <v>0.9929551047016205</v>
       </c>
       <c r="H10" s="34" t="n">
-        <v>0.9899551805898862</v>
+        <v>0.9911997419910961</v>
       </c>
       <c r="I10" s="34" t="n">
-        <v>0.9861442674952557</v>
+        <v>0.9867662096369072</v>
       </c>
       <c r="J10" s="34" t="n">
-        <v>0.9881253236244374</v>
+        <v>0.9889694640173441</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
         <v/>
       </c>
       <c r="N10" s="22" t="n">
-        <v>1.000509768770606</v>
+        <v>1.000563038355189</v>
       </c>
       <c r="O10" s="22" t="n">
-        <v>1.000509832480309</v>
+        <v>1.000527406580378</v>
       </c>
       <c r="P10" s="22" t="n">
-        <v>1.000352677387806</v>
+        <v>1.000338721382663</v>
       </c>
       <c r="Q10" s="22" t="n">
-        <v>1.000299677081604</v>
+        <v>1.000225768918228</v>
       </c>
       <c r="R10" s="22" t="n">
-        <v>1.000495147545759</v>
+        <v>1.000542062940118</v>
       </c>
       <c r="S10" s="22" t="n">
-        <v>1.000488127606124</v>
+        <v>1.000508509792797</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>1.000343824495547</v>
+        <v>1.000349023745519</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>1.000303945811263</v>
+        <v>1.000234576971792</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>1.000326177234705</v>
+        <v>1.000282245150445</v>
       </c>
     </row>
     <row r="11">
@@ -7279,62 +7279,62 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.9929248016519717</v>
+        <v>0.9934190957038492</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.9934332485060607</v>
+        <v>0.9937008018522033</v>
       </c>
       <c r="D11" s="34" t="n">
-        <v>0.9903583862002524</v>
+        <v>0.991756465973088</v>
       </c>
       <c r="E11" s="34" t="n">
-        <v>0.9865441272507666</v>
+        <v>0.9867530960544443</v>
       </c>
       <c r="F11" s="34" t="n">
-        <v>0.992813768734931</v>
+        <v>0.9932226856600029</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>0.9932307748443967</v>
+        <v>0.9934600320961688</v>
       </c>
       <c r="H11" s="34" t="n">
-        <v>0.9902955514304668</v>
+        <v>0.9915456942376033</v>
       </c>
       <c r="I11" s="34" t="n">
-        <v>0.986444001914662</v>
+        <v>0.9869976822662304</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>0.988447577087481</v>
+        <v>0.9892484546075099</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
         <v/>
       </c>
       <c r="N11" s="22" t="n">
-        <v>1.003208269768124</v>
+        <v>1.00232908610925</v>
       </c>
       <c r="O11" s="22" t="n">
-        <v>1.002642949382573</v>
+        <v>1.002355795569101</v>
       </c>
       <c r="P11" s="22" t="n">
-        <v>1.004258492248916</v>
+        <v>1.002040046757207</v>
       </c>
       <c r="Q11" s="22" t="n">
-        <v>1.003610027085134</v>
+        <v>1.001715879794817</v>
       </c>
       <c r="R11" s="22" t="n">
-        <v>1.003106700074835</v>
+        <v>1.002327950412723</v>
       </c>
       <c r="S11" s="22" t="n">
-        <v>1.002647137113553</v>
+        <v>1.002341194568176</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>1.00393385075745</v>
+        <v>1.001962546225084</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>1.003442940649277</v>
+        <v>1.001719690598569</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>1.003934259667025</v>
+        <v>1.001877963276012</v>
       </c>
     </row>
     <row r="12">
@@ -7343,62 +7343,62 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.9961103722751322</v>
+        <v>0.995732854320317</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.9960588422968272</v>
+        <v>0.9960417577982186</v>
       </c>
       <c r="D12" s="34" t="n">
-        <v>0.9945758197115347</v>
+        <v>0.9937796955354351</v>
       </c>
       <c r="E12" s="34" t="n">
-        <v>0.9901055782708217</v>
+        <v>0.988446245754437</v>
       </c>
       <c r="F12" s="34" t="n">
-        <v>0.9958981433445573</v>
+        <v>0.9955348588210107</v>
       </c>
       <c r="G12" s="34" t="n">
-        <v>0.9958599928908102</v>
+        <v>0.9957859153270128</v>
       </c>
       <c r="H12" s="34" t="n">
-        <v>0.9941912263355605</v>
+        <v>0.9934916484968278</v>
       </c>
       <c r="I12" s="34" t="n">
-        <v>0.9898402700670899</v>
+        <v>0.9886950129012331</v>
       </c>
       <c r="J12" s="34" t="n">
-        <v>0.9923356646671404</v>
+        <v>0.9911057954571902</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
         <v/>
       </c>
       <c r="N12" s="22" t="n">
-        <v>1.00071283025237</v>
+        <v>1.001007794856653</v>
       </c>
       <c r="O12" s="22" t="n">
-        <v>1.000764600999481</v>
+        <v>1.000697351256456</v>
       </c>
       <c r="P12" s="22" t="n">
-        <v>1.000302282082476</v>
+        <v>1.000968909063273</v>
       </c>
       <c r="Q12" s="22" t="n">
-        <v>1.000512393166526</v>
+        <v>1.001835518789074</v>
       </c>
       <c r="R12" s="22" t="n">
-        <v>1.000664244862472</v>
+        <v>1.001052882211092</v>
       </c>
       <c r="S12" s="22" t="n">
-        <v>1.000702579362565</v>
+        <v>1.000800497802894</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>1.000301060965815</v>
+        <v>1.001122946681288</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>1.00047693451907</v>
+        <v>1.002006576042658</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>1.000407337624501</v>
+        <v>1.001402213926173</v>
       </c>
     </row>
     <row r="13">
@@ -7407,62 +7407,62 @@
         <v/>
       </c>
       <c r="B13" s="34" t="n">
-        <v>0.9968204298831893</v>
+        <v>0.9967363487695015</v>
       </c>
       <c r="C13" s="34" t="n">
-        <v>0.9968204298831893</v>
+        <v>0.9967363487695015</v>
       </c>
       <c r="D13" s="34" t="n">
-        <v>0.9948764621614975</v>
+        <v>0.9947425776893355</v>
       </c>
       <c r="E13" s="34" t="n">
-        <v>0.9906129016032665</v>
+        <v>0.9902605574105084</v>
       </c>
       <c r="F13" s="34" t="n">
-        <v>0.9965596635698188</v>
+        <v>0.9965830397643852</v>
       </c>
       <c r="G13" s="34" t="n">
-        <v>0.9965596635698188</v>
+        <v>0.9965830397643852</v>
       </c>
       <c r="H13" s="34" t="n">
-        <v>0.9944905385063658</v>
+        <v>0.9946072866463951</v>
       </c>
       <c r="I13" s="34" t="n">
-        <v>0.9903123590602505</v>
+        <v>0.9906789046276155</v>
       </c>
       <c r="J13" s="34" t="n">
-        <v>0.9927401041825552</v>
+        <v>0.9924965074808914</v>
       </c>
       <c r="M13">
         <f>+M12+1</f>
         <v/>
       </c>
       <c r="N13" s="22" t="n">
-        <v>1.001423959052377</v>
+        <v>1.001456733242118</v>
       </c>
       <c r="O13" s="22" t="n">
-        <v>1.001423959052377</v>
+        <v>1.001456733242118</v>
       </c>
       <c r="P13" s="22" t="n">
-        <v>1.002563299505413</v>
+        <v>1.002686214684954</v>
       </c>
       <c r="Q13" s="22" t="n">
-        <v>1.005331079067393</v>
+        <v>1.005545380727735</v>
       </c>
       <c r="R13" s="22" t="n">
-        <v>1.001785757313057</v>
+        <v>1.001762259081758</v>
       </c>
       <c r="S13" s="22" t="n">
-        <v>1.001785757313057</v>
+        <v>1.001762259081758</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>1.003190563546405</v>
+        <v>1.003124150286808</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>1.005971878352834</v>
+        <v>1.005713087191129</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>1.003947189286403</v>
+        <v>1.004115797706344</v>
       </c>
     </row>
     <row r="14">
@@ -7471,47 +7471,47 @@
         <v/>
       </c>
       <c r="B14" s="34" t="n">
-        <v>0.9982398613579153</v>
+        <v>0.998188327742381</v>
       </c>
       <c r="C14" s="34" t="n">
-        <v>0.9982398613579153</v>
+        <v>0.998188327742381</v>
       </c>
       <c r="D14" s="34" t="n">
-        <v>0.9974266285049026</v>
+        <v>0.9974146698092735</v>
       </c>
       <c r="E14" s="34" t="n">
-        <v>0.9958939373068931</v>
+        <v>0.9957519292210085</v>
       </c>
       <c r="F14" s="34" t="n">
-        <v>0.9983392772769366</v>
+        <v>0.9983392772769364</v>
       </c>
       <c r="G14" s="34" t="n">
-        <v>0.9983392772769366</v>
+        <v>0.9983392772769364</v>
       </c>
       <c r="H14" s="34" t="n">
-        <v>0.9976635237657691</v>
+        <v>0.9977145892862325</v>
       </c>
       <c r="I14" s="34" t="n">
-        <v>0.9962263839998664</v>
+        <v>0.9963387395881657</v>
       </c>
       <c r="J14" s="34" t="n">
-        <v>0.9966596936523806</v>
+        <v>0.9965826059689356</v>
       </c>
       <c r="M14">
         <f>+M13+1</f>
         <v/>
       </c>
       <c r="N14" s="22" t="n">
-        <v>1.000146449928482</v>
+        <v>1.000150057472538</v>
       </c>
       <c r="O14" s="22" t="n">
-        <v>1.000146449928482</v>
+        <v>1.000150057472538</v>
       </c>
       <c r="P14" s="22" t="n">
-        <v>1.000090296956033</v>
+        <v>1.000056394747006</v>
       </c>
       <c r="Q14" s="22" t="n">
-        <v>1.00012456345658</v>
+        <v>1</v>
       </c>
       <c r="R14" s="22" t="n">
         <v>1.000150024732893</v>
@@ -7520,13 +7520,13 @@
         <v>1.000150024732893</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>1.000093942492399</v>
+        <v>1.000056390590584</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>1.000112781181169</v>
+        <v>1</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>1.000107430206307</v>
+        <v>1.000028197373503</v>
       </c>
     </row>
     <row r="15">
@@ -7535,16 +7535,16 @@
         <v/>
       </c>
       <c r="B15" s="34" t="n">
-        <v>0.9983860535142189</v>
+        <v>0.9983381133599588</v>
       </c>
       <c r="C15" s="34" t="n">
-        <v>0.9983860535142189</v>
+        <v>0.9983381133599588</v>
       </c>
       <c r="D15" s="34" t="n">
-        <v>0.9975166930933234</v>
+        <v>0.9974709187572375</v>
       </c>
       <c r="E15" s="34" t="n">
-        <v>0.996017989298111</v>
+        <v>0.9957519292210085</v>
       </c>
       <c r="F15" s="34" t="n">
         <v>0.9984890528603467</v>
@@ -7553,26 +7553,26 @@
         <v>0.9984890528603467</v>
       </c>
       <c r="H15" s="34" t="n">
-        <v>0.9977572467637669</v>
+        <v>0.9977708510011569</v>
       </c>
       <c r="I15" s="34" t="n">
         <v>0.9963387395881657</v>
       </c>
       <c r="J15" s="34" t="n">
-        <v>0.9967667778463344</v>
+        <v>0.9966106827461084</v>
       </c>
       <c r="M15">
         <f>+M14+1</f>
         <v/>
       </c>
       <c r="N15" s="22" t="n">
-        <v>1.000023542122621</v>
+        <v>1.000024496716257</v>
       </c>
       <c r="O15" s="22" t="n">
-        <v>1.000023542122621</v>
+        <v>1.000024496716257</v>
       </c>
       <c r="P15" s="22" t="n">
-        <v>1.000012758061559</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="22" t="n">
         <v>1</v>
@@ -7584,13 +7584,13 @@
         <v>1.00002377866867</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>1.00001363481692</v>
+        <v>1</v>
       </c>
       <c r="U15" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>1.00000637903078</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -7599,16 +7599,16 @@
         <v/>
       </c>
       <c r="B16" s="34" t="n">
-        <v>0.9984095576411136</v>
+        <v>0.9983625693654501</v>
       </c>
       <c r="C16" s="34" t="n">
-        <v>0.9984095576411136</v>
+        <v>0.9983625693654501</v>
       </c>
       <c r="D16" s="34" t="n">
-        <v>0.9975294194727002</v>
+        <v>0.9974709187572375</v>
       </c>
       <c r="E16" s="34" t="n">
-        <v>0.996017989298111</v>
+        <v>0.9957519292210085</v>
       </c>
       <c r="F16" s="34" t="n">
         <v>0.9985127956007054</v>
@@ -7617,29 +7617,29 @@
         <v>0.9985127956007054</v>
       </c>
       <c r="H16" s="34" t="n">
-        <v>0.9977708510011571</v>
+        <v>0.9977708510011569</v>
       </c>
       <c r="I16" s="34" t="n">
         <v>0.9963387395881657</v>
       </c>
       <c r="J16" s="34" t="n">
-        <v>0.996773131431594</v>
+        <v>0.9966106827461084</v>
       </c>
       <c r="M16">
         <f>+M15+1</f>
         <v/>
       </c>
       <c r="N16" s="22" t="n">
-        <v>1.001592975895227</v>
+        <v>1.001640116211078</v>
       </c>
       <c r="O16" s="22" t="n">
-        <v>1.001592975895227</v>
+        <v>1.001640116211078</v>
       </c>
       <c r="P16" s="22" t="n">
-        <v>1.002476699412641</v>
+        <v>1.002535493712352</v>
       </c>
       <c r="Q16" s="22" t="n">
-        <v>1.003997930503941</v>
+        <v>1.004266193872519</v>
       </c>
       <c r="R16" s="22" t="n">
         <v>1.001489419470484</v>
@@ -7654,7 +7654,7 @@
         <v>1.003674714498553</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>1.003237314958291</v>
+        <v>1.003400843792435</v>
       </c>
     </row>
     <row r="17">
@@ -8234,7 +8234,7 @@
         </is>
       </c>
       <c r="H4" s="8" t="n">
-        <v>45808</v>
+        <v>45838</v>
       </c>
       <c r="J4" s="40" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v>145690.33</v>
+        <v>140082.3300000001</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8582,7 +8582,7 @@
         <v/>
       </c>
       <c r="I8" s="14" t="n">
-        <v>143763.3941666667</v>
+        <v>146003.0475</v>
       </c>
       <c r="J8" s="14">
         <f>100*$G8/$I8</f>
@@ -8605,76 +8605,76 @@
         <v/>
       </c>
       <c r="S8" s="22" t="n">
-        <v>20066.04</v>
+        <v>13126.29</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>117598.31</v>
+        <v>107790.95</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>133840.01</v>
+        <v>124825.97</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>135145.97</v>
+        <v>128047.06</v>
       </c>
       <c r="W8" s="22" t="n">
-        <v>140424.18</v>
+        <v>132279.27</v>
       </c>
       <c r="X8" s="22" t="n">
-        <v>140841.92</v>
+        <v>134740.34</v>
       </c>
       <c r="Y8" s="22" t="n">
-        <v>142088.15</v>
+        <v>135644</v>
       </c>
       <c r="Z8" s="22" t="n">
-        <v>143830.11</v>
+        <v>139003.39</v>
       </c>
       <c r="AA8" s="22" t="n">
-        <v>143943.64</v>
+        <v>139389.3400000001</v>
       </c>
       <c r="AB8" s="22" t="n">
-        <v>143943.64</v>
+        <v>139461.4700000001</v>
       </c>
       <c r="AC8" s="22" t="n">
-        <v>145619.52</v>
+        <v>139473.4000000001</v>
       </c>
       <c r="AD8" s="22" t="n">
-        <v>145649.26</v>
+        <v>140042.6600000001</v>
       </c>
       <c r="AE8" s="22" t="n">
-        <v>145690.33</v>
+        <v>140082.3300000001</v>
       </c>
       <c r="AF8" s="22" t="n">
-        <v>145690.33</v>
+        <v>140082.3300000001</v>
       </c>
       <c r="AG8" s="22" t="n">
-        <v>145690.33</v>
+        <v>140082.3300000001</v>
       </c>
       <c r="AH8" s="22" t="n">
-        <v>145690.33</v>
+        <v>140082.3300000001</v>
       </c>
       <c r="AI8" s="22" t="n">
-        <v>145690.33</v>
+        <v>140082.3300000001</v>
       </c>
       <c r="AJ8" s="22" t="n">
-        <v>145690.33</v>
+        <v>140082.3300000001</v>
       </c>
       <c r="AK8" s="22" t="n">
-        <v>145690.33</v>
+        <v>140082.3300000001</v>
       </c>
       <c r="AL8" s="22" t="n">
-        <v>145690.33</v>
+        <v>140082.3300000001</v>
       </c>
       <c r="AM8" s="22" t="n">
-        <v>145690.33</v>
+        <v>140082.3300000001</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v>145690.33</v>
+        <v>140082.3300000001</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v>145690.33</v>
+        <v>140082.3300000001</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v>145690.33</v>
+        <v>140082.3300000001</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -8685,7 +8685,7 @@
         <v/>
       </c>
       <c r="B9" s="14" t="n">
-        <v>140082.3300000001</v>
+        <v>134014.34</v>
       </c>
       <c r="C9" s="14">
         <f>+'Completion Factors'!J29</f>
@@ -8709,7 +8709,7 @@
         <v/>
       </c>
       <c r="I9" s="14" t="n">
-        <v>146003.0475</v>
+        <v>146622.8866666667</v>
       </c>
       <c r="J9" s="14">
         <f>100*$G9/$I9</f>
@@ -8732,73 +8732,73 @@
         <v/>
       </c>
       <c r="S9" s="22" t="n">
-        <v>13126.29</v>
+        <v>25423.4</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>107790.95</v>
+        <v>95324.26999999999</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>124825.97</v>
+        <v>116697.47</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>128047.06</v>
+        <v>126072.43</v>
       </c>
       <c r="W9" s="22" t="n">
-        <v>132279.27</v>
+        <v>129405.33</v>
       </c>
       <c r="X9" s="22" t="n">
-        <v>134740.34</v>
+        <v>132387.28</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v>135644</v>
+        <v>132683.18</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>139003.39</v>
+        <v>132852.99</v>
       </c>
       <c r="AA9" s="22" t="n">
-        <v>139389.3400000001</v>
+        <v>133138.76</v>
       </c>
       <c r="AB9" s="22" t="n">
-        <v>139461.4700000001</v>
+        <v>133278.85</v>
       </c>
       <c r="AC9" s="22" t="n">
-        <v>139473.4000000001</v>
+        <v>133866.8</v>
       </c>
       <c r="AD9" s="22" t="n">
-        <v>140042.6600000001</v>
+        <v>133904</v>
       </c>
       <c r="AE9" s="22" t="n">
-        <v>140082.3300000001</v>
+        <v>133904</v>
       </c>
       <c r="AF9" s="22" t="n">
-        <v>140082.3300000001</v>
+        <v>133993.44</v>
       </c>
       <c r="AG9" s="22" t="n">
-        <v>140082.3300000001</v>
+        <v>134014.34</v>
       </c>
       <c r="AH9" s="22" t="n">
-        <v>140082.3300000001</v>
+        <v>134014.34</v>
       </c>
       <c r="AI9" s="22" t="n">
-        <v>140082.3300000001</v>
+        <v>134014.34</v>
       </c>
       <c r="AJ9" s="22" t="n">
-        <v>140082.3300000001</v>
+        <v>134014.34</v>
       </c>
       <c r="AK9" s="22" t="n">
-        <v>140082.3300000001</v>
+        <v>134014.34</v>
       </c>
       <c r="AL9" s="22" t="n">
-        <v>140082.3300000001</v>
+        <v>134014.34</v>
       </c>
       <c r="AM9" s="22" t="n">
-        <v>140082.3300000001</v>
+        <v>134014.34</v>
       </c>
       <c r="AN9" s="22" t="n">
-        <v>140082.3300000001</v>
+        <v>134014.34</v>
       </c>
       <c r="AO9" s="22" t="n">
-        <v>140082.3300000001</v>
+        <v>134014.34</v>
       </c>
       <c r="AP9" s="22" t="n">
         <v/>
@@ -8812,7 +8812,7 @@
         <v/>
       </c>
       <c r="B10" s="14" t="n">
-        <v>134014.34</v>
+        <v>129422.43</v>
       </c>
       <c r="C10" s="14">
         <f>+'Completion Factors'!J28</f>
@@ -8836,7 +8836,7 @@
         <v/>
       </c>
       <c r="I10" s="14" t="n">
-        <v>146622.8866666667</v>
+        <v>146738.5158333333</v>
       </c>
       <c r="J10" s="14">
         <f>100*$G10/$I10</f>
@@ -8859,70 +8859,70 @@
         <v/>
       </c>
       <c r="S10" s="22" t="n">
-        <v>25423.4</v>
+        <v>9112.969999999999</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>95324.26999999999</v>
+        <v>93938.06</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>116697.47</v>
+        <v>125088.64</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>126072.43</v>
+        <v>127331.75</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v>129405.33</v>
+        <v>128151.44</v>
       </c>
       <c r="X10" s="22" t="n">
-        <v>132387.28</v>
+        <v>128543.61</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>132683.18</v>
+        <v>128834.79</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>132852.99</v>
+        <v>129201.01</v>
       </c>
       <c r="AA10" s="22" t="n">
-        <v>133138.76</v>
+        <v>129218.53</v>
       </c>
       <c r="AB10" s="22" t="n">
-        <v>133278.85</v>
+        <v>129277.86</v>
       </c>
       <c r="AC10" s="22" t="n">
-        <v>133866.8</v>
+        <v>129338.37</v>
       </c>
       <c r="AD10" s="22" t="n">
-        <v>133904</v>
+        <v>129422.43</v>
       </c>
       <c r="AE10" s="22" t="n">
-        <v>133904</v>
+        <v>129422.43</v>
       </c>
       <c r="AF10" s="22" t="n">
-        <v>133993.44</v>
+        <v>129422.43</v>
       </c>
       <c r="AG10" s="22" t="n">
-        <v>134014.34</v>
+        <v>129422.43</v>
       </c>
       <c r="AH10" s="22" t="n">
-        <v>134014.34</v>
+        <v>129422.43</v>
       </c>
       <c r="AI10" s="22" t="n">
-        <v>134014.34</v>
+        <v>129422.43</v>
       </c>
       <c r="AJ10" s="22" t="n">
-        <v>134014.34</v>
+        <v>129422.43</v>
       </c>
       <c r="AK10" s="22" t="n">
-        <v>134014.34</v>
+        <v>129422.43</v>
       </c>
       <c r="AL10" s="22" t="n">
-        <v>134014.34</v>
+        <v>129422.43</v>
       </c>
       <c r="AM10" s="22" t="n">
-        <v>134014.34</v>
+        <v>129422.43</v>
       </c>
       <c r="AN10" s="22" t="n">
-        <v>134014.34</v>
+        <v>129422.43</v>
       </c>
       <c r="AO10" s="22" t="n">
         <v/>
@@ -8939,7 +8939,7 @@
         <v/>
       </c>
       <c r="B11" s="14" t="n">
-        <v>129422.43</v>
+        <v>115278.06</v>
       </c>
       <c r="C11" s="14">
         <f>+'Completion Factors'!J27</f>
@@ -8963,7 +8963,7 @@
         <v/>
       </c>
       <c r="I11" s="14" t="n">
-        <v>146738.5158333333</v>
+        <v>144800.61</v>
       </c>
       <c r="J11" s="14">
         <f>100*$G11/$I11</f>
@@ -8986,67 +8986,67 @@
         <v/>
       </c>
       <c r="S11" s="22" t="n">
-        <v>9112.969999999999</v>
+        <v>17461.78</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>93938.06</v>
+        <v>92166.72</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>125088.64</v>
+        <v>101871.88</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>127331.75</v>
+        <v>108735.86</v>
       </c>
       <c r="W11" s="22" t="n">
-        <v>128151.44</v>
+        <v>111650.19</v>
       </c>
       <c r="X11" s="22" t="n">
-        <v>128543.61</v>
+        <v>112005.91</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>128834.79</v>
+        <v>113773.5</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>129201.01</v>
+        <v>114468.17</v>
       </c>
       <c r="AA11" s="22" t="n">
-        <v>129218.53</v>
+        <v>115074.2</v>
       </c>
       <c r="AB11" s="22" t="n">
-        <v>129277.86</v>
+        <v>115074.2</v>
       </c>
       <c r="AC11" s="22" t="n">
-        <v>129338.37</v>
+        <v>115089.27</v>
       </c>
       <c r="AD11" s="22" t="n">
-        <v>129422.43</v>
+        <v>115089.27</v>
       </c>
       <c r="AE11" s="22" t="n">
-        <v>129422.43</v>
+        <v>115220.39</v>
       </c>
       <c r="AF11" s="22" t="n">
-        <v>129422.43</v>
+        <v>115268.63</v>
       </c>
       <c r="AG11" s="22" t="n">
-        <v>129422.43</v>
+        <v>115278.06</v>
       </c>
       <c r="AH11" s="22" t="n">
-        <v>129422.43</v>
+        <v>115278.06</v>
       </c>
       <c r="AI11" s="22" t="n">
-        <v>129422.43</v>
+        <v>115278.06</v>
       </c>
       <c r="AJ11" s="22" t="n">
-        <v>129422.43</v>
+        <v>115278.06</v>
       </c>
       <c r="AK11" s="22" t="n">
-        <v>129422.43</v>
+        <v>115278.06</v>
       </c>
       <c r="AL11" s="22" t="n">
-        <v>129422.43</v>
+        <v>115278.06</v>
       </c>
       <c r="AM11" s="22" t="n">
-        <v>129422.43</v>
+        <v>115278.06</v>
       </c>
       <c r="AN11" s="22" t="n">
         <v/>
@@ -9066,7 +9066,7 @@
         <v/>
       </c>
       <c r="B12" s="14" t="n">
-        <v>115278.06</v>
+        <v>107108.37</v>
       </c>
       <c r="C12" s="14">
         <f>++'Completion Factors'!J26</f>
@@ -9090,7 +9090,7 @@
         <v/>
       </c>
       <c r="I12" s="14" t="n">
-        <v>144800.61</v>
+        <v>141149.4075</v>
       </c>
       <c r="J12" s="14">
         <f>100*$G12/$I12</f>
@@ -9113,64 +9113,64 @@
         <v/>
       </c>
       <c r="S12" s="22" t="n">
-        <v>17461.78</v>
+        <v>13761.46</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>92166.72</v>
+        <v>83365.13</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>101871.88</v>
+        <v>101054.13</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>108735.86</v>
+        <v>104050.6</v>
       </c>
       <c r="W12" s="22" t="n">
-        <v>111650.19</v>
+        <v>104382.54</v>
       </c>
       <c r="X12" s="22" t="n">
-        <v>112005.91</v>
+        <v>104854.36</v>
       </c>
       <c r="Y12" s="22" t="n">
-        <v>113773.5</v>
+        <v>105377.62</v>
       </c>
       <c r="Z12" s="22" t="n">
-        <v>114468.17</v>
+        <v>106298.78</v>
       </c>
       <c r="AA12" s="22" t="n">
-        <v>115074.2</v>
+        <v>106462.86</v>
       </c>
       <c r="AB12" s="22" t="n">
-        <v>115074.2</v>
+        <v>106498.86</v>
       </c>
       <c r="AC12" s="22" t="n">
-        <v>115089.27</v>
+        <v>106696.18</v>
       </c>
       <c r="AD12" s="22" t="n">
-        <v>115089.27</v>
+        <v>106767.87</v>
       </c>
       <c r="AE12" s="22" t="n">
-        <v>115220.39</v>
+        <v>106829.92</v>
       </c>
       <c r="AF12" s="22" t="n">
-        <v>115268.63</v>
+        <v>106853.99</v>
       </c>
       <c r="AG12" s="22" t="n">
-        <v>115278.06</v>
+        <v>106853.99</v>
       </c>
       <c r="AH12" s="22" t="n">
-        <v>115278.06</v>
+        <v>107108.37</v>
       </c>
       <c r="AI12" s="22" t="n">
-        <v>115278.06</v>
+        <v>107108.37</v>
       </c>
       <c r="AJ12" s="22" t="n">
-        <v>115278.06</v>
+        <v>107108.37</v>
       </c>
       <c r="AK12" s="22" t="n">
-        <v>115278.06</v>
+        <v>107108.37</v>
       </c>
       <c r="AL12" s="22" t="n">
-        <v>115278.06</v>
+        <v>107108.37</v>
       </c>
       <c r="AM12" s="22" t="n">
         <v/>
@@ -9193,7 +9193,7 @@
         <v/>
       </c>
       <c r="B13" s="14" t="n">
-        <v>107108.37</v>
+        <v>137351.59</v>
       </c>
       <c r="C13" s="14">
         <f>++'Completion Factors'!J25</f>
@@ -9217,7 +9217,7 @@
         <v/>
       </c>
       <c r="I13" s="14" t="n">
-        <v>141149.4075</v>
+        <v>134899.9383333333</v>
       </c>
       <c r="J13" s="14">
         <f>100*$G13/$I13</f>
@@ -9240,61 +9240,61 @@
         <v/>
       </c>
       <c r="S13" s="22" t="n">
-        <v>13761.46</v>
+        <v>14582.6</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>83365.13</v>
+        <v>117750.8</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>101054.13</v>
+        <v>130451.11</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>104050.6</v>
+        <v>133897.72</v>
       </c>
       <c r="W13" s="22" t="n">
-        <v>104382.54</v>
+        <v>135146.13</v>
       </c>
       <c r="X13" s="22" t="n">
-        <v>104854.36</v>
+        <v>136794.75</v>
       </c>
       <c r="Y13" s="22" t="n">
-        <v>105377.62</v>
+        <v>136804.81</v>
       </c>
       <c r="Z13" s="22" t="n">
-        <v>106298.78</v>
+        <v>136891.21</v>
       </c>
       <c r="AA13" s="22" t="n">
-        <v>106462.86</v>
+        <v>137044.85</v>
       </c>
       <c r="AB13" s="22" t="n">
-        <v>106498.86</v>
+        <v>137081.39</v>
       </c>
       <c r="AC13" s="22" t="n">
-        <v>106696.18</v>
+        <v>137167.48</v>
       </c>
       <c r="AD13" s="22" t="n">
-        <v>106767.87</v>
+        <v>137296.88</v>
       </c>
       <c r="AE13" s="22" t="n">
-        <v>106829.92</v>
+        <v>137351.59</v>
       </c>
       <c r="AF13" s="22" t="n">
-        <v>106853.99</v>
+        <v>137351.59</v>
       </c>
       <c r="AG13" s="22" t="n">
-        <v>106853.99</v>
+        <v>137351.59</v>
       </c>
       <c r="AH13" s="22" t="n">
-        <v>107108.37</v>
+        <v>137351.59</v>
       </c>
       <c r="AI13" s="22" t="n">
-        <v>107108.37</v>
+        <v>137351.59</v>
       </c>
       <c r="AJ13" s="22" t="n">
-        <v>107108.37</v>
+        <v>137351.59</v>
       </c>
       <c r="AK13" s="22" t="n">
-        <v>107108.37</v>
+        <v>137351.59</v>
       </c>
       <c r="AL13" s="22" t="n">
         <v/>
@@ -9320,7 +9320,7 @@
         <v/>
       </c>
       <c r="B14" s="14" t="n">
-        <v>137351.59</v>
+        <v>148545.43</v>
       </c>
       <c r="C14" s="14">
         <f>++'Completion Factors'!J24</f>
@@ -9344,7 +9344,7 @@
         <v/>
       </c>
       <c r="I14" s="14" t="n">
-        <v>134899.9383333333</v>
+        <v>132542.0908333334</v>
       </c>
       <c r="J14" s="14">
         <f>100*$G14/$I14</f>
@@ -9367,58 +9367,58 @@
         <v/>
       </c>
       <c r="S14" s="22" t="n">
-        <v>14582.6</v>
+        <v>20734.22</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>117750.8</v>
+        <v>121574.2</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>130451.11</v>
+        <v>141713.53</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>133897.72</v>
+        <v>143557.55</v>
       </c>
       <c r="W14" s="22" t="n">
-        <v>135146.13</v>
+        <v>145176.14</v>
       </c>
       <c r="X14" s="22" t="n">
-        <v>136794.75</v>
+        <v>146415.16</v>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>136804.81</v>
+        <v>146569.38</v>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>136891.21</v>
+        <v>146601.12</v>
       </c>
       <c r="AA14" s="22" t="n">
-        <v>137044.85</v>
+        <v>146674.62</v>
       </c>
       <c r="AB14" s="22" t="n">
-        <v>137081.39</v>
+        <v>146764</v>
       </c>
       <c r="AC14" s="22" t="n">
-        <v>137167.48</v>
+        <v>146862.52</v>
       </c>
       <c r="AD14" s="22" t="n">
-        <v>137296.88</v>
+        <v>146910.28</v>
       </c>
       <c r="AE14" s="22" t="n">
-        <v>137351.59</v>
+        <v>146925.7</v>
       </c>
       <c r="AF14" s="22" t="n">
-        <v>137351.59</v>
+        <v>146925.7</v>
       </c>
       <c r="AG14" s="22" t="n">
-        <v>137351.59</v>
+        <v>146925.7</v>
       </c>
       <c r="AH14" s="22" t="n">
-        <v>137351.59</v>
+        <v>148545.43</v>
       </c>
       <c r="AI14" s="22" t="n">
-        <v>137351.59</v>
+        <v>148545.43</v>
       </c>
       <c r="AJ14" s="22" t="n">
-        <v>137351.59</v>
+        <v>148545.43</v>
       </c>
       <c r="AK14" s="22" t="n">
         <v/>
@@ -9447,7 +9447,7 @@
         <v/>
       </c>
       <c r="B15" s="14" t="n">
-        <v>148545.43</v>
+        <v>120864.82</v>
       </c>
       <c r="C15" s="14">
         <f>++'Completion Factors'!J23</f>
@@ -9471,7 +9471,7 @@
         <v/>
       </c>
       <c r="I15" s="14" t="n">
-        <v>132542.0908333334</v>
+        <v>129006.9441666667</v>
       </c>
       <c r="J15" s="14">
         <f>100*$G15/$I15</f>
@@ -9494,55 +9494,55 @@
         <v/>
       </c>
       <c r="S15" s="22" t="n">
-        <v>20734.22</v>
+        <v>12112.64</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>121574.2</v>
+        <v>87657.81</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>141713.53</v>
+        <v>106574.9</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>143557.55</v>
+        <v>115607.29</v>
       </c>
       <c r="W15" s="22" t="n">
-        <v>145176.14</v>
+        <v>116959.95</v>
       </c>
       <c r="X15" s="22" t="n">
-        <v>146415.16</v>
+        <v>117770.78</v>
       </c>
       <c r="Y15" s="22" t="n">
-        <v>146569.38</v>
+        <v>118857.94</v>
       </c>
       <c r="Z15" s="22" t="n">
-        <v>146601.12</v>
+        <v>118887.47</v>
       </c>
       <c r="AA15" s="22" t="n">
-        <v>146674.62</v>
+        <v>118979.52</v>
       </c>
       <c r="AB15" s="22" t="n">
-        <v>146764</v>
+        <v>119231.91</v>
       </c>
       <c r="AC15" s="22" t="n">
-        <v>146862.52</v>
+        <v>120730.41</v>
       </c>
       <c r="AD15" s="22" t="n">
-        <v>146910.28</v>
+        <v>120736.49</v>
       </c>
       <c r="AE15" s="22" t="n">
-        <v>146925.7</v>
+        <v>120823.94</v>
       </c>
       <c r="AF15" s="22" t="n">
-        <v>146925.7</v>
+        <v>120864.82</v>
       </c>
       <c r="AG15" s="22" t="n">
-        <v>146925.7</v>
+        <v>120864.82</v>
       </c>
       <c r="AH15" s="22" t="n">
-        <v>148545.43</v>
+        <v>120864.82</v>
       </c>
       <c r="AI15" s="22" t="n">
-        <v>148545.43</v>
+        <v>120864.82</v>
       </c>
       <c r="AJ15" s="22" t="n">
         <v/>
@@ -9574,7 +9574,7 @@
         <v/>
       </c>
       <c r="B16" s="14" t="n">
-        <v>120864.82</v>
+        <v>111875.77</v>
       </c>
       <c r="C16" s="14">
         <f>++'Completion Factors'!J22</f>
@@ -9598,7 +9598,7 @@
         <v/>
       </c>
       <c r="I16" s="14" t="n">
-        <v>129006.9441666667</v>
+        <v>126833.945</v>
       </c>
       <c r="J16" s="14">
         <f>100*$G16/$I16</f>
@@ -9621,52 +9621,52 @@
         <v/>
       </c>
       <c r="S16" s="22" t="n">
-        <v>12112.64</v>
+        <v>7454.26</v>
       </c>
       <c r="T16" s="22" t="n">
-        <v>87657.81</v>
+        <v>94639.62</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>106574.9</v>
+        <v>104719.03</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>115607.29</v>
+        <v>108738.61</v>
       </c>
       <c r="W16" s="22" t="n">
-        <v>116959.95</v>
+        <v>111182.78</v>
       </c>
       <c r="X16" s="22" t="n">
-        <v>117770.78</v>
+        <v>111292.85</v>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>118857.94</v>
+        <v>111331.09</v>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>118887.47</v>
+        <v>111401.54</v>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>118979.52</v>
+        <v>111696.72</v>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>119231.91</v>
+        <v>111771.84</v>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>120730.41</v>
+        <v>111788.98</v>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>120736.49</v>
+        <v>111788.98</v>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>120823.94</v>
+        <v>111875.77</v>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>120864.82</v>
+        <v>111875.77</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>120864.82</v>
+        <v>111875.77</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>120864.82</v>
+        <v>111875.77</v>
       </c>
       <c r="AI16" s="22" t="n">
         <v/>
@@ -9701,7 +9701,7 @@
         <v/>
       </c>
       <c r="B17" s="14" t="n">
-        <v>111875.77</v>
+        <v>95486.43000000001</v>
       </c>
       <c r="C17" s="14">
         <f>++'Completion Factors'!J21</f>
@@ -9725,7 +9725,7 @@
         <v/>
       </c>
       <c r="I17" s="14" t="n">
-        <v>126833.945</v>
+        <v>124708.8225</v>
       </c>
       <c r="J17" s="14">
         <f>100*$G17/$I17</f>
@@ -9748,49 +9748,49 @@
         <v/>
       </c>
       <c r="S17" s="22" t="n">
-        <v>7454.26</v>
+        <v>11494.78</v>
       </c>
       <c r="T17" s="22" t="n">
-        <v>94639.62</v>
+        <v>81522.53999999999</v>
       </c>
       <c r="U17" s="22" t="n">
-        <v>104719.03</v>
+        <v>86761.42999999999</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>108738.61</v>
+        <v>90719.17999999999</v>
       </c>
       <c r="W17" s="22" t="n">
-        <v>111182.78</v>
+        <v>91289.98999999999</v>
       </c>
       <c r="X17" s="22" t="n">
-        <v>111292.85</v>
+        <v>91461.98</v>
       </c>
       <c r="Y17" s="22" t="n">
-        <v>111331.09</v>
+        <v>92559.06</v>
       </c>
       <c r="Z17" s="22" t="n">
-        <v>111401.54</v>
+        <v>93105.09999999999</v>
       </c>
       <c r="AA17" s="22" t="n">
-        <v>111696.72</v>
+        <v>93745.45999999999</v>
       </c>
       <c r="AB17" s="22" t="n">
-        <v>111771.84</v>
+        <v>93762.95999999999</v>
       </c>
       <c r="AC17" s="22" t="n">
-        <v>111788.98</v>
+        <v>93814.81</v>
       </c>
       <c r="AD17" s="22" t="n">
-        <v>111788.98</v>
+        <v>93877.44</v>
       </c>
       <c r="AE17" s="22" t="n">
-        <v>111875.77</v>
+        <v>95486.43000000001</v>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>111875.77</v>
+        <v>95486.43000000001</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>111875.77</v>
+        <v>95486.43000000001</v>
       </c>
       <c r="AH17" s="22" t="n">
         <v/>
@@ -9828,7 +9828,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v>95486.43000000001</v>
+        <v>112426.78</v>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9852,7 +9852,7 @@
         <v/>
       </c>
       <c r="I18" s="14" t="n">
-        <v>124708.8225</v>
+        <v>123862.115</v>
       </c>
       <c r="J18" s="14">
         <f>100*$G18/$I18</f>
@@ -9875,46 +9875,46 @@
         <v/>
       </c>
       <c r="S18" s="22" t="n">
-        <v>11494.78</v>
+        <v>26034.36</v>
       </c>
       <c r="T18" s="22" t="n">
-        <v>81522.53999999999</v>
+        <v>94994.12</v>
       </c>
       <c r="U18" s="22" t="n">
-        <v>86761.42999999999</v>
+        <v>103741.8</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>90719.17999999999</v>
+        <v>108671.47</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>91289.98999999999</v>
+        <v>109430.99</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>91461.98</v>
+        <v>109807.24</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>92559.06</v>
+        <v>111537.48</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>93105.09999999999</v>
+        <v>111555.19</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>93745.45999999999</v>
+        <v>111648.43</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>93762.95999999999</v>
+        <v>111681.02</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>93814.81</v>
+        <v>112341.04</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>93877.44</v>
+        <v>112426.78</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>95486.43000000001</v>
+        <v>112426.78</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>95486.43000000001</v>
+        <v>112426.78</v>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -9955,7 +9955,7 @@
         <v/>
       </c>
       <c r="B19" s="14" t="n">
-        <v>112426.78</v>
+        <v>83845.37999999998</v>
       </c>
       <c r="C19" s="14">
         <f>++'Completion Factors'!J19</f>
@@ -9979,7 +9979,7 @@
         <v/>
       </c>
       <c r="I19" s="14" t="n">
-        <v>123862.115</v>
+        <v>124027.4041666667</v>
       </c>
       <c r="J19" s="14">
         <f>100*$G19/$I19</f>
@@ -10005,43 +10005,43 @@
         <v/>
       </c>
       <c r="S19" s="22" t="n">
-        <v>26034.36</v>
+        <v>6385.06</v>
       </c>
       <c r="T19" s="22" t="n">
-        <v>94994.12</v>
+        <v>67569.67</v>
       </c>
       <c r="U19" s="22" t="n">
-        <v>103741.8</v>
+        <v>79796.97</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>108671.47</v>
+        <v>80668.57000000001</v>
       </c>
       <c r="W19" s="22" t="n">
-        <v>109430.99</v>
+        <v>81182.74000000001</v>
       </c>
       <c r="X19" s="22" t="n">
-        <v>109807.24</v>
+        <v>82659.64</v>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>111537.48</v>
+        <v>82724.98</v>
       </c>
       <c r="Z19" s="22" t="n">
-        <v>111555.19</v>
+        <v>82889.90999999999</v>
       </c>
       <c r="AA19" s="22" t="n">
-        <v>111648.43</v>
+        <v>82964.34999999999</v>
       </c>
       <c r="AB19" s="22" t="n">
-        <v>111681.02</v>
+        <v>83039.99999999999</v>
       </c>
       <c r="AC19" s="22" t="n">
-        <v>112341.04</v>
+        <v>83406.94999999998</v>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>112426.78</v>
+        <v>83845.37999999998</v>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>112426.78</v>
+        <v>83845.37999999998</v>
       </c>
       <c r="AF19" s="22" t="n">
         <v/>
@@ -10085,7 +10085,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>83406.94999999998</v>
+        <v>89822.5</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10109,7 +10109,7 @@
         <v/>
       </c>
       <c r="I20" s="14" t="n">
-        <v>124027.4041666667</v>
+        <v>125579.33</v>
       </c>
       <c r="J20" s="14">
         <f>100*$G20/$I20</f>
@@ -10141,40 +10141,40 @@
         <v/>
       </c>
       <c r="S20" s="22" t="n">
-        <v>6385.06</v>
+        <v>14306.13</v>
       </c>
       <c r="T20" s="22" t="n">
-        <v>67569.67</v>
+        <v>77137.60000000001</v>
       </c>
       <c r="U20" s="22" t="n">
-        <v>79796.97</v>
+        <v>85276.59000000001</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>80668.57000000001</v>
+        <v>86501.31000000001</v>
       </c>
       <c r="W20" s="22" t="n">
-        <v>81182.74000000001</v>
+        <v>86898.12000000001</v>
       </c>
       <c r="X20" s="22" t="n">
-        <v>82659.64</v>
+        <v>89364.44</v>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>82724.98</v>
+        <v>89631.18000000001</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>82889.90999999999</v>
+        <v>89756.07000000001</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>82964.34999999999</v>
+        <v>89756.07000000001</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>83039.99999999999</v>
+        <v>89756.07000000001</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>83406.94999999998</v>
+        <v>89822.5</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>83406.94999999998</v>
+        <v>89822.5</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10221,7 +10221,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v>89756.07000000001</v>
+        <v>79774.07000000002</v>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10245,7 +10245,7 @@
         <v/>
       </c>
       <c r="I21" s="14" t="n">
-        <v>125579.33</v>
+        <v>126105.3775</v>
       </c>
       <c r="J21" s="14">
         <f>100*$G21/$I21</f>
@@ -10277,37 +10277,37 @@
         <v/>
       </c>
       <c r="S21" s="22" t="n">
-        <v>14306.13</v>
+        <v>10793.19</v>
       </c>
       <c r="T21" s="22" t="n">
-        <v>77137.60000000001</v>
+        <v>70227.36</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>85276.59000000001</v>
+        <v>77223.16</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>86501.31000000001</v>
+        <v>77952.69</v>
       </c>
       <c r="W21" s="22" t="n">
-        <v>86898.12000000001</v>
+        <v>79200.74000000001</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v>89364.44</v>
+        <v>79404.93000000001</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>89631.18000000001</v>
+        <v>79639.25000000001</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>89756.07000000001</v>
+        <v>79689.88000000002</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>89756.07000000001</v>
+        <v>79717.97000000002</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>89756.07000000001</v>
+        <v>79774.07000000002</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>89756.07000000001</v>
+        <v>79774.07000000002</v>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10357,7 +10357,7 @@
         <v/>
       </c>
       <c r="B22" s="14" t="n">
-        <v>79717.97000000002</v>
+        <v>79010.12</v>
       </c>
       <c r="C22" s="14">
         <f>++'Completion Factors'!J16</f>
@@ -10381,7 +10381,7 @@
         <v/>
       </c>
       <c r="I22" s="14" t="n">
-        <v>126105.3775</v>
+        <v>125926.0375</v>
       </c>
       <c r="J22" s="14">
         <f>100*$G22/$I22</f>
@@ -10413,34 +10413,34 @@
         <v/>
       </c>
       <c r="S22" s="22" t="n">
-        <v>10793.19</v>
+        <v>12011.91</v>
       </c>
       <c r="T22" s="22" t="n">
-        <v>70227.36</v>
+        <v>67015.13</v>
       </c>
       <c r="U22" s="22" t="n">
-        <v>77223.16</v>
+        <v>74644.95000000001</v>
       </c>
       <c r="V22" s="22" t="n">
-        <v>77952.69</v>
+        <v>77431.38</v>
       </c>
       <c r="W22" s="22" t="n">
-        <v>79200.74000000001</v>
+        <v>77711.65000000001</v>
       </c>
       <c r="X22" s="22" t="n">
-        <v>79404.93000000001</v>
+        <v>78432.99000000001</v>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>79639.25000000001</v>
+        <v>78452.82000000001</v>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>79689.88000000002</v>
+        <v>78543.44</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>79717.97000000002</v>
+        <v>79010.12</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>79717.97000000002</v>
+        <v>79010.12</v>
       </c>
       <c r="AC22" s="22" t="n">
         <v/>
@@ -10493,7 +10493,7 @@
         <v/>
       </c>
       <c r="B23" s="14" t="n">
-        <v>78713.63999999998</v>
+        <v>87295.45</v>
       </c>
       <c r="C23" s="14">
         <f>++'Completion Factors'!J15</f>
@@ -10517,7 +10517,7 @@
         <v/>
       </c>
       <c r="I23" s="14" t="n">
-        <v>125926.0375</v>
+        <v>123026.6875</v>
       </c>
       <c r="J23" s="14">
         <f>100*$G23/$I23</f>
@@ -10549,31 +10549,31 @@
         <v/>
       </c>
       <c r="S23" s="22" t="n">
-        <v>12011.91</v>
+        <v>11068.59</v>
       </c>
       <c r="T23" s="22" t="n">
-        <v>67185.33</v>
+        <v>68910.19</v>
       </c>
       <c r="U23" s="22" t="n">
-        <v>74815.14999999999</v>
+        <v>83002.34</v>
       </c>
       <c r="V23" s="22" t="n">
-        <v>77601.57999999999</v>
+        <v>85778.25999999999</v>
       </c>
       <c r="W23" s="22" t="n">
-        <v>77881.84999999999</v>
+        <v>86528.53</v>
       </c>
       <c r="X23" s="22" t="n">
-        <v>78603.18999999999</v>
+        <v>87273.94</v>
       </c>
       <c r="Y23" s="22" t="n">
-        <v>78623.01999999999</v>
+        <v>87277.05</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v>78713.63999999998</v>
+        <v>87295.45</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v>78713.63999999998</v>
+        <v>87295.45</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v/>
@@ -10629,7 +10629,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>87462.45</v>
+        <v>82844.7</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10655,7 +10655,7 @@
         <v/>
       </c>
       <c r="I24" s="14" t="n">
-        <v>123026.6875</v>
+        <v>122216.725</v>
       </c>
       <c r="J24" s="14">
         <f>100*$G24/$I24</f>
@@ -10687,28 +10687,28 @@
         <v/>
       </c>
       <c r="S24" s="22" t="n">
-        <v>11068.59</v>
+        <v>8222.129999999999</v>
       </c>
       <c r="T24" s="22" t="n">
-        <v>69095.59</v>
+        <v>72176.28</v>
       </c>
       <c r="U24" s="22" t="n">
-        <v>83187.73999999999</v>
+        <v>81379.37</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>85963.65999999999</v>
+        <v>82220.42999999999</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>86713.92999999999</v>
+        <v>82593.03</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>87459.34</v>
+        <v>82763.87</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>87462.45</v>
+        <v>82844.7</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>87462.45</v>
+        <v>82844.7</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10767,7 +10767,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>82763.87</v>
+        <v>78941.17</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10793,7 +10793,7 @@
         <v/>
       </c>
       <c r="I25" s="14" t="n">
-        <v>122216.725</v>
+        <v>119111.5425</v>
       </c>
       <c r="J25" s="14">
         <f>100*$G25/$I25</f>
@@ -10825,25 +10825,25 @@
         <v/>
       </c>
       <c r="S25" s="22" t="n">
-        <v>8222.129999999999</v>
+        <v>12412.56</v>
       </c>
       <c r="T25" s="22" t="n">
-        <v>72176.28</v>
+        <v>70305.13</v>
       </c>
       <c r="U25" s="22" t="n">
-        <v>81379.37</v>
+        <v>74303.52</v>
       </c>
       <c r="V25" s="22" t="n">
-        <v>82220.42999999999</v>
+        <v>75375.45</v>
       </c>
       <c r="W25" s="22" t="n">
-        <v>82593.03</v>
+        <v>78453.81999999999</v>
       </c>
       <c r="X25" s="22" t="n">
-        <v>82763.87</v>
+        <v>78941.17</v>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>82763.87</v>
+        <v>78941.17</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10905,7 +10905,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v>78417.95</v>
+        <v>89698.74000000001</v>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10931,7 +10931,7 @@
         <v/>
       </c>
       <c r="I26" s="14" t="n">
-        <v>119111.5425</v>
+        <v>117143.3375</v>
       </c>
       <c r="J26" s="14">
         <f>100*$G26/$I26</f>
@@ -10963,22 +10963,22 @@
         <v/>
       </c>
       <c r="S26" s="22" t="n">
-        <v>12412.56</v>
+        <v>13762.65</v>
       </c>
       <c r="T26" s="22" t="n">
-        <v>70305.13</v>
+        <v>73803.11</v>
       </c>
       <c r="U26" s="22" t="n">
-        <v>74303.52</v>
+        <v>88878.46000000001</v>
       </c>
       <c r="V26" s="22" t="n">
-        <v>75375.45</v>
+        <v>89556.88</v>
       </c>
       <c r="W26" s="22" t="n">
-        <v>78417.95</v>
+        <v>89698.74000000001</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v>78417.95</v>
+        <v>89698.74000000001</v>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11043,7 +11043,7 @@
         <v/>
       </c>
       <c r="B27" s="14" t="n">
-        <v>89548.64</v>
+        <v>56675.95</v>
       </c>
       <c r="C27" s="14">
         <f>++'Completion Factors'!J11</f>
@@ -11069,7 +11069,7 @@
         <v/>
       </c>
       <c r="I27" s="14" t="n">
-        <v>117143.3375</v>
+        <v>117481.2183333333</v>
       </c>
       <c r="J27" s="14">
         <f>100*$G27/$I27</f>
@@ -11101,19 +11101,19 @@
         <v/>
       </c>
       <c r="S27" s="22" t="n">
-        <v>13762.65</v>
+        <v>8084.91</v>
       </c>
       <c r="T27" s="22" t="n">
-        <v>73803.11</v>
+        <v>47690.27</v>
       </c>
       <c r="U27" s="22" t="n">
-        <v>88878.46000000001</v>
+        <v>54446.56</v>
       </c>
       <c r="V27" s="22" t="n">
-        <v>89548.64</v>
+        <v>56675.95</v>
       </c>
       <c r="W27" s="22" t="n">
-        <v>89548.64</v>
+        <v>56675.95</v>
       </c>
       <c r="X27" s="22" t="n">
         <v/>
@@ -11181,7 +11181,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v>54485.09</v>
+        <v>70063.46000000001</v>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11207,7 +11207,7 @@
         <v/>
       </c>
       <c r="I28" s="14" t="n">
-        <v>117481.2183333333</v>
+        <v>115153.365</v>
       </c>
       <c r="J28" s="14">
         <f>100*$G28/$I28</f>
@@ -11239,16 +11239,16 @@
         <v/>
       </c>
       <c r="S28" s="22" t="n">
-        <v>8084.91</v>
+        <v>9036.58</v>
       </c>
       <c r="T28" s="22" t="n">
-        <v>47728.8</v>
+        <v>62744.3</v>
       </c>
       <c r="U28" s="22" t="n">
-        <v>54485.09</v>
+        <v>70063.46000000001</v>
       </c>
       <c r="V28" s="22" t="n">
-        <v>54485.09</v>
+        <v>70063.46000000001</v>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
@@ -11319,7 +11319,7 @@
         <v/>
       </c>
       <c r="B29" s="14" t="n">
-        <v>62636.47</v>
+        <v>75365.03</v>
       </c>
       <c r="C29" s="14">
         <f>++'Completion Factors'!J9</f>
@@ -11346,7 +11346,7 @@
         <v/>
       </c>
       <c r="I29" s="14" t="n">
-        <v>115153.365</v>
+        <v>113770.3091666667</v>
       </c>
       <c r="J29" s="20" t="n">
         <v>75</v>
@@ -11377,13 +11377,13 @@
         <v/>
       </c>
       <c r="S29" s="22" t="n">
-        <v>9036.58</v>
+        <v>10813.72</v>
       </c>
       <c r="T29" s="22" t="n">
-        <v>62636.47</v>
+        <v>75365.03</v>
       </c>
       <c r="U29" s="22" t="n">
-        <v>62636.47</v>
+        <v>75365.03</v>
       </c>
       <c r="V29" s="22" t="n">
         <v/>
@@ -11457,7 +11457,7 @@
         <v/>
       </c>
       <c r="B30" s="14" t="n">
-        <v>10660.98</v>
+        <v>9626.74</v>
       </c>
       <c r="C30" s="14">
         <f>++'Completion Factors'!J8</f>
@@ -11484,7 +11484,7 @@
         <v/>
       </c>
       <c r="I30" s="14" t="n">
-        <v>113770.3091666667</v>
+        <v>112037.265</v>
       </c>
       <c r="J30" s="20" t="n">
         <v>70</v>
@@ -11515,10 +11515,10 @@
         <v/>
       </c>
       <c r="S30" s="22" t="n">
-        <v>10660.98</v>
+        <v>9626.74</v>
       </c>
       <c r="T30" s="22" t="n">
-        <v>10660.98</v>
+        <v>9626.74</v>
       </c>
       <c r="U30" s="22" t="n">
         <v/>
